--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2188 +418,2440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.9976862736195977</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>28.94410468982075</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.002948950071918382</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.00315141341155583</v>
+      </c>
+      <c r="E2">
         <v>1.13987042374744</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.614361086617962</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>12.13126816677337</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.2542150057363252</v>
+      </c>
+      <c r="I2">
+        <v>7.164770970314637</v>
+      </c>
+      <c r="J2">
         <v>1.890008018398549</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>9.518776221467448</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>3.975998191434968</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>24.21701840804218</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.06897673521594722</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>1.090115697076738</v>
       </c>
-      <c r="N2" t="n">
-        <v>85.59113286228687</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>93.01032130167746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.8687232642051553</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>25.20272932533501</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.006740457307242012</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.007203230654984756</v>
+      </c>
+      <c r="E3">
         <v>2.605418111422721</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.7983104274484429</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>5.998978763789031</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.182267362603403</v>
+      </c>
+      <c r="I3">
+        <v>5.137005601357666</v>
+      </c>
+      <c r="J3">
         <v>2.25771385855391</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>11.37067821007979</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>3.195434129312765</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>19.46275712548175</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.05977983718715425</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.9447669374665059</v>
       </c>
-      <c r="N3" t="n">
-        <v>72.77203044758949</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>78.09176618489829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.9276197566936406</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>26.91138894061196</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.006529818016390701</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.00697812969701648</v>
+      </c>
+      <c r="E4">
         <v>2.523998795440761</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.401478305965044</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>10.53154049642963</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1966568912299875</v>
+      </c>
+      <c r="I4">
+        <v>5.54255867514906</v>
+      </c>
+      <c r="J4">
         <v>1.875299784792335</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>9.444700141922951</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>3.439360398725953</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>20.94846377628188</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.07357518423034366</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>1.162790076881854</v>
       </c>
-      <c r="N4" t="n">
-        <v>79.24674547599274</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>84.98640935405241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.8555223262335985</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>24.81975389432466</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.004528744753303227</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.004839670596317881</v>
+      </c>
+      <c r="E5">
         <v>1.75051529361214</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.099894366706744</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>8.265259630109334</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.2014534007721822</v>
+      </c>
+      <c r="I5">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="J5">
         <v>1.581135112668048</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>7.963178551033079</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>3.268612010136721</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>19.90846912072179</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.08277208225913668</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>1.308138836492085</v>
       </c>
-      <c r="N5" t="n">
-        <v>70.90777996905065</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>76.78728732874536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.8844628440943201</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>25.6593538776935</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.005160662625857166</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.005514973470222701</v>
+      </c>
+      <c r="E6">
         <v>1.99477324155802</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.685322013502268</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>12.66451072355462</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.2014534007721822</v>
+      </c>
+      <c r="I6">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="J6">
         <v>1.919424485610979</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>9.666928380556435</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>2.87832997907562</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>17.53133847944158</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.07817363324474018</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>1.235464456686969</v>
       </c>
-      <c r="N6" t="n">
-        <v>76.20324277764492</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>82.08279352234099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.9113724484209558</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>26.44003456398384</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.004844703689580196</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.005177322033270292</v>
+      </c>
+      <c r="E7">
         <v>1.87264426758508</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.667581781781192</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>12.53120008435931</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1678778339768185</v>
+      </c>
+      <c r="I7">
+        <v>4.731452527566271</v>
+      </c>
+      <c r="J7">
         <v>1.985611536838943</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>10.00027073850666</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>3.341789890960677</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>20.35418111596182</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.09656742930232609</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>1.526161975907433</v>
       </c>
-      <c r="N7" t="n">
-        <v>80.7322605372978</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>85.63192351718459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.9667148422247903</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>28.04558540937338</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.005055342980431511</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.005402422991238567</v>
+      </c>
+      <c r="E8">
         <v>1.95406358356704</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.703062245223345</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>12.79782136274993</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.1438952862658445</v>
+      </c>
+      <c r="I8">
+        <v>4.055530737913946</v>
+      </c>
+      <c r="J8">
         <v>2.007673887248265</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>10.1113848578234</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>1.902624901422868</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>11.58851187624104</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.1057643273311191</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>1.671510735517665</v>
       </c>
-      <c r="N8" t="n">
-        <v>72.85977337170328</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>77.05954647589387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.131218838485732</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>32.81804847273314</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.004318105462451914</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.004614569638349606</v>
+      </c>
+      <c r="E9">
         <v>1.66909597763018</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.004646184481645</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>15.06410222907023</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.2014534007721822</v>
+      </c>
+      <c r="I9">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="J9">
         <v>1.912070368807871</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>9.629890340784188</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>1.902624901422868</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>11.58851187624104</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.08277208225913668</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>1.308138836492085</v>
       </c>
-      <c r="N9" t="n">
-        <v>79.11543821387058</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>84.99493111189818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.280998711624552</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>37.16334663227365</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.004107466171600602</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.004389468680381335</v>
+      </c>
+      <c r="E10">
         <v>1.58767666164822</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.383738074243968</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>10.39822985723432</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.3405521774958319</v>
+      </c>
+      <c r="I10">
+        <v>9.598089413063006</v>
+      </c>
+      <c r="J10">
         <v>1.294324557346867</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>6.518694999915452</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>1.048882958476709</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>6.388538598440575</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.1333550214174979</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>2.10755701434836</v>
       </c>
-      <c r="N10" t="n">
-        <v>69.30945055314176</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>79.24837414620939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.291153279294981</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>37.45794311766623</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.004002146526174946</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.004276918201397199</v>
+      </c>
+      <c r="E11">
         <v>1.54696700365724</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.22407598875428</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>9.198434104476517</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.3405521774958319</v>
+      </c>
+      <c r="I11">
+        <v>9.598089413063006</v>
+      </c>
+      <c r="J11">
         <v>1.051638702844329</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>5.296439687431303</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.2195336424718694</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>1.33713598572012</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.05518138817275776</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.87209255766139</v>
       </c>
-      <c r="N11" t="n">
-        <v>59.55459760467719</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>69.49351396691127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.9702689409094407</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>28.14869417926079</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.001895753617661816</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.002025908621714462</v>
+      </c>
+      <c r="E12">
         <v>0.7327738438376401</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.8692713543327489</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>6.532221320570278</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.3117731202426631</v>
+      </c>
+      <c r="I12">
+        <v>8.786983265480217</v>
+      </c>
+      <c r="J12">
         <v>0.7133493299013984</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>3.592689857907947</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.4390672849437388</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>2.67427197144024</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N12" t="n">
-        <v>44.90632232318043</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>54.00520886390736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.7940871918275061</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>23.03744515769957</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.002843630426492725</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.003038862932571693</v>
+      </c>
+      <c r="E13">
         <v>1.09916076575646</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.5854276467955251</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>4.399251093445291</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.3501451965802215</v>
+      </c>
+      <c r="I13">
+        <v>9.868458128923937</v>
+      </c>
+      <c r="J13">
         <v>0.4338928913833247</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>2.185244346562566</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.4146746580024201</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>2.525701306360227</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N13" t="n">
-        <v>35.70954717471791</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>45.92834573272815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.5808412707485087</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>16.85091896445544</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.001579794681384847</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.001688257184762052</v>
+      </c>
+      <c r="E14">
         <v>0.6106448698647001</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.4967264881901423</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3.732697897468731</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.2638080248207148</v>
+      </c>
+      <c r="I14">
+        <v>7.435139686175567</v>
+      </c>
+      <c r="J14">
         <v>0.3897681905646814</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>1.963016107929084</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.2195336424718694</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>1.33713598572012</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N14" t="n">
-        <v>26.33740886973369</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>34.03646504323334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.4082136203512244</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>11.84277871278162</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.001895753617661816</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.002025908621714462</v>
+      </c>
+      <c r="E15">
         <v>0.7327738438376401</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.2483632440950712</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.866348948734365</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1343022671814549</v>
+      </c>
+      <c r="I15">
+        <v>3.785162022053016</v>
+      </c>
+      <c r="J15">
         <v>0.2132693872901088</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>1.074103153395159</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.4634599118850575</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>2.822842636520253</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N15" t="n">
-        <v>19.82859487014719</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>23.74818931438571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.2432018957067619</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>7.055585825152233</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.002211712553938786</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.002363560058666873</v>
+      </c>
+      <c r="E16">
         <v>0.8549028178105801</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.2128827806529182</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1.599727670343742</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.05755811450633777</v>
+      </c>
+      <c r="I16">
+        <v>1.622212295165578</v>
+      </c>
+      <c r="J16">
         <v>0.1912070368807871</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.9629890340784187</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.2927115232958259</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>1.78284798096016</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N16" t="n">
-        <v>13.35281393507439</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>15.03273619225103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1792281193830625</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.199627967178995</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.003475548299046664</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.003714165806476515</v>
+      </c>
+      <c r="E17">
         <v>1.34341871370234</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.01774023172107651</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.1333106391953119</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.02877905725316889</v>
+      </c>
+      <c r="I17">
+        <v>0.8111061475827891</v>
+      </c>
+      <c r="J17">
         <v>0.3015187889273953</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>1.518559630662122</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.390282031061101</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>2.377130641280214</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>11.46429231141067</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>12.30441613375405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1045920470054132</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.03434379954355</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.002527671490215756</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.002701211495619283</v>
+      </c>
+      <c r="E18">
         <v>0.9770317917835201</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.01774023172107651</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.1333106391953119</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.01918603816877926</v>
+      </c>
+      <c r="I18">
+        <v>0.5407374317218595</v>
+      </c>
+      <c r="J18">
         <v>0.2353317376994303</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>1.1852172727119</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.3658894041197821</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>2.2285599762002</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N18" t="n">
-        <v>8.361817400289912</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>8.921914410185954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.08022108459638494</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.327312234601361</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.00358086794447232</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.003826716285460651</v>
+      </c>
+      <c r="E19">
         <v>1.38412837169332</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.1419218537686121</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>1.066485113562495</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.004796509542194815</v>
+      </c>
+      <c r="I19">
+        <v>0.1351843579304649</v>
+      </c>
+      <c r="J19">
         <v>0.1544364528652512</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.7777988352171844</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>0.4878525388263764</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>2.971413301600267</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>9.395150654675724</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>9.535377370489371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.099514763170199</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.88704555684726</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.001895753617661816</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.002025908621714462</v>
+      </c>
+      <c r="E20">
         <v>0.7327738438376401</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.1064413903264591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.7998638351718708</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.04316858587975334</v>
+      </c>
+      <c r="I20">
+        <v>1.216659221374184</v>
+      </c>
+      <c r="J20">
         <v>0.1912070368807871</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.9629890340784187</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.4146746580024201</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>2.525701306360227</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N20" t="n">
-        <v>8.799380007112457</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>10.05933796937045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1467335028376915</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.256919213922745</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0005265982271282822</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.0005627523949206839</v>
+      </c>
+      <c r="E21">
         <v>0.2035482899549</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.2306230123739946</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1.733038309539053</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.02398254771097407</v>
+      </c>
+      <c r="I21">
+        <v>0.6759217896523243</v>
+      </c>
+      <c r="J21">
         <v>0.3529976065491455</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>1.77782590906785</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>0.7073861812982457</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>4.308549287320387</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N21" t="n">
-        <v>13.79542073991065</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>14.49536123144175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.3889199417774105</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>11.28304539053572</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.001053196454256564</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.001125504789841368</v>
+      </c>
+      <c r="E22">
         <v>0.4070965799098</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.4612460247479892</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>3.466076619078107</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.1726743435190134</v>
+      </c>
+      <c r="I22">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="J22">
         <v>0.7574740307200414</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>3.814918096541428</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>1.097668212359347</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>6.6856799286006</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N22" t="n">
-        <v>28.51772367836373</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>33.55710721571506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.6382145780864296</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>18.5153891069235</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.002317032199364443</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.002476110537651009</v>
+      </c>
+      <c r="E23">
         <v>0.89561247580156</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.9224920494959784</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>6.932153238156213</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.4220928397131438</v>
+      </c>
+      <c r="I23">
+        <v>11.89622349788091</v>
+      </c>
+      <c r="J23">
         <v>1.33844925816551</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>6.740923238548931</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>1.463557616479128</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>8.9142399048008</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.05977983718715425</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.9447669374665059</v>
       </c>
-      <c r="N23" t="n">
-        <v>47.36789527331108</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>59.68637068924342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.072830074380768</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>31.12411868172583</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.002317032199364443</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.002476110537651009</v>
+      </c>
+      <c r="E24">
         <v>0.89561247580156</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1.507919696291503</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>11.3314043316015</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.5324125591836246</v>
+      </c>
+      <c r="I24">
+        <v>15.0054637302816</v>
+      </c>
+      <c r="J24">
         <v>1.684092747911549</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>8.481711107844534</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>2.780759471310343</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>16.93705581912152</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.1195596743743085</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>1.889533874933012</v>
       </c>
-      <c r="N24" t="n">
-        <v>77.82691498749578</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>93.36495035529931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.233779971957059</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>35.79347297519817</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.002106392908513129</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.002251009579682735</v>
+      </c>
+      <c r="E25">
         <v>0.8141931598195999</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.383738074243968</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>10.39822985723432</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2973835916160786</v>
+      </c>
+      <c r="I25">
+        <v>8.381430191688821</v>
+      </c>
+      <c r="J25">
         <v>1.397282192590367</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>7.037227556726908</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>1.609913378127041</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>9.805663895280883</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.06437828620155073</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>1.017441317271622</v>
       </c>
-      <c r="N25" t="n">
-        <v>70.55742705756001</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>79.23638545753607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.9976862736195977</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>28.94410468982075</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.002948950071918382</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.00315141341155583</v>
+      </c>
+      <c r="E26">
         <v>1.13987042374744</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.614361086617962</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>12.13126816677337</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.2542150057363252</v>
+      </c>
+      <c r="I26">
+        <v>7.164770970314637</v>
+      </c>
+      <c r="J26">
         <v>1.890008018398549</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>9.518776221467448</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>3.975998191434968</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>24.21701840804218</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.06897673521594722</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>1.090115697076738</v>
       </c>
-      <c r="N26" t="n">
-        <v>85.59113286228687</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>93.01032130167746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.8580609681512054</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>24.8934030156728</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.005792580498411105</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.006190276344127524</v>
+      </c>
+      <c r="E27">
         <v>2.2390311895039</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.454699001128274</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>10.93147241401557</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1966568912299875</v>
+      </c>
+      <c r="I27">
+        <v>5.54255867514906</v>
+      </c>
+      <c r="J27">
         <v>2.213589157735266</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>11.14844997144631</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>3.585716160373865</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>21.83988776676196</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.1011658783167225</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>1.598836355712548</v>
       </c>
-      <c r="N27" t="n">
-        <v>80.87010445931682</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>86.60971772154159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.9037565226681348</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>26.2190871999394</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.00537130191670848</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.005740074428190977</v>
+      </c>
+      <c r="E28">
         <v>2.07619255753998</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1.383738074243968</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>10.39822985723432</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.2781975534472993</v>
+      </c>
+      <c r="I28">
+        <v>7.840692759966965</v>
+      </c>
+      <c r="J28">
         <v>1.823820967170585</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>9.185433863517225</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>4.171139206965518</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>25.40558372868228</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.1057643273311191</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>1.671510735517665</v>
       </c>
-      <c r="N28" t="n">
-        <v>83.34962834272692</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>91.46888742865266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.900710152367005</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>26.13070825432164</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.004950023335005854</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.00528987251225443</v>
+      </c>
+      <c r="E29">
         <v>1.91335392557606</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1.17085529359105</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>8.798502186890582</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1870638721455977</v>
+      </c>
+      <c r="I29">
+        <v>5.272189959288131</v>
+      </c>
+      <c r="J29">
         <v>1.669384514305334</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>8.407635028300041</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>3.122256248488808</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>19.01704513024171</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.06437828620155073</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>1.017441317271622</v>
       </c>
-      <c r="N29" t="n">
-        <v>72.21722036089041</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>77.67681404150137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.9530061758697125</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>27.6478801540934</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.005160662625857166</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.005514973470222701</v>
+      </c>
+      <c r="E30">
         <v>1.99477324155802</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.135374830148897</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>8.531880908499959</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.2206394389409616</v>
+      </c>
+      <c r="I30">
+        <v>6.218480464801384</v>
+      </c>
+      <c r="J30">
         <v>2.081215055279337</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>10.48176525554586</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>2.585618455779793</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>15.74849049848141</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.09656742930232609</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>1.526161975907433</v>
       </c>
-      <c r="N30" t="n">
-        <v>72.787894643092</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>79.22736885767871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.9189883741737762</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>26.66098192802828</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.004107466171600602</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.004389468680381335</v>
+      </c>
+      <c r="E31">
         <v>1.58767666164822</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1.614361086617962</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>12.13126816677337</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.2014534007721822</v>
+      </c>
+      <c r="I31">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="J31">
         <v>1.970903303232729</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>9.926194658962164</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>2.4636553210732</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>15.00563717308134</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.1103627763455155</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>1.74418511532278</v>
       </c>
-      <c r="N31" t="n">
-        <v>74.13832203143095</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>80.01780046779142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.9733153112105695</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>28.23707312487857</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.004739384044154542</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.005064771554286155</v>
+      </c>
+      <c r="E32">
         <v>1.8319346095941</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1.596620854896886</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>11.99795752757806</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.2110464198565719</v>
+      </c>
+      <c r="I32">
+        <v>5.948111748940456</v>
+      </c>
+      <c r="J32">
         <v>1.919424485610979</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>9.666928380556435</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>2.439262694131882</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>14.85706650800133</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.06437828620155073</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>1.017441317271622</v>
       </c>
-      <c r="N32" t="n">
-        <v>74.60614248397614</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>80.76562604028329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.131218838485732</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>32.81804847273314</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.004318105462451914</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.004614569638349606</v>
+      </c>
+      <c r="E33">
         <v>1.66909597763018</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>2.004646184481645</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>15.06410222907023</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.2014534007721822</v>
+      </c>
+      <c r="I33">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="J33">
         <v>1.912070368807871</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>9.629890340784188</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>1.902624901422868</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>11.58851187624104</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.08277208225913668</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>1.308138836492085</v>
       </c>
-      <c r="N33" t="n">
-        <v>79.11543821387058</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>84.99493111189818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.280998711624552</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>37.16334663227365</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.004107466171600602</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.004389468680381335</v>
+      </c>
+      <c r="E34">
         <v>1.58767666164822</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.383738074243968</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>10.39822985723432</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.3405521774958319</v>
+      </c>
+      <c r="I34">
+        <v>9.598089413063006</v>
+      </c>
+      <c r="J34">
         <v>1.294324557346867</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>6.518694999915452</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>1.048882958476709</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>6.388538598440575</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.1333550214174979</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>2.10755701434836</v>
       </c>
-      <c r="N34" t="n">
-        <v>69.30945055314176</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>79.24837414620939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.291153279294981</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>37.45794311766623</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.004002146526174946</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.004276918201397199</v>
+      </c>
+      <c r="E35">
         <v>1.54696700365724</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.22407598875428</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>9.198434104476517</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.3405521774958319</v>
+      </c>
+      <c r="I35">
+        <v>9.598089413063006</v>
+      </c>
+      <c r="J35">
         <v>1.051638702844329</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>5.296439687431303</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.2195336424718694</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>1.33713598572012</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.05518138817275776</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.87209255766139</v>
       </c>
-      <c r="N35" t="n">
-        <v>59.55459760467719</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>69.49351396691127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.9702689409094407</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>28.14869417926079</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.001895753617661816</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.002025908621714462</v>
+      </c>
+      <c r="E36">
         <v>0.7327738438376401</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.8692713543327489</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>6.532221320570278</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.3117731202426631</v>
+      </c>
+      <c r="I36">
+        <v>8.786983265480217</v>
+      </c>
+      <c r="J36">
         <v>0.7133493299013984</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>3.592689857907947</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.4390672849437388</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>2.67427197144024</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N36" t="n">
-        <v>44.90632232318043</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>54.00520886390736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.7940871918275061</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>23.03744515769957</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.002843630426492725</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.003038862932571693</v>
+      </c>
+      <c r="E37">
         <v>1.09916076575646</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.5854276467955251</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>4.399251093445291</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.3501451965802215</v>
+      </c>
+      <c r="I37">
+        <v>9.868458128923937</v>
+      </c>
+      <c r="J37">
         <v>0.4338928913833247</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>2.185244346562566</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.4146746580024201</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>2.525701306360227</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N37" t="n">
-        <v>35.70954717471791</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>45.92834573272815</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.5808412707485087</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>16.85091896445544</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.001579794681384847</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.001688257184762052</v>
+      </c>
+      <c r="E38">
         <v>0.6106448698647001</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.4967264881901423</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3.732697897468731</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.2638080248207148</v>
+      </c>
+      <c r="I38">
+        <v>7.435139686175567</v>
+      </c>
+      <c r="J38">
         <v>0.3897681905646814</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>1.963016107929084</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.2195336424718694</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>1.33713598572012</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N38" t="n">
-        <v>26.33740886973369</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>34.03646504323334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.4082136203512244</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>11.84277871278162</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.001895753617661816</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.002025908621714462</v>
+      </c>
+      <c r="E39">
         <v>0.7327738438376401</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.2483632440950712</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>1.866348948734365</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.1343022671814549</v>
+      </c>
+      <c r="I39">
+        <v>3.785162022053016</v>
+      </c>
+      <c r="J39">
         <v>0.2132693872901088</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>1.074103153395159</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.4634599118850575</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>2.822842636520253</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N39" t="n">
-        <v>19.82859487014719</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>23.74818931438571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.2432018957067619</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>7.055585825152233</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.002211712553938786</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.002363560058666873</v>
+      </c>
+      <c r="E40">
         <v>0.8549028178105801</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.2128827806529182</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1.599727670343742</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.05755811450633777</v>
+      </c>
+      <c r="I40">
+        <v>1.622212295165578</v>
+      </c>
+      <c r="J40">
         <v>0.1912070368807871</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.9629890340784187</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.2927115232958259</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>1.78284798096016</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N40" t="n">
-        <v>13.35281393507439</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>15.03273619225103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1792281193830625</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>5.199627967178995</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.003475548299046664</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.003714165806476515</v>
+      </c>
+      <c r="E41">
         <v>1.34341871370234</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.01774023172107651</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.1333106391953119</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.02877905725316889</v>
+      </c>
+      <c r="I41">
+        <v>0.8111061475827891</v>
+      </c>
+      <c r="J41">
         <v>0.3015187889273953</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>1.518559630662122</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.390282031061101</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>2.377130641280214</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>11.46429231141067</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>12.30441613375405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1045920470054132</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.03434379954355</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.002527671490215756</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.002701211495619283</v>
+      </c>
+      <c r="E42">
         <v>0.9770317917835201</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.01774023172107651</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.1333106391953119</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.01918603816877926</v>
+      </c>
+      <c r="I42">
+        <v>0.5407374317218595</v>
+      </c>
+      <c r="J42">
         <v>0.2353317376994303</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>1.1852172727119</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.3658894041197821</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>2.2285599762002</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N42" t="n">
-        <v>8.361817400289912</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>8.921914410185954</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.08022108459638494</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.327312234601361</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.00358086794447232</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.003826716285460651</v>
+      </c>
+      <c r="E43">
         <v>1.38412837169332</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.1419218537686121</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>1.066485113562495</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.004796509542194815</v>
+      </c>
+      <c r="I43">
+        <v>0.1351843579304649</v>
+      </c>
+      <c r="J43">
         <v>0.1544364528652512</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.7777988352171844</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>0.4878525388263764</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>2.971413301600267</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>9.395150654675724</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>9.535377370489371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.099514763170199</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>2.88704555684726</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.001895753617661816</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.002025908621714462</v>
+      </c>
+      <c r="E44">
         <v>0.7327738438376401</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.1064413903264591</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.7998638351718708</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.04316858587975334</v>
+      </c>
+      <c r="I44">
+        <v>1.216659221374184</v>
+      </c>
+      <c r="J44">
         <v>0.1912070368807871</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.9629890340784187</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.4146746580024201</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>2.525701306360227</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N44" t="n">
-        <v>8.799380007112457</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>10.05933796937045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1467335028376915</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.256919213922745</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0005265982271282822</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.0005627523949206839</v>
+      </c>
+      <c r="E45">
         <v>0.2035482899549</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.2306230123739946</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1.733038309539053</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.02398254771097407</v>
+      </c>
+      <c r="I45">
+        <v>0.6759217896523243</v>
+      </c>
+      <c r="J45">
         <v>0.3529976065491455</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>1.77782590906785</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>0.7073861812982457</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>4.308549287320387</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N45" t="n">
-        <v>13.79542073991065</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>14.49536123144175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.3889199417774105</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>11.28304539053572</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.001053196454256564</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.001125504789841368</v>
+      </c>
+      <c r="E46">
         <v>0.4070965799098</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.4612460247479892</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>3.466076619078107</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.1726743435190134</v>
+      </c>
+      <c r="I46">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="J46">
         <v>0.7574740307200414</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>3.814918096541428</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>1.097668212359347</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>6.6856799286006</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N46" t="n">
-        <v>28.51772367836373</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>33.55710721571506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.6382145780864296</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>18.5153891069235</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.002317032199364443</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.002476110537651009</v>
+      </c>
+      <c r="E47">
         <v>0.89561247580156</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.9224920494959784</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>6.932153238156213</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.4220928397131438</v>
+      </c>
+      <c r="I47">
+        <v>11.89622349788091</v>
+      </c>
+      <c r="J47">
         <v>1.33844925816551</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>6.740923238548931</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>1.463557616479128</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>8.9142399048008</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.05977983718715425</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.9447669374665059</v>
       </c>
-      <c r="N47" t="n">
-        <v>47.36789527331108</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>59.68637068924342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.072830074380768</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>31.12411868172583</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.002317032199364443</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.002476110537651009</v>
+      </c>
+      <c r="E48">
         <v>0.89561247580156</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1.507919696291503</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>11.3314043316015</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.5324125591836246</v>
+      </c>
+      <c r="I48">
+        <v>15.0054637302816</v>
+      </c>
+      <c r="J48">
         <v>1.684092747911549</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>8.481711107844534</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>2.780759471310343</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>16.93705581912152</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.1195596743743085</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>1.889533874933012</v>
       </c>
-      <c r="N48" t="n">
-        <v>77.82691498749578</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>93.36495035529931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.233779971957059</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>35.79347297519817</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.002106392908513129</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.002251009579682735</v>
+      </c>
+      <c r="E49">
         <v>0.8141931598195999</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1.383738074243968</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>10.39822985723432</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.2973835916160786</v>
+      </c>
+      <c r="I49">
+        <v>8.381430191688821</v>
+      </c>
+      <c r="J49">
         <v>1.397282192590367</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>7.037227556726908</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>1.609913378127041</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>9.805663895280883</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.06437828620155073</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>1.017441317271622</v>
       </c>
-      <c r="N49" t="n">
-        <v>70.55742705756001</v>
+      <c r="P49">
+        <v>79.23638545753607</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.9976862736195977</v>
+        <v>3.068928499461042</v>
       </c>
       <c r="C2">
-        <v>28.94410468982075</v>
+        <v>89.03338666944863</v>
       </c>
       <c r="D2">
-        <v>0.00315141341155583</v>
+        <v>0.009693891444671737</v>
       </c>
       <c r="E2">
-        <v>1.13987042374744</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="F2">
-        <v>1.614361086617962</v>
+        <v>4.965848361497838</v>
       </c>
       <c r="G2">
-        <v>12.13126816677337</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="H2">
-        <v>0.2542150057363252</v>
+        <v>0.7819769568086961</v>
       </c>
       <c r="I2">
-        <v>7.164770970314637</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="J2">
-        <v>1.890008018398549</v>
+        <v>5.813750900701244</v>
       </c>
       <c r="K2">
-        <v>9.518776221467448</v>
+        <v>29.28018997401964</v>
       </c>
       <c r="L2">
-        <v>3.975998191434968</v>
+        <v>12.2303518512201</v>
       </c>
       <c r="M2">
-        <v>24.21701840804218</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="N2">
-        <v>0.06897673521594722</v>
+        <v>0.2121755847517159</v>
       </c>
       <c r="O2">
-        <v>1.090115697076738</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="P2">
-        <v>93.01032130167746</v>
+        <v>286.1039921409015</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.8687232642051553</v>
+        <v>2.672232398258443</v>
       </c>
       <c r="C3">
-        <v>25.20272932533501</v>
+        <v>77.52474533914838</v>
       </c>
       <c r="D3">
-        <v>0.007203230654984756</v>
+        <v>0.02215746615924968</v>
       </c>
       <c r="E3">
-        <v>2.605418111422721</v>
+        <v>8.014384989129203</v>
       </c>
       <c r="F3">
-        <v>0.7983104274484429</v>
+        <v>2.455639299641788</v>
       </c>
       <c r="G3">
-        <v>5.998978763789031</v>
+        <v>18.45313239507728</v>
       </c>
       <c r="H3">
-        <v>0.182267362603403</v>
+        <v>0.5606627237496311</v>
       </c>
       <c r="I3">
-        <v>5.137005601357666</v>
+        <v>15.80166361786445</v>
       </c>
       <c r="J3">
-        <v>2.25771385855391</v>
+        <v>6.944830842471912</v>
       </c>
       <c r="K3">
-        <v>11.37067821007979</v>
+        <v>34.97672498842035</v>
       </c>
       <c r="L3">
-        <v>3.195434129312765</v>
+        <v>9.829301181041929</v>
       </c>
       <c r="M3">
-        <v>19.46275712548175</v>
+        <v>59.86832895252751</v>
       </c>
       <c r="N3">
-        <v>0.05977983718715425</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O3">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P3">
-        <v>78.09176618489829</v>
+        <v>240.2138359071586</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.9276197566936406</v>
+        <v>2.853400696445458</v>
       </c>
       <c r="C4">
-        <v>26.91138894061196</v>
+        <v>82.78066027739574</v>
       </c>
       <c r="D4">
-        <v>0.00697812969701648</v>
+        <v>0.02146504534177313</v>
       </c>
       <c r="E4">
-        <v>2.523998795440761</v>
+        <v>7.763935458218915</v>
       </c>
       <c r="F4">
-        <v>1.401478305965044</v>
+        <v>4.311011214926696</v>
       </c>
       <c r="G4">
-        <v>10.53154049642963</v>
+        <v>32.39549909358013</v>
       </c>
       <c r="H4">
-        <v>0.1966568912299875</v>
+        <v>0.6049255703614443</v>
       </c>
       <c r="I4">
-        <v>5.54255867514906</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="J4">
-        <v>1.875299784792335</v>
+        <v>5.768507703030417</v>
       </c>
       <c r="K4">
-        <v>9.444700141922951</v>
+        <v>29.05232857344361</v>
       </c>
       <c r="L4">
-        <v>3.439360398725953</v>
+        <v>10.5796295154726</v>
       </c>
       <c r="M4">
-        <v>20.94846377628188</v>
+        <v>64.43843039928535</v>
       </c>
       <c r="N4">
-        <v>0.07357518423034366</v>
+        <v>0.2263206237351636</v>
       </c>
       <c r="O4">
-        <v>1.162790076881854</v>
+        <v>3.576795331549124</v>
       </c>
       <c r="P4">
-        <v>84.98640935405241</v>
+        <v>261.422072879956</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.8555223262335985</v>
+        <v>2.63162571073377</v>
       </c>
       <c r="C5">
-        <v>24.81975389432466</v>
+        <v>76.34669543919638</v>
       </c>
       <c r="D5">
-        <v>0.004839670596317881</v>
+        <v>0.01488704757574588</v>
       </c>
       <c r="E5">
-        <v>1.75051529361214</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="F5">
-        <v>1.099894366706744</v>
+        <v>3.383325257284242</v>
       </c>
       <c r="G5">
-        <v>8.265259630109334</v>
+        <v>25.4243157443287</v>
       </c>
       <c r="H5">
-        <v>0.2014534007721822</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I5">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J5">
-        <v>1.581135112668048</v>
+        <v>4.86364374961388</v>
       </c>
       <c r="K5">
-        <v>7.963178551033079</v>
+        <v>24.49510056192304</v>
       </c>
       <c r="L5">
-        <v>3.268612010136721</v>
+        <v>10.05439968137113</v>
       </c>
       <c r="M5">
-        <v>19.90846912072179</v>
+        <v>61.23935938655483</v>
       </c>
       <c r="N5">
-        <v>0.08277208225913668</v>
+        <v>0.2546107017020591</v>
       </c>
       <c r="O5">
-        <v>1.308138836492085</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="P5">
-        <v>76.78728732874536</v>
+        <v>236.2011994256843</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.8844628440943201</v>
+        <v>2.720648064153251</v>
       </c>
       <c r="C6">
-        <v>25.6593538776935</v>
+        <v>78.92934329678346</v>
       </c>
       <c r="D6">
-        <v>0.005514973470222701</v>
+        <v>0.01696431002817554</v>
       </c>
       <c r="E6">
-        <v>1.99477324155802</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="F6">
-        <v>1.685322013502268</v>
+        <v>5.184127410354884</v>
       </c>
       <c r="G6">
-        <v>12.66451072355462</v>
+        <v>38.95661283405206</v>
       </c>
       <c r="H6">
-        <v>0.2014534007721822</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I6">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J6">
-        <v>1.919424485610979</v>
+        <v>5.904237296042898</v>
       </c>
       <c r="K6">
-        <v>9.666928380556435</v>
+        <v>29.73591277517169</v>
       </c>
       <c r="L6">
-        <v>2.87832997907562</v>
+        <v>8.853874346282044</v>
       </c>
       <c r="M6">
-        <v>17.53133847944158</v>
+        <v>53.92719707174231</v>
       </c>
       <c r="N6">
-        <v>0.07817363324474018</v>
+        <v>0.2404656627186113</v>
       </c>
       <c r="O6">
-        <v>1.235464456686969</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="P6">
-        <v>82.08279352234099</v>
+        <v>252.490418097239</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.9113724484209558</v>
+        <v>2.803423234876629</v>
       </c>
       <c r="C7">
-        <v>26.44003456398384</v>
+        <v>81.33075270822404</v>
       </c>
       <c r="D7">
-        <v>0.005177322033270292</v>
+        <v>0.01592567880196071</v>
       </c>
       <c r="E7">
-        <v>1.87264426758508</v>
+        <v>5.760339210936616</v>
       </c>
       <c r="F7">
-        <v>1.667581781781192</v>
+        <v>5.129557648140625</v>
       </c>
       <c r="G7">
-        <v>12.53120008435931</v>
+        <v>38.54654322527257</v>
       </c>
       <c r="H7">
-        <v>0.1678778339768185</v>
+        <v>0.5163998771378182</v>
       </c>
       <c r="I7">
-        <v>4.731452527566271</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="J7">
-        <v>1.985611536838943</v>
+        <v>6.107831685561619</v>
       </c>
       <c r="K7">
-        <v>10.00027073850666</v>
+        <v>30.76128907776382</v>
       </c>
       <c r="L7">
-        <v>3.341789890960677</v>
+        <v>10.27949818170034</v>
       </c>
       <c r="M7">
-        <v>20.35418111596182</v>
+        <v>62.61038982058221</v>
       </c>
       <c r="N7">
-        <v>0.09656742930232609</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O7">
-        <v>1.526161975907433</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P7">
-        <v>85.63192351718459</v>
+        <v>263.4077038988682</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.9667148422247903</v>
+        <v>2.973658963345459</v>
       </c>
       <c r="C8">
-        <v>28.04558540937338</v>
+        <v>86.26950036571512</v>
       </c>
       <c r="D8">
-        <v>0.005402422991238567</v>
+        <v>0.01661809961943726</v>
       </c>
       <c r="E8">
-        <v>1.95406358356704</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="F8">
-        <v>1.703062245223345</v>
+        <v>5.238697172569148</v>
       </c>
       <c r="G8">
-        <v>12.79782136274993</v>
+        <v>39.36668244283154</v>
       </c>
       <c r="H8">
-        <v>0.1438952862658445</v>
+        <v>0.4426284661181299</v>
       </c>
       <c r="I8">
-        <v>4.055530737913946</v>
+        <v>12.47499759305088</v>
       </c>
       <c r="J8">
-        <v>2.007673887248265</v>
+        <v>6.175696482067859</v>
       </c>
       <c r="K8">
-        <v>10.1113848578234</v>
+        <v>31.10308117862786</v>
       </c>
       <c r="L8">
-        <v>1.902624901422868</v>
+        <v>5.852561008559318</v>
       </c>
       <c r="M8">
-        <v>11.58851187624104</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="N8">
-        <v>0.1057643273311191</v>
+        <v>0.3253358966192977</v>
       </c>
       <c r="O8">
-        <v>1.671510735517665</v>
+        <v>5.141643289101865</v>
       </c>
       <c r="P8">
-        <v>77.05954647589387</v>
+        <v>237.0386809847839</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.131218838485732</v>
+        <v>3.479680761729876</v>
       </c>
       <c r="C9">
-        <v>32.81804847273314</v>
+        <v>100.9498145035784</v>
       </c>
       <c r="D9">
-        <v>0.004614569638349606</v>
+        <v>0.01419462675826933</v>
       </c>
       <c r="E9">
-        <v>1.66909597763018</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="F9">
-        <v>2.004646184481645</v>
+        <v>6.1663831302116</v>
       </c>
       <c r="G9">
-        <v>15.06410222907023</v>
+        <v>46.33786579208296</v>
       </c>
       <c r="H9">
-        <v>0.2014534007721822</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I9">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J9">
-        <v>1.912070368807871</v>
+        <v>5.881615697207485</v>
       </c>
       <c r="K9">
-        <v>9.629890340784188</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="L9">
-        <v>1.902624901422868</v>
+        <v>5.852561008559318</v>
       </c>
       <c r="M9">
-        <v>11.58851187624104</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="N9">
-        <v>0.08277208225913668</v>
+        <v>0.2546107017020591</v>
       </c>
       <c r="O9">
-        <v>1.308138836492085</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="P9">
-        <v>84.99493111189818</v>
+        <v>261.4482861959149</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.280998711624552</v>
+        <v>3.940410485567535</v>
       </c>
       <c r="C10">
-        <v>37.16334663227365</v>
+        <v>114.3161499068798</v>
       </c>
       <c r="D10">
-        <v>0.004389468680381335</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E10">
-        <v>1.58767666164822</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F10">
-        <v>1.383738074243968</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G10">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H10">
-        <v>0.3405521774958319</v>
+        <v>1.047554036479574</v>
       </c>
       <c r="I10">
-        <v>9.598089413063006</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="J10">
-        <v>1.294324557346867</v>
+        <v>3.981401395032758</v>
       </c>
       <c r="K10">
-        <v>6.518694999915452</v>
+        <v>20.05180325069049</v>
       </c>
       <c r="L10">
-        <v>1.048882958476709</v>
+        <v>3.226411838051929</v>
       </c>
       <c r="M10">
-        <v>6.388538598440575</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="N10">
-        <v>0.1333550214174979</v>
+        <v>0.4102061305199842</v>
       </c>
       <c r="O10">
-        <v>2.10755701434836</v>
+        <v>6.482941538432788</v>
       </c>
       <c r="P10">
-        <v>79.24837414620939</v>
+        <v>243.7716147691384</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.291153279294981</v>
+        <v>3.971646399048057</v>
       </c>
       <c r="C11">
-        <v>37.45794311766623</v>
+        <v>115.2223421376122</v>
       </c>
       <c r="D11">
-        <v>0.004276918201397199</v>
+        <v>0.0131559955320545</v>
       </c>
       <c r="E11">
-        <v>1.54696700365724</v>
+        <v>4.758541087295464</v>
       </c>
       <c r="F11">
-        <v>1.22407598875428</v>
+        <v>3.765313592784076</v>
       </c>
       <c r="G11">
-        <v>9.198434104476517</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="H11">
-        <v>0.3405521774958319</v>
+        <v>1.047554036479574</v>
       </c>
       <c r="I11">
-        <v>9.598089413063006</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="J11">
-        <v>1.051638702844329</v>
+        <v>3.234888633464115</v>
       </c>
       <c r="K11">
-        <v>5.296439687431303</v>
+        <v>16.29209014118603</v>
       </c>
       <c r="L11">
-        <v>0.2195336424718694</v>
+        <v>0.675295500987613</v>
       </c>
       <c r="M11">
-        <v>1.33713598572012</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="N11">
-        <v>0.05518138817275776</v>
+        <v>0.1697404678013728</v>
       </c>
       <c r="O11">
-        <v>0.87209255766139</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="P11">
-        <v>69.49351396691127</v>
+        <v>213.7652197689401</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.9702689409094407</v>
+        <v>2.98459153306364</v>
       </c>
       <c r="C12">
-        <v>28.14869417926079</v>
+        <v>86.5866676464714</v>
       </c>
       <c r="D12">
-        <v>0.002025908621714462</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E12">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F12">
-        <v>0.8692713543327489</v>
+        <v>2.673918348498836</v>
       </c>
       <c r="G12">
-        <v>6.532221320570278</v>
+        <v>20.09341083019527</v>
       </c>
       <c r="H12">
-        <v>0.3117731202426631</v>
+        <v>0.9590283432559482</v>
       </c>
       <c r="I12">
-        <v>8.786983265480217</v>
+        <v>27.02916145161024</v>
       </c>
       <c r="J12">
-        <v>0.7133493299013984</v>
+        <v>2.194295087035099</v>
       </c>
       <c r="K12">
-        <v>3.592689857907947</v>
+        <v>11.05127792793737</v>
       </c>
       <c r="L12">
-        <v>0.4390672849437388</v>
+        <v>1.350591001975226</v>
       </c>
       <c r="M12">
-        <v>2.67427197144024</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="N12">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O12">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P12">
-        <v>54.00520886390736</v>
+        <v>166.1224865813728</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.7940871918275061</v>
+        <v>2.442648434176627</v>
       </c>
       <c r="C13">
-        <v>23.03744515769957</v>
+        <v>70.86423244326599</v>
       </c>
       <c r="D13">
-        <v>0.003038862932571693</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E13">
-        <v>1.09916076575646</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F13">
-        <v>0.5854276467955251</v>
+        <v>1.800802153070645</v>
       </c>
       <c r="G13">
-        <v>4.399251093445291</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="H13">
-        <v>0.3501451965802215</v>
+        <v>1.077062600887449</v>
       </c>
       <c r="I13">
-        <v>9.868458128923937</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="J13">
-        <v>0.4338928913833247</v>
+        <v>1.33467433128939</v>
       </c>
       <c r="K13">
-        <v>2.185244346562566</v>
+        <v>6.721911316992835</v>
       </c>
       <c r="L13">
-        <v>0.4146746580024201</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M13">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N13">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O13">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P13">
-        <v>45.92834573272815</v>
+        <v>141.2776870637912</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5808412707485087</v>
+        <v>1.786694251085717</v>
       </c>
       <c r="C14">
-        <v>16.85091896445544</v>
+        <v>51.83419559788761</v>
       </c>
       <c r="D14">
-        <v>0.001688257184762052</v>
+        <v>0.005193156131074145</v>
       </c>
       <c r="E14">
-        <v>0.6106448698647001</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="F14">
-        <v>0.4967264881901423</v>
+        <v>1.527953341999335</v>
       </c>
       <c r="G14">
-        <v>3.732697897468731</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="H14">
-        <v>0.2638080248207148</v>
+        <v>0.8114855212165715</v>
       </c>
       <c r="I14">
-        <v>7.435139686175567</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="J14">
-        <v>0.3897681905646814</v>
+        <v>1.19894473827691</v>
       </c>
       <c r="K14">
-        <v>1.963016107929084</v>
+        <v>6.03832711526475</v>
       </c>
       <c r="L14">
-        <v>0.2195336424718694</v>
+        <v>0.675295500987613</v>
       </c>
       <c r="M14">
-        <v>1.33713598572012</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="N14">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O14">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P14">
-        <v>34.03646504323334</v>
+        <v>104.6977194675885</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.4082136203512244</v>
+        <v>1.255683721916884</v>
       </c>
       <c r="C15">
-        <v>11.84277871278162</v>
+        <v>36.42892767543853</v>
       </c>
       <c r="D15">
-        <v>0.002025908621714462</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E15">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F15">
-        <v>0.2483632440950712</v>
+        <v>0.7639766709996677</v>
       </c>
       <c r="G15">
-        <v>1.866348948734365</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="H15">
-        <v>0.1343022671814549</v>
+        <v>0.4131199017102546</v>
       </c>
       <c r="I15">
-        <v>3.785162022053016</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="J15">
-        <v>0.2132693872901088</v>
+        <v>0.6560263662269885</v>
       </c>
       <c r="K15">
-        <v>1.074103153395159</v>
+        <v>3.30399030835241</v>
       </c>
       <c r="L15">
-        <v>0.4634599118850575</v>
+        <v>1.425623835418295</v>
       </c>
       <c r="M15">
-        <v>2.822842636520253</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="N15">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O15">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P15">
-        <v>23.74818931438571</v>
+        <v>73.05051389862373</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.2432018957067619</v>
+        <v>0.7481001278584427</v>
       </c>
       <c r="C16">
-        <v>7.055585825152233</v>
+        <v>21.70330392603861</v>
       </c>
       <c r="D16">
-        <v>0.002363560058666873</v>
+        <v>0.007270418583503802</v>
       </c>
       <c r="E16">
-        <v>0.8549028178105801</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="F16">
-        <v>0.2128827806529182</v>
+        <v>0.6548371465711436</v>
       </c>
       <c r="G16">
-        <v>1.599727670343742</v>
+        <v>4.920835305353942</v>
       </c>
       <c r="H16">
-        <v>0.05755811450633777</v>
+        <v>0.1770513864472519</v>
       </c>
       <c r="I16">
-        <v>1.622212295165578</v>
+        <v>4.989999037220354</v>
       </c>
       <c r="J16">
-        <v>0.1912070368807871</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K16">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L16">
-        <v>0.2927115232958259</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M16">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="N16">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O16">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P16">
-        <v>15.03273619225103</v>
+        <v>46.24138243167714</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1792281193830625</v>
+        <v>0.5513138729311694</v>
       </c>
       <c r="C17">
-        <v>5.199627967178995</v>
+        <v>15.99429287242512</v>
       </c>
       <c r="D17">
-        <v>0.003714165806476515</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E17">
-        <v>1.34341871370234</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F17">
-        <v>0.01774023172107651</v>
+        <v>0.05456976221426198</v>
       </c>
       <c r="G17">
-        <v>0.1333106391953119</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="H17">
-        <v>0.02877905725316889</v>
+        <v>0.08852569322362597</v>
       </c>
       <c r="I17">
-        <v>0.8111061475827891</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="J17">
-        <v>0.3015187889273953</v>
+        <v>0.9274855522519494</v>
       </c>
       <c r="K17">
-        <v>1.518559630662122</v>
+        <v>4.671158711808581</v>
       </c>
       <c r="L17">
-        <v>0.390282031061101</v>
+        <v>1.20052533508909</v>
       </c>
       <c r="M17">
-        <v>2.377130641280214</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="P17">
-        <v>12.30441613375405</v>
+        <v>37.84894544565409</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1045920470054132</v>
+        <v>0.3217299088493512</v>
       </c>
       <c r="C18">
-        <v>3.03434379954355</v>
+        <v>9.333779976542708</v>
       </c>
       <c r="D18">
-        <v>0.002701211495619283</v>
+        <v>0.008309049809718631</v>
       </c>
       <c r="E18">
-        <v>0.9770317917835201</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="F18">
-        <v>0.01774023172107651</v>
+        <v>0.05456976221426198</v>
       </c>
       <c r="G18">
-        <v>0.1333106391953119</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="H18">
-        <v>0.01918603816877926</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I18">
-        <v>0.5407374317218595</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J18">
-        <v>0.2353317376994303</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K18">
-        <v>1.1852172727119</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L18">
-        <v>0.3658894041197821</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M18">
-        <v>2.2285599762002</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N18">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O18">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P18">
-        <v>8.921914410185954</v>
+        <v>27.44421580927924</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.08022108459638494</v>
+        <v>0.2467637164961043</v>
       </c>
       <c r="C19">
-        <v>2.327312234601361</v>
+        <v>7.158918622785179</v>
       </c>
       <c r="D19">
-        <v>0.003826716285460651</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E19">
-        <v>1.38412837169332</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F19">
-        <v>0.1419218537686121</v>
+        <v>0.4365580977140959</v>
       </c>
       <c r="G19">
-        <v>1.066485113562495</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="H19">
-        <v>0.004796509542194815</v>
+        <v>0.01475428220393767</v>
       </c>
       <c r="I19">
-        <v>0.1351843579304649</v>
+        <v>0.4158332531016961</v>
       </c>
       <c r="J19">
-        <v>0.1544364528652512</v>
+        <v>0.4750535755436814</v>
       </c>
       <c r="K19">
-        <v>0.7777988352171844</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="L19">
-        <v>0.4878525388263764</v>
+        <v>1.500656668861363</v>
       </c>
       <c r="M19">
-        <v>2.971413301600267</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="P19">
-        <v>9.535377370489371</v>
+        <v>29.33125586587796</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.099514763170199</v>
+        <v>0.3061119521090915</v>
       </c>
       <c r="C20">
-        <v>2.88704555684726</v>
+        <v>8.880683861176552</v>
       </c>
       <c r="D20">
-        <v>0.002025908621714462</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E20">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F20">
-        <v>0.1064413903264591</v>
+        <v>0.3274185732855718</v>
       </c>
       <c r="G20">
-        <v>0.7998638351718708</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H20">
-        <v>0.04316858587975334</v>
+        <v>0.132788539835439</v>
       </c>
       <c r="I20">
-        <v>1.216659221374184</v>
+        <v>3.742499277915265</v>
       </c>
       <c r="J20">
-        <v>0.1912070368807871</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K20">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L20">
-        <v>0.4146746580024201</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M20">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N20">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O20">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P20">
-        <v>10.05933796937045</v>
+        <v>30.94298257498361</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1467335028376915</v>
+        <v>0.4513589497935071</v>
       </c>
       <c r="C21">
-        <v>4.256919213922745</v>
+        <v>13.09447773408175</v>
       </c>
       <c r="D21">
-        <v>0.0005627523949206839</v>
+        <v>0.001731052043691381</v>
       </c>
       <c r="E21">
-        <v>0.2035482899549</v>
+        <v>0.626123827275719</v>
       </c>
       <c r="F21">
-        <v>0.2306230123739946</v>
+        <v>0.7094069087854058</v>
       </c>
       <c r="G21">
-        <v>1.733038309539053</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="H21">
-        <v>0.02398254771097407</v>
+        <v>0.07377141101968832</v>
       </c>
       <c r="I21">
-        <v>0.6759217896523243</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="J21">
-        <v>0.3529976065491455</v>
+        <v>1.085836744099843</v>
       </c>
       <c r="K21">
-        <v>1.77782590906785</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="L21">
-        <v>0.7073861812982457</v>
+        <v>2.175952169848975</v>
       </c>
       <c r="M21">
-        <v>4.308549287320387</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="N21">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O21">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P21">
-        <v>14.49536123144175</v>
+        <v>44.58839253321814</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.3889199417774105</v>
+        <v>1.196335486303898</v>
       </c>
       <c r="C22">
-        <v>11.28304539053572</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="D22">
-        <v>0.001125504789841368</v>
+        <v>0.003462104087382763</v>
       </c>
       <c r="E22">
-        <v>0.4070965799098</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="F22">
-        <v>0.4612460247479892</v>
+        <v>1.418813817570812</v>
       </c>
       <c r="G22">
-        <v>3.466076619078107</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="H22">
-        <v>0.1726743435190134</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I22">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J22">
-        <v>0.7574740307200414</v>
+        <v>2.33002468004758</v>
       </c>
       <c r="K22">
-        <v>3.814918096541428</v>
+        <v>11.73486212966546</v>
       </c>
       <c r="L22">
-        <v>1.097668212359347</v>
+        <v>3.376477504938066</v>
       </c>
       <c r="M22">
-        <v>6.6856799286006</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="N22">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O22">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P22">
-        <v>33.55710721571506</v>
+        <v>103.2231929183022</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.6382145780864296</v>
+        <v>1.963177162250652</v>
       </c>
       <c r="C23">
-        <v>18.5153891069235</v>
+        <v>56.95418170152513</v>
       </c>
       <c r="D23">
-        <v>0.002476110537651009</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E23">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F23">
-        <v>0.9224920494959784</v>
+        <v>2.837627635141623</v>
       </c>
       <c r="G23">
-        <v>6.932153238156213</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="H23">
-        <v>0.4220928397131438</v>
+        <v>1.298376833946514</v>
       </c>
       <c r="I23">
-        <v>11.89622349788091</v>
+        <v>36.59332627294925</v>
       </c>
       <c r="J23">
-        <v>1.33844925816551</v>
+        <v>4.117130988045239</v>
       </c>
       <c r="K23">
-        <v>6.740923238548931</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="L23">
-        <v>1.463557616479128</v>
+        <v>4.501970006584088</v>
       </c>
       <c r="M23">
-        <v>8.9142399048008</v>
+        <v>27.42060868054695</v>
       </c>
       <c r="N23">
-        <v>0.05977983718715425</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O23">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P23">
-        <v>59.68637068924342</v>
+        <v>183.5979995726157</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.072830074380768</v>
+        <v>3.300074259216889</v>
       </c>
       <c r="C24">
-        <v>31.12411868172583</v>
+        <v>95.73920917686769</v>
       </c>
       <c r="D24">
-        <v>0.002476110537651009</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E24">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F24">
-        <v>1.507919696291503</v>
+        <v>4.638429788212266</v>
       </c>
       <c r="G24">
-        <v>11.3314043316015</v>
+        <v>34.85591674625709</v>
       </c>
       <c r="H24">
-        <v>0.5324125591836246</v>
+        <v>1.63772532463708</v>
       </c>
       <c r="I24">
-        <v>15.0054637302816</v>
+        <v>46.15749109428828</v>
       </c>
       <c r="J24">
-        <v>1.684092747911549</v>
+        <v>5.180346133309667</v>
       </c>
       <c r="K24">
-        <v>8.481711107844534</v>
+        <v>26.09013036595524</v>
       </c>
       <c r="L24">
-        <v>2.780759471310343</v>
+        <v>8.553743012509772</v>
       </c>
       <c r="M24">
-        <v>16.93705581912152</v>
+        <v>52.0991564930392</v>
       </c>
       <c r="N24">
-        <v>0.1195596743743085</v>
+        <v>0.367771013569641</v>
       </c>
       <c r="O24">
-        <v>1.889533874933012</v>
+        <v>5.812292413767326</v>
       </c>
       <c r="P24">
-        <v>93.36495035529931</v>
+        <v>287.1948472906356</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.233779971957059</v>
+        <v>3.795163487883125</v>
       </c>
       <c r="C25">
-        <v>35.79347297519817</v>
+        <v>110.1023560339746</v>
       </c>
       <c r="D25">
-        <v>0.002251009579682735</v>
+        <v>0.006924208174765525</v>
       </c>
       <c r="E25">
-        <v>0.8141931598195999</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="F25">
-        <v>1.383738074243968</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G25">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H25">
-        <v>0.2973835916160786</v>
+        <v>0.9147654966441349</v>
       </c>
       <c r="I25">
-        <v>8.381430191688821</v>
+        <v>25.78166169230516</v>
       </c>
       <c r="J25">
-        <v>1.397282192590367</v>
+        <v>4.298103778728545</v>
       </c>
       <c r="K25">
-        <v>7.037227556726908</v>
+        <v>21.64683305472269</v>
       </c>
       <c r="L25">
-        <v>1.609913378127041</v>
+        <v>4.952167007242497</v>
       </c>
       <c r="M25">
-        <v>9.805663895280883</v>
+        <v>30.16266954860166</v>
       </c>
       <c r="N25">
-        <v>0.06437828620155073</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O25">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P25">
-        <v>79.23638545753607</v>
+        <v>243.7347370157669</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.9976862736195977</v>
+        <v>3.068928499461042</v>
       </c>
       <c r="C26">
-        <v>28.94410468982075</v>
+        <v>89.03338666944863</v>
       </c>
       <c r="D26">
-        <v>0.00315141341155583</v>
+        <v>0.009693891444671737</v>
       </c>
       <c r="E26">
-        <v>1.13987042374744</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="F26">
-        <v>1.614361086617962</v>
+        <v>4.965848361497838</v>
       </c>
       <c r="G26">
-        <v>12.13126816677337</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="H26">
-        <v>0.2542150057363252</v>
+        <v>0.7819769568086961</v>
       </c>
       <c r="I26">
-        <v>7.164770970314637</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="J26">
-        <v>1.890008018398549</v>
+        <v>5.813750900701244</v>
       </c>
       <c r="K26">
-        <v>9.518776221467448</v>
+        <v>29.28018997401964</v>
       </c>
       <c r="L26">
-        <v>3.975998191434968</v>
+        <v>12.2303518512201</v>
       </c>
       <c r="M26">
-        <v>24.21701840804218</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="N26">
-        <v>0.06897673521594722</v>
+        <v>0.2121755847517159</v>
       </c>
       <c r="O26">
-        <v>1.090115697076738</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="P26">
-        <v>93.01032130167746</v>
+        <v>286.1039921409015</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.8580609681512054</v>
+        <v>2.639434689103899</v>
       </c>
       <c r="C27">
-        <v>24.8934030156728</v>
+        <v>76.57324349687943</v>
       </c>
       <c r="D27">
-        <v>0.006190276344127524</v>
+        <v>0.0190415724806052</v>
       </c>
       <c r="E27">
-        <v>2.2390311895039</v>
+        <v>6.887362100032909</v>
       </c>
       <c r="F27">
-        <v>1.454699001128274</v>
+        <v>4.474720501569483</v>
       </c>
       <c r="G27">
-        <v>10.93147241401557</v>
+        <v>33.62570791991861</v>
       </c>
       <c r="H27">
-        <v>0.1966568912299875</v>
+        <v>0.6049255703614443</v>
       </c>
       <c r="I27">
-        <v>5.54255867514906</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="J27">
-        <v>2.213589157735266</v>
+        <v>6.809101249459433</v>
       </c>
       <c r="K27">
-        <v>11.14844997144631</v>
+        <v>34.29314078669226</v>
       </c>
       <c r="L27">
-        <v>3.585716160373865</v>
+        <v>11.02982651613102</v>
       </c>
       <c r="M27">
-        <v>21.83988776676196</v>
+        <v>67.18049126734003</v>
       </c>
       <c r="N27">
-        <v>0.1011658783167225</v>
+        <v>0.3111908576358501</v>
       </c>
       <c r="O27">
-        <v>1.598836355712548</v>
+        <v>4.918093580880046</v>
       </c>
       <c r="P27">
-        <v>86.60971772154159</v>
+        <v>266.4154434856545</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.9037565226681348</v>
+        <v>2.779996299766236</v>
       </c>
       <c r="C28">
-        <v>26.2190871999394</v>
+        <v>80.65110853517483</v>
       </c>
       <c r="D28">
-        <v>0.005740074428190977</v>
+        <v>0.01765673084565209</v>
       </c>
       <c r="E28">
-        <v>2.07619255753998</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="F28">
-        <v>1.383738074243968</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G28">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H28">
-        <v>0.2781975534472993</v>
+        <v>0.8557483678283846</v>
       </c>
       <c r="I28">
-        <v>7.840692759966965</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="J28">
-        <v>1.823820967170585</v>
+        <v>5.610156511182523</v>
       </c>
       <c r="K28">
-        <v>9.185433863517225</v>
+        <v>28.2548136714275</v>
       </c>
       <c r="L28">
-        <v>4.171139206965518</v>
+        <v>12.83061451876465</v>
       </c>
       <c r="M28">
-        <v>25.40558372868228</v>
+        <v>78.14873473955878</v>
       </c>
       <c r="N28">
-        <v>0.1057643273311191</v>
+        <v>0.3253358966192977</v>
       </c>
       <c r="O28">
-        <v>1.671510735517665</v>
+        <v>5.141643289101865</v>
       </c>
       <c r="P28">
-        <v>91.46888742865266</v>
+        <v>281.3624712158935</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.900710152367005</v>
+        <v>2.77062552572208</v>
       </c>
       <c r="C29">
-        <v>26.13070825432164</v>
+        <v>80.37925086595513</v>
       </c>
       <c r="D29">
-        <v>0.00528987251225443</v>
+        <v>0.01627188921069899</v>
       </c>
       <c r="E29">
-        <v>1.91335392557606</v>
+        <v>5.885563976391759</v>
       </c>
       <c r="F29">
-        <v>1.17085529359105</v>
+        <v>3.60160430614129</v>
       </c>
       <c r="G29">
-        <v>8.798502186890582</v>
+        <v>27.06459417944669</v>
       </c>
       <c r="H29">
-        <v>0.1870638721455977</v>
+        <v>0.5754170059535689</v>
       </c>
       <c r="I29">
-        <v>5.272189959288131</v>
+        <v>16.21749687096614</v>
       </c>
       <c r="J29">
-        <v>1.669384514305334</v>
+        <v>5.135102935638843</v>
       </c>
       <c r="K29">
-        <v>8.407635028300041</v>
+        <v>25.86226896537922</v>
       </c>
       <c r="L29">
-        <v>3.122256248488808</v>
+        <v>9.604202680712717</v>
       </c>
       <c r="M29">
-        <v>19.01704513024171</v>
+        <v>58.49729851850015</v>
       </c>
       <c r="N29">
-        <v>0.06437828620155073</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O29">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P29">
-        <v>77.67681404150137</v>
+        <v>238.937424180892</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.9530061758697125</v>
+        <v>2.931490480146757</v>
       </c>
       <c r="C30">
-        <v>27.6478801540934</v>
+        <v>85.04614085422645</v>
       </c>
       <c r="D30">
-        <v>0.005514973470222701</v>
+        <v>0.01696431002817554</v>
       </c>
       <c r="E30">
-        <v>1.99477324155802</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="F30">
-        <v>1.135374830148897</v>
+        <v>3.492464781712767</v>
       </c>
       <c r="G30">
-        <v>8.531880908499959</v>
+        <v>26.2444549618877</v>
       </c>
       <c r="H30">
-        <v>0.2206394389409616</v>
+        <v>0.6786969813811325</v>
       </c>
       <c r="I30">
-        <v>6.218480464801384</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="J30">
-        <v>2.081215055279337</v>
+        <v>6.401912470421993</v>
       </c>
       <c r="K30">
-        <v>10.48176525554586</v>
+        <v>32.24238818150801</v>
       </c>
       <c r="L30">
-        <v>2.585618455779793</v>
+        <v>7.953480344965226</v>
       </c>
       <c r="M30">
-        <v>15.74849049848141</v>
+        <v>48.44307533563295</v>
       </c>
       <c r="N30">
-        <v>0.09656742930232609</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O30">
-        <v>1.526161975907433</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P30">
-        <v>79.22736885767871</v>
+        <v>243.7070015432018</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.9189883741737762</v>
+        <v>2.826850169987017</v>
       </c>
       <c r="C31">
-        <v>26.66098192802828</v>
+        <v>82.01039688127325</v>
       </c>
       <c r="D31">
-        <v>0.004389468680381335</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E31">
-        <v>1.58767666164822</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F31">
-        <v>1.614361086617962</v>
+        <v>4.965848361497838</v>
       </c>
       <c r="G31">
-        <v>12.13126816677337</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="H31">
-        <v>0.2014534007721822</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I31">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J31">
-        <v>1.970903303232729</v>
+        <v>6.062588487890791</v>
       </c>
       <c r="K31">
-        <v>9.926194658962164</v>
+        <v>30.5334276771878</v>
       </c>
       <c r="L31">
-        <v>2.4636553210732</v>
+        <v>7.578316177749884</v>
       </c>
       <c r="M31">
-        <v>15.00563717308134</v>
+        <v>46.15802461225403</v>
       </c>
       <c r="N31">
-        <v>0.1103627763455155</v>
+        <v>0.3394809356027456</v>
       </c>
       <c r="O31">
-        <v>1.74418511532278</v>
+        <v>5.365192997323686</v>
       </c>
       <c r="P31">
-        <v>80.01780046779142</v>
+        <v>246.1384052412291</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.9733153112105695</v>
+        <v>2.993962307107798</v>
       </c>
       <c r="C32">
-        <v>28.23707312487857</v>
+        <v>86.85852531569107</v>
       </c>
       <c r="D32">
-        <v>0.005064771554286155</v>
+        <v>0.01557946839322243</v>
       </c>
       <c r="E32">
-        <v>1.8319346095941</v>
+        <v>5.63511444548147</v>
       </c>
       <c r="F32">
-        <v>1.596620854896886</v>
+        <v>4.911278599283576</v>
       </c>
       <c r="G32">
-        <v>11.99795752757806</v>
+        <v>36.90626479015456</v>
       </c>
       <c r="H32">
-        <v>0.2110464198565719</v>
+        <v>0.6491884169732571</v>
       </c>
       <c r="I32">
-        <v>5.948111748940456</v>
+        <v>18.29666313647462</v>
       </c>
       <c r="J32">
-        <v>1.919424485610979</v>
+        <v>5.904237296042898</v>
       </c>
       <c r="K32">
-        <v>9.666928380556435</v>
+        <v>29.73591277517169</v>
       </c>
       <c r="L32">
-        <v>2.439262694131882</v>
+        <v>7.503283344306816</v>
       </c>
       <c r="M32">
-        <v>14.85706650800133</v>
+        <v>45.70101446757823</v>
       </c>
       <c r="N32">
-        <v>0.06437828620155073</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O32">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P32">
-        <v>80.76562604028329</v>
+        <v>248.438750823533</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.131218838485732</v>
+        <v>3.479680761729876</v>
       </c>
       <c r="C33">
-        <v>32.81804847273314</v>
+        <v>100.9498145035784</v>
       </c>
       <c r="D33">
-        <v>0.004614569638349606</v>
+        <v>0.01419462675826933</v>
       </c>
       <c r="E33">
-        <v>1.66909597763018</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="F33">
-        <v>2.004646184481645</v>
+        <v>6.1663831302116</v>
       </c>
       <c r="G33">
-        <v>15.06410222907023</v>
+        <v>46.33786579208296</v>
       </c>
       <c r="H33">
-        <v>0.2014534007721822</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I33">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J33">
-        <v>1.912070368807871</v>
+        <v>5.881615697207485</v>
       </c>
       <c r="K33">
-        <v>9.629890340784188</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="L33">
-        <v>1.902624901422868</v>
+        <v>5.852561008559318</v>
       </c>
       <c r="M33">
-        <v>11.58851187624104</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="N33">
-        <v>0.08277208225913668</v>
+        <v>0.2546107017020591</v>
       </c>
       <c r="O33">
-        <v>1.308138836492085</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="P33">
-        <v>84.99493111189818</v>
+        <v>261.4482861959149</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.280998711624552</v>
+        <v>3.940410485567535</v>
       </c>
       <c r="C34">
-        <v>37.16334663227365</v>
+        <v>114.3161499068798</v>
       </c>
       <c r="D34">
-        <v>0.004389468680381335</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E34">
-        <v>1.58767666164822</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F34">
-        <v>1.383738074243968</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G34">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H34">
-        <v>0.3405521774958319</v>
+        <v>1.047554036479574</v>
       </c>
       <c r="I34">
-        <v>9.598089413063006</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="J34">
-        <v>1.294324557346867</v>
+        <v>3.981401395032758</v>
       </c>
       <c r="K34">
-        <v>6.518694999915452</v>
+        <v>20.05180325069049</v>
       </c>
       <c r="L34">
-        <v>1.048882958476709</v>
+        <v>3.226411838051929</v>
       </c>
       <c r="M34">
-        <v>6.388538598440575</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="N34">
-        <v>0.1333550214174979</v>
+        <v>0.4102061305199842</v>
       </c>
       <c r="O34">
-        <v>2.10755701434836</v>
+        <v>6.482941538432788</v>
       </c>
       <c r="P34">
-        <v>79.24837414620939</v>
+        <v>243.7716147691384</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.291153279294981</v>
+        <v>3.971646399048057</v>
       </c>
       <c r="C35">
-        <v>37.45794311766623</v>
+        <v>115.2223421376122</v>
       </c>
       <c r="D35">
-        <v>0.004276918201397199</v>
+        <v>0.0131559955320545</v>
       </c>
       <c r="E35">
-        <v>1.54696700365724</v>
+        <v>4.758541087295464</v>
       </c>
       <c r="F35">
-        <v>1.22407598875428</v>
+        <v>3.765313592784076</v>
       </c>
       <c r="G35">
-        <v>9.198434104476517</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="H35">
-        <v>0.3405521774958319</v>
+        <v>1.047554036479574</v>
       </c>
       <c r="I35">
-        <v>9.598089413063006</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="J35">
-        <v>1.051638702844329</v>
+        <v>3.234888633464115</v>
       </c>
       <c r="K35">
-        <v>5.296439687431303</v>
+        <v>16.29209014118603</v>
       </c>
       <c r="L35">
-        <v>0.2195336424718694</v>
+        <v>0.675295500987613</v>
       </c>
       <c r="M35">
-        <v>1.33713598572012</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="N35">
-        <v>0.05518138817275776</v>
+        <v>0.1697404678013728</v>
       </c>
       <c r="O35">
-        <v>0.87209255766139</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="P35">
-        <v>69.49351396691127</v>
+        <v>213.7652197689401</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.9702689409094407</v>
+        <v>2.98459153306364</v>
       </c>
       <c r="C36">
-        <v>28.14869417926079</v>
+        <v>86.5866676464714</v>
       </c>
       <c r="D36">
-        <v>0.002025908621714462</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E36">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F36">
-        <v>0.8692713543327489</v>
+        <v>2.673918348498836</v>
       </c>
       <c r="G36">
-        <v>6.532221320570278</v>
+        <v>20.09341083019527</v>
       </c>
       <c r="H36">
-        <v>0.3117731202426631</v>
+        <v>0.9590283432559482</v>
       </c>
       <c r="I36">
-        <v>8.786983265480217</v>
+        <v>27.02916145161024</v>
       </c>
       <c r="J36">
-        <v>0.7133493299013984</v>
+        <v>2.194295087035099</v>
       </c>
       <c r="K36">
-        <v>3.592689857907947</v>
+        <v>11.05127792793737</v>
       </c>
       <c r="L36">
-        <v>0.4390672849437388</v>
+        <v>1.350591001975226</v>
       </c>
       <c r="M36">
-        <v>2.67427197144024</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="N36">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O36">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P36">
-        <v>54.00520886390736</v>
+        <v>166.1224865813728</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.7940871918275061</v>
+        <v>2.442648434176627</v>
       </c>
       <c r="C37">
-        <v>23.03744515769957</v>
+        <v>70.86423244326599</v>
       </c>
       <c r="D37">
-        <v>0.003038862932571693</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E37">
-        <v>1.09916076575646</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F37">
-        <v>0.5854276467955251</v>
+        <v>1.800802153070645</v>
       </c>
       <c r="G37">
-        <v>4.399251093445291</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="H37">
-        <v>0.3501451965802215</v>
+        <v>1.077062600887449</v>
       </c>
       <c r="I37">
-        <v>9.868458128923937</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="J37">
-        <v>0.4338928913833247</v>
+        <v>1.33467433128939</v>
       </c>
       <c r="K37">
-        <v>2.185244346562566</v>
+        <v>6.721911316992835</v>
       </c>
       <c r="L37">
-        <v>0.4146746580024201</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M37">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N37">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O37">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P37">
-        <v>45.92834573272815</v>
+        <v>141.2776870637912</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.5808412707485087</v>
+        <v>1.786694251085717</v>
       </c>
       <c r="C38">
-        <v>16.85091896445544</v>
+        <v>51.83419559788761</v>
       </c>
       <c r="D38">
-        <v>0.001688257184762052</v>
+        <v>0.005193156131074145</v>
       </c>
       <c r="E38">
-        <v>0.6106448698647001</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="F38">
-        <v>0.4967264881901423</v>
+        <v>1.527953341999335</v>
       </c>
       <c r="G38">
-        <v>3.732697897468731</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="H38">
-        <v>0.2638080248207148</v>
+        <v>0.8114855212165715</v>
       </c>
       <c r="I38">
-        <v>7.435139686175567</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="J38">
-        <v>0.3897681905646814</v>
+        <v>1.19894473827691</v>
       </c>
       <c r="K38">
-        <v>1.963016107929084</v>
+        <v>6.03832711526475</v>
       </c>
       <c r="L38">
-        <v>0.2195336424718694</v>
+        <v>0.675295500987613</v>
       </c>
       <c r="M38">
-        <v>1.33713598572012</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="N38">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O38">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P38">
-        <v>34.03646504323334</v>
+        <v>104.6977194675885</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.4082136203512244</v>
+        <v>1.255683721916884</v>
       </c>
       <c r="C39">
-        <v>11.84277871278162</v>
+        <v>36.42892767543853</v>
       </c>
       <c r="D39">
-        <v>0.002025908621714462</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E39">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F39">
-        <v>0.2483632440950712</v>
+        <v>0.7639766709996677</v>
       </c>
       <c r="G39">
-        <v>1.866348948734365</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="H39">
-        <v>0.1343022671814549</v>
+        <v>0.4131199017102546</v>
       </c>
       <c r="I39">
-        <v>3.785162022053016</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="J39">
-        <v>0.2132693872901088</v>
+        <v>0.6560263662269885</v>
       </c>
       <c r="K39">
-        <v>1.074103153395159</v>
+        <v>3.30399030835241</v>
       </c>
       <c r="L39">
-        <v>0.4634599118850575</v>
+        <v>1.425623835418295</v>
       </c>
       <c r="M39">
-        <v>2.822842636520253</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="N39">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O39">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P39">
-        <v>23.74818931438571</v>
+        <v>73.05051389862373</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2432018957067619</v>
+        <v>0.7481001278584427</v>
       </c>
       <c r="C40">
-        <v>7.055585825152233</v>
+        <v>21.70330392603861</v>
       </c>
       <c r="D40">
-        <v>0.002363560058666873</v>
+        <v>0.007270418583503802</v>
       </c>
       <c r="E40">
-        <v>0.8549028178105801</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="F40">
-        <v>0.2128827806529182</v>
+        <v>0.6548371465711436</v>
       </c>
       <c r="G40">
-        <v>1.599727670343742</v>
+        <v>4.920835305353942</v>
       </c>
       <c r="H40">
-        <v>0.05755811450633777</v>
+        <v>0.1770513864472519</v>
       </c>
       <c r="I40">
-        <v>1.622212295165578</v>
+        <v>4.989999037220354</v>
       </c>
       <c r="J40">
-        <v>0.1912070368807871</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K40">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L40">
-        <v>0.2927115232958259</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M40">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="N40">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O40">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P40">
-        <v>15.03273619225103</v>
+        <v>46.24138243167714</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,43 +2418,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1792281193830625</v>
+        <v>0.5513138729311694</v>
       </c>
       <c r="C41">
-        <v>5.199627967178995</v>
+        <v>15.99429287242512</v>
       </c>
       <c r="D41">
-        <v>0.003714165806476515</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E41">
-        <v>1.34341871370234</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F41">
-        <v>0.01774023172107651</v>
+        <v>0.05456976221426198</v>
       </c>
       <c r="G41">
-        <v>0.1333106391953119</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="H41">
-        <v>0.02877905725316889</v>
+        <v>0.08852569322362597</v>
       </c>
       <c r="I41">
-        <v>0.8111061475827891</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="J41">
-        <v>0.3015187889273953</v>
+        <v>0.9274855522519494</v>
       </c>
       <c r="K41">
-        <v>1.518559630662122</v>
+        <v>4.671158711808581</v>
       </c>
       <c r="L41">
-        <v>0.390282031061101</v>
+        <v>1.20052533508909</v>
       </c>
       <c r="M41">
-        <v>2.377130641280214</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="P41">
-        <v>12.30441613375405</v>
+        <v>37.84894544565409</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1045920470054132</v>
+        <v>0.3217299088493512</v>
       </c>
       <c r="C42">
-        <v>3.03434379954355</v>
+        <v>9.333779976542708</v>
       </c>
       <c r="D42">
-        <v>0.002701211495619283</v>
+        <v>0.008309049809718631</v>
       </c>
       <c r="E42">
-        <v>0.9770317917835201</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="F42">
-        <v>0.01774023172107651</v>
+        <v>0.05456976221426198</v>
       </c>
       <c r="G42">
-        <v>0.1333106391953119</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="H42">
-        <v>0.01918603816877926</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I42">
-        <v>0.5407374317218595</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J42">
-        <v>0.2353317376994303</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K42">
-        <v>1.1852172727119</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L42">
-        <v>0.3658894041197821</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M42">
-        <v>2.2285599762002</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N42">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O42">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P42">
-        <v>8.921914410185954</v>
+        <v>27.44421580927924</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2512,43 +2512,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.08022108459638494</v>
+        <v>0.2467637164961043</v>
       </c>
       <c r="C43">
-        <v>2.327312234601361</v>
+        <v>7.158918622785179</v>
       </c>
       <c r="D43">
-        <v>0.003826716285460651</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E43">
-        <v>1.38412837169332</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F43">
-        <v>0.1419218537686121</v>
+        <v>0.4365580977140959</v>
       </c>
       <c r="G43">
-        <v>1.066485113562495</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="H43">
-        <v>0.004796509542194815</v>
+        <v>0.01475428220393767</v>
       </c>
       <c r="I43">
-        <v>0.1351843579304649</v>
+        <v>0.4158332531016961</v>
       </c>
       <c r="J43">
-        <v>0.1544364528652512</v>
+        <v>0.4750535755436814</v>
       </c>
       <c r="K43">
-        <v>0.7777988352171844</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="L43">
-        <v>0.4878525388263764</v>
+        <v>1.500656668861363</v>
       </c>
       <c r="M43">
-        <v>2.971413301600267</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="P43">
-        <v>9.535377370489371</v>
+        <v>29.33125586587796</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2556,49 +2556,49 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.099514763170199</v>
+        <v>0.3061119521090915</v>
       </c>
       <c r="C44">
-        <v>2.88704555684726</v>
+        <v>8.880683861176552</v>
       </c>
       <c r="D44">
-        <v>0.002025908621714462</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E44">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F44">
-        <v>0.1064413903264591</v>
+        <v>0.3274185732855718</v>
       </c>
       <c r="G44">
-        <v>0.7998638351718708</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H44">
-        <v>0.04316858587975334</v>
+        <v>0.132788539835439</v>
       </c>
       <c r="I44">
-        <v>1.216659221374184</v>
+        <v>3.742499277915265</v>
       </c>
       <c r="J44">
-        <v>0.1912070368807871</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K44">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L44">
-        <v>0.4146746580024201</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M44">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N44">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O44">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P44">
-        <v>10.05933796937045</v>
+        <v>30.94298257498361</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2606,49 +2606,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1467335028376915</v>
+        <v>0.4513589497935071</v>
       </c>
       <c r="C45">
-        <v>4.256919213922745</v>
+        <v>13.09447773408175</v>
       </c>
       <c r="D45">
-        <v>0.0005627523949206839</v>
+        <v>0.001731052043691381</v>
       </c>
       <c r="E45">
-        <v>0.2035482899549</v>
+        <v>0.626123827275719</v>
       </c>
       <c r="F45">
-        <v>0.2306230123739946</v>
+        <v>0.7094069087854058</v>
       </c>
       <c r="G45">
-        <v>1.733038309539053</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="H45">
-        <v>0.02398254771097407</v>
+        <v>0.07377141101968832</v>
       </c>
       <c r="I45">
-        <v>0.6759217896523243</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="J45">
-        <v>0.3529976065491455</v>
+        <v>1.085836744099843</v>
       </c>
       <c r="K45">
-        <v>1.77782590906785</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="L45">
-        <v>0.7073861812982457</v>
+        <v>2.175952169848975</v>
       </c>
       <c r="M45">
-        <v>4.308549287320387</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="N45">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O45">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P45">
-        <v>14.49536123144175</v>
+        <v>44.58839253321814</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2656,49 +2656,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.3889199417774105</v>
+        <v>1.196335486303898</v>
       </c>
       <c r="C46">
-        <v>11.28304539053572</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="D46">
-        <v>0.001125504789841368</v>
+        <v>0.003462104087382763</v>
       </c>
       <c r="E46">
-        <v>0.4070965799098</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="F46">
-        <v>0.4612460247479892</v>
+        <v>1.418813817570812</v>
       </c>
       <c r="G46">
-        <v>3.466076619078107</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="H46">
-        <v>0.1726743435190134</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I46">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J46">
-        <v>0.7574740307200414</v>
+        <v>2.33002468004758</v>
       </c>
       <c r="K46">
-        <v>3.814918096541428</v>
+        <v>11.73486212966546</v>
       </c>
       <c r="L46">
-        <v>1.097668212359347</v>
+        <v>3.376477504938066</v>
       </c>
       <c r="M46">
-        <v>6.6856799286006</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="N46">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O46">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P46">
-        <v>33.55710721571506</v>
+        <v>103.2231929183022</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2706,49 +2706,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.6382145780864296</v>
+        <v>1.963177162250652</v>
       </c>
       <c r="C47">
-        <v>18.5153891069235</v>
+        <v>56.95418170152513</v>
       </c>
       <c r="D47">
-        <v>0.002476110537651009</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E47">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F47">
-        <v>0.9224920494959784</v>
+        <v>2.837627635141623</v>
       </c>
       <c r="G47">
-        <v>6.932153238156213</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="H47">
-        <v>0.4220928397131438</v>
+        <v>1.298376833946514</v>
       </c>
       <c r="I47">
-        <v>11.89622349788091</v>
+        <v>36.59332627294925</v>
       </c>
       <c r="J47">
-        <v>1.33844925816551</v>
+        <v>4.117130988045239</v>
       </c>
       <c r="K47">
-        <v>6.740923238548931</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="L47">
-        <v>1.463557616479128</v>
+        <v>4.501970006584088</v>
       </c>
       <c r="M47">
-        <v>8.9142399048008</v>
+        <v>27.42060868054695</v>
       </c>
       <c r="N47">
-        <v>0.05977983718715425</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O47">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P47">
-        <v>59.68637068924342</v>
+        <v>183.5979995726157</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2756,49 +2756,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.072830074380768</v>
+        <v>3.300074259216889</v>
       </c>
       <c r="C48">
-        <v>31.12411868172583</v>
+        <v>95.73920917686769</v>
       </c>
       <c r="D48">
-        <v>0.002476110537651009</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E48">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F48">
-        <v>1.507919696291503</v>
+        <v>4.638429788212266</v>
       </c>
       <c r="G48">
-        <v>11.3314043316015</v>
+        <v>34.85591674625709</v>
       </c>
       <c r="H48">
-        <v>0.5324125591836246</v>
+        <v>1.63772532463708</v>
       </c>
       <c r="I48">
-        <v>15.0054637302816</v>
+        <v>46.15749109428828</v>
       </c>
       <c r="J48">
-        <v>1.684092747911549</v>
+        <v>5.180346133309667</v>
       </c>
       <c r="K48">
-        <v>8.481711107844534</v>
+        <v>26.09013036595524</v>
       </c>
       <c r="L48">
-        <v>2.780759471310343</v>
+        <v>8.553743012509772</v>
       </c>
       <c r="M48">
-        <v>16.93705581912152</v>
+        <v>52.0991564930392</v>
       </c>
       <c r="N48">
-        <v>0.1195596743743085</v>
+        <v>0.367771013569641</v>
       </c>
       <c r="O48">
-        <v>1.889533874933012</v>
+        <v>5.812292413767326</v>
       </c>
       <c r="P48">
-        <v>93.36495035529931</v>
+        <v>287.1948472906356</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2806,49 +2806,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.233779971957059</v>
+        <v>3.795163487883125</v>
       </c>
       <c r="C49">
-        <v>35.79347297519817</v>
+        <v>110.1023560339746</v>
       </c>
       <c r="D49">
-        <v>0.002251009579682735</v>
+        <v>0.006924208174765525</v>
       </c>
       <c r="E49">
-        <v>0.8141931598195999</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="F49">
-        <v>1.383738074243968</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G49">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H49">
-        <v>0.2973835916160786</v>
+        <v>0.9147654966441349</v>
       </c>
       <c r="I49">
-        <v>8.381430191688821</v>
+        <v>25.78166169230516</v>
       </c>
       <c r="J49">
-        <v>1.397282192590367</v>
+        <v>4.298103778728545</v>
       </c>
       <c r="K49">
-        <v>7.037227556726908</v>
+        <v>21.64683305472269</v>
       </c>
       <c r="L49">
-        <v>1.609913378127041</v>
+        <v>4.952167007242497</v>
       </c>
       <c r="M49">
-        <v>9.805663895280883</v>
+        <v>30.16266954860166</v>
       </c>
       <c r="N49">
-        <v>0.06437828620155073</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O49">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P49">
-        <v>79.23638545753607</v>
+        <v>243.7347370157669</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>3.068928499461042</v>
+        <v>0.9597514343184721</v>
       </c>
       <c r="C2">
-        <v>89.03338666944863</v>
+        <v>27.84356838982755</v>
       </c>
       <c r="D2">
-        <v>0.009693891444671737</v>
+        <v>0.003031587806553708</v>
       </c>
       <c r="E2">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="F2">
-        <v>4.965848361497838</v>
+        <v>1.552978535795986</v>
       </c>
       <c r="G2">
-        <v>37.31633439893407</v>
+        <v>11.67000321746641</v>
       </c>
       <c r="H2">
-        <v>0.7819769568086961</v>
+        <v>0.2445490359364649</v>
       </c>
       <c r="I2">
-        <v>22.03916241438989</v>
+        <v>6.892346218591646</v>
       </c>
       <c r="J2">
-        <v>5.813750900701244</v>
+        <v>1.818144595645753</v>
       </c>
       <c r="K2">
-        <v>29.28018997401964</v>
+        <v>9.156845566658799</v>
       </c>
       <c r="L2">
-        <v>12.2303518512201</v>
+        <v>3.824819552977363</v>
       </c>
       <c r="M2">
-        <v>74.49265358215258</v>
+        <v>23.29621922902917</v>
       </c>
       <c r="N2">
-        <v>0.2121755847517159</v>
+        <v>0.06635404566401006</v>
       </c>
       <c r="O2">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="P2">
-        <v>286.1039921409015</v>
+        <v>89.47380718374295</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2.672232398258443</v>
+        <v>0.8356919613836671</v>
       </c>
       <c r="C3">
-        <v>77.52474533914838</v>
+        <v>24.24445064376332</v>
       </c>
       <c r="D3">
-        <v>0.02215746615924968</v>
+        <v>0.006929343557837044</v>
       </c>
       <c r="E3">
-        <v>8.014384989129203</v>
+        <v>2.506352783992198</v>
       </c>
       <c r="F3">
-        <v>2.455639299641788</v>
+        <v>0.7679564188002129</v>
       </c>
       <c r="G3">
-        <v>18.45313239507728</v>
+        <v>5.770880711933936</v>
       </c>
       <c r="H3">
-        <v>0.5606627237496311</v>
+        <v>0.1753370446336918</v>
       </c>
       <c r="I3">
-        <v>15.80166361786445</v>
+        <v>4.941682194461935</v>
       </c>
       <c r="J3">
-        <v>6.944830842471912</v>
+        <v>2.171869225148818</v>
       </c>
       <c r="K3">
-        <v>34.97672498842035</v>
+        <v>10.93833303098931</v>
       </c>
       <c r="L3">
-        <v>9.829301181041929</v>
+        <v>3.073934732760951</v>
       </c>
       <c r="M3">
-        <v>59.86832895252751</v>
+        <v>18.72272833744061</v>
       </c>
       <c r="N3">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O3">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P3">
-        <v>240.2138359071586</v>
+        <v>75.12249750866638</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2.853400696445458</v>
+        <v>0.892349043511373</v>
       </c>
       <c r="C4">
-        <v>82.78066027739574</v>
+        <v>25.88814221283204</v>
       </c>
       <c r="D4">
-        <v>0.02146504534177313</v>
+        <v>0.006712801571654639</v>
       </c>
       <c r="E4">
-        <v>7.763935458218915</v>
+        <v>2.428029259492442</v>
       </c>
       <c r="F4">
-        <v>4.311011214926696</v>
+        <v>1.348190157449263</v>
       </c>
       <c r="G4">
-        <v>32.39549909358013</v>
+        <v>10.13110169428402</v>
       </c>
       <c r="H4">
-        <v>0.6049255703614443</v>
+        <v>0.1891794428942465</v>
       </c>
       <c r="I4">
-        <v>17.04916337716954</v>
+        <v>5.33181499928788</v>
       </c>
       <c r="J4">
-        <v>5.768507703030417</v>
+        <v>1.803995610465631</v>
       </c>
       <c r="K4">
-        <v>29.05232857344361</v>
+        <v>9.085586068085579</v>
       </c>
       <c r="L4">
-        <v>10.5796295154726</v>
+        <v>3.308586239078579</v>
       </c>
       <c r="M4">
-        <v>64.43843039928535</v>
+        <v>20.15194424106204</v>
       </c>
       <c r="N4">
-        <v>0.2263206237351636</v>
+        <v>0.07077764870827737</v>
       </c>
       <c r="O4">
-        <v>3.576795331549124</v>
+        <v>1.118577526430072</v>
       </c>
       <c r="P4">
-        <v>261.422072879956</v>
+        <v>81.75498694515309</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2.63162571073377</v>
+        <v>0.8229929602171117</v>
       </c>
       <c r="C5">
-        <v>76.34669543919638</v>
+        <v>23.87603701621345</v>
       </c>
       <c r="D5">
-        <v>0.01488704757574588</v>
+        <v>0.004655652702921764</v>
       </c>
       <c r="E5">
-        <v>5.384664914571183</v>
+        <v>1.683955776744758</v>
       </c>
       <c r="F5">
-        <v>3.383325257284242</v>
+        <v>1.058073288124739</v>
       </c>
       <c r="G5">
-        <v>25.4243157443287</v>
+        <v>7.950991203108977</v>
       </c>
       <c r="H5">
-        <v>0.6196798525653817</v>
+        <v>0.1937935756477647</v>
       </c>
       <c r="I5">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="J5">
-        <v>4.86364374961388</v>
+        <v>1.521015906863179</v>
       </c>
       <c r="K5">
-        <v>24.49510056192304</v>
+        <v>7.660396096621175</v>
       </c>
       <c r="L5">
-        <v>10.05439968137113</v>
+        <v>3.144330184656237</v>
       </c>
       <c r="M5">
-        <v>61.23935938655483</v>
+        <v>19.15149310852703</v>
       </c>
       <c r="N5">
-        <v>0.2546107017020591</v>
+        <v>0.07962485479681204</v>
       </c>
       <c r="O5">
-        <v>4.023894747992765</v>
+        <v>1.258399717233831</v>
       </c>
       <c r="P5">
-        <v>236.2011994256843</v>
+        <v>73.86761860902118</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.720648064153251</v>
+        <v>0.8508330781591746</v>
       </c>
       <c r="C6">
-        <v>78.92934329678346</v>
+        <v>24.68371304584204</v>
       </c>
       <c r="D6">
-        <v>0.01696431002817554</v>
+        <v>0.005305278661468988</v>
       </c>
       <c r="E6">
-        <v>6.136013507302046</v>
+        <v>1.918926350244027</v>
       </c>
       <c r="F6">
-        <v>5.184127410354884</v>
+        <v>1.621241328578228</v>
       </c>
       <c r="G6">
-        <v>38.95661283405206</v>
+        <v>12.18297039186053</v>
       </c>
       <c r="H6">
-        <v>0.6196798525653817</v>
+        <v>0.1937935756477647</v>
       </c>
       <c r="I6">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="J6">
-        <v>5.904237296042898</v>
+        <v>1.846442566005999</v>
       </c>
       <c r="K6">
-        <v>29.73591277517169</v>
+        <v>9.299364563805238</v>
       </c>
       <c r="L6">
-        <v>8.853874346282044</v>
+        <v>2.76888777454803</v>
       </c>
       <c r="M6">
-        <v>53.92719707174231</v>
+        <v>16.86474766273276</v>
       </c>
       <c r="N6">
-        <v>0.2404656627186113</v>
+        <v>0.07520125175254472</v>
       </c>
       <c r="O6">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="P6">
-        <v>252.490418097239</v>
+        <v>78.96177475723294</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.803423234876629</v>
+        <v>0.8767195036140755</v>
       </c>
       <c r="C7">
-        <v>81.33075270822404</v>
+        <v>25.43471005584757</v>
       </c>
       <c r="D7">
-        <v>0.01592567880196071</v>
+        <v>0.004980465682195376</v>
       </c>
       <c r="E7">
-        <v>5.760339210936616</v>
+        <v>1.801441063494393</v>
       </c>
       <c r="F7">
-        <v>5.129557648140625</v>
+        <v>1.604175630382668</v>
       </c>
       <c r="G7">
-        <v>38.54654322527257</v>
+        <v>12.054728598262</v>
       </c>
       <c r="H7">
-        <v>0.5163998771378182</v>
+        <v>0.1614946463731372</v>
       </c>
       <c r="I7">
-        <v>14.55416385855936</v>
+        <v>4.551549389635993</v>
       </c>
       <c r="J7">
-        <v>6.107831685561619</v>
+        <v>1.91011299931655</v>
       </c>
       <c r="K7">
-        <v>30.76128907776382</v>
+        <v>9.620032307384729</v>
       </c>
       <c r="L7">
-        <v>10.27949818170034</v>
+        <v>3.214725636551528</v>
       </c>
       <c r="M7">
-        <v>62.61038982058221</v>
+        <v>19.58025787961347</v>
       </c>
       <c r="N7">
-        <v>0.2970458186524022</v>
+        <v>0.09289566392961407</v>
       </c>
       <c r="O7">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="P7">
-        <v>263.4077038988682</v>
+        <v>82.3759568435274</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.973658963345459</v>
+        <v>0.9299576238892474</v>
       </c>
       <c r="C8">
-        <v>86.26950036571512</v>
+        <v>26.97921334057592</v>
       </c>
       <c r="D8">
-        <v>0.01661809961943726</v>
+        <v>0.005197007668377784</v>
       </c>
       <c r="E8">
-        <v>6.010788741846902</v>
+        <v>1.879764587994149</v>
       </c>
       <c r="F8">
-        <v>5.238697172569148</v>
+        <v>1.638307026773788</v>
       </c>
       <c r="G8">
-        <v>39.36668244283154</v>
+        <v>12.31121218545906</v>
       </c>
       <c r="H8">
-        <v>0.4426284661181299</v>
+        <v>0.1384239826055462</v>
       </c>
       <c r="I8">
-        <v>12.47499759305088</v>
+        <v>3.901328048259423</v>
       </c>
       <c r="J8">
-        <v>6.175696482067859</v>
+        <v>1.931336477086734</v>
       </c>
       <c r="K8">
-        <v>31.10308117862786</v>
+        <v>9.72692155524456</v>
       </c>
       <c r="L8">
-        <v>5.852561008559318</v>
+        <v>1.830281749277512</v>
       </c>
       <c r="M8">
-        <v>35.64679128471104</v>
+        <v>11.14788404824709</v>
       </c>
       <c r="N8">
-        <v>0.3253358966192977</v>
+        <v>0.1017428700181487</v>
       </c>
       <c r="O8">
-        <v>5.141643289101865</v>
+        <v>1.607955194243229</v>
       </c>
       <c r="P8">
-        <v>237.0386809847839</v>
+        <v>74.1295256973428</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>3.479680761729876</v>
+        <v>1.088206715349392</v>
       </c>
       <c r="C9">
-        <v>100.9498145035784</v>
+        <v>31.57021393004365</v>
       </c>
       <c r="D9">
-        <v>0.01419462675826933</v>
+        <v>0.004439110716739357</v>
       </c>
       <c r="E9">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="F9">
-        <v>6.1663831302116</v>
+        <v>1.928423896098313</v>
       </c>
       <c r="G9">
-        <v>46.33786579208296</v>
+        <v>14.4913226766341</v>
       </c>
       <c r="H9">
-        <v>0.6196798525653817</v>
+        <v>0.1937935756477647</v>
       </c>
       <c r="I9">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="J9">
-        <v>5.881615697207485</v>
+        <v>1.839368073415937</v>
       </c>
       <c r="K9">
-        <v>29.62198207488368</v>
+        <v>9.263734814518628</v>
       </c>
       <c r="L9">
-        <v>5.852561008559318</v>
+        <v>1.830281749277512</v>
       </c>
       <c r="M9">
-        <v>35.64679128471104</v>
+        <v>11.14788404824709</v>
       </c>
       <c r="N9">
-        <v>0.2546107017020591</v>
+        <v>0.07962485479681204</v>
       </c>
       <c r="O9">
-        <v>4.023894747992765</v>
+        <v>1.258399717233831</v>
       </c>
       <c r="P9">
-        <v>261.4482861959149</v>
+        <v>81.76318468178796</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3.940410485567535</v>
+        <v>1.232291536277611</v>
       </c>
       <c r="C10">
-        <v>114.3161499068798</v>
+        <v>35.75029162724424</v>
       </c>
       <c r="D10">
-        <v>0.01350220594079277</v>
+        <v>0.004222568730556949</v>
       </c>
       <c r="E10">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="F10">
-        <v>4.256441452712433</v>
+        <v>1.331124459253704</v>
       </c>
       <c r="G10">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="H10">
-        <v>1.047554036479574</v>
+        <v>0.3276034254997926</v>
       </c>
       <c r="I10">
-        <v>29.52416097022043</v>
+        <v>9.233143047547303</v>
       </c>
       <c r="J10">
-        <v>3.981401395032758</v>
+        <v>1.245110695850788</v>
       </c>
       <c r="K10">
-        <v>20.05180325069049</v>
+        <v>6.270835874443378</v>
       </c>
       <c r="L10">
-        <v>3.226411838051929</v>
+        <v>1.009001477165807</v>
       </c>
       <c r="M10">
-        <v>19.65143622105864</v>
+        <v>6.14562838557211</v>
       </c>
       <c r="N10">
-        <v>0.4102061305199842</v>
+        <v>0.1282844882837527</v>
       </c>
       <c r="O10">
-        <v>6.482941538432788</v>
+        <v>2.027421766654506</v>
       </c>
       <c r="P10">
-        <v>243.7716147691384</v>
+        <v>76.23512798095429</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3.971646399048057</v>
+        <v>1.242059998713422</v>
       </c>
       <c r="C11">
-        <v>115.2223421376122</v>
+        <v>36.03368672535953</v>
       </c>
       <c r="D11">
-        <v>0.0131559955320545</v>
+        <v>0.004114297737465746</v>
       </c>
       <c r="E11">
-        <v>4.758541087295464</v>
+        <v>1.488146965495368</v>
       </c>
       <c r="F11">
-        <v>3.765313592784076</v>
+        <v>1.17753317549366</v>
       </c>
       <c r="G11">
-        <v>28.29480300578518</v>
+        <v>8.848683758298701</v>
       </c>
       <c r="H11">
-        <v>1.047554036479574</v>
+        <v>0.3276034254997926</v>
       </c>
       <c r="I11">
-        <v>29.52416097022043</v>
+        <v>9.233143047547303</v>
       </c>
       <c r="J11">
-        <v>3.234888633464115</v>
+        <v>1.011652440378766</v>
       </c>
       <c r="K11">
-        <v>16.29209014118603</v>
+        <v>5.095054147985246</v>
       </c>
       <c r="L11">
-        <v>0.675295500987613</v>
+        <v>0.2111863556858667</v>
       </c>
       <c r="M11">
-        <v>4.113091302082044</v>
+        <v>1.286294313259279</v>
       </c>
       <c r="N11">
-        <v>0.1697404678013728</v>
+        <v>0.05308323653120803</v>
       </c>
       <c r="O11">
-        <v>2.682596498661843</v>
+        <v>0.838933144822554</v>
       </c>
       <c r="P11">
-        <v>213.7652197689401</v>
+        <v>66.85117503280816</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.98459153306364</v>
+        <v>0.9333765857417811</v>
       </c>
       <c r="C12">
-        <v>86.5866676464714</v>
+        <v>27.07840162491626</v>
       </c>
       <c r="D12">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E12">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F12">
-        <v>2.673918348498836</v>
+        <v>0.8362192115824545</v>
       </c>
       <c r="G12">
-        <v>20.09341083019527</v>
+        <v>6.283847886328063</v>
       </c>
       <c r="H12">
-        <v>0.9590283432559482</v>
+        <v>0.2999186289786834</v>
       </c>
       <c r="I12">
-        <v>27.02916145161024</v>
+        <v>8.452877437895413</v>
       </c>
       <c r="J12">
-        <v>2.194295087035099</v>
+        <v>0.6862257812359458</v>
       </c>
       <c r="K12">
-        <v>11.05127792793737</v>
+        <v>3.456085680801181</v>
       </c>
       <c r="L12">
-        <v>1.350591001975226</v>
+        <v>0.4223727113717335</v>
       </c>
       <c r="M12">
-        <v>8.226182604164087</v>
+        <v>2.572588626518558</v>
       </c>
       <c r="N12">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O12">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P12">
-        <v>166.1224865813728</v>
+        <v>51.95177886908196</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>2.442648434176627</v>
+        <v>0.7638937624804528</v>
       </c>
       <c r="C13">
-        <v>70.86423244326599</v>
+        <v>22.16149667261593</v>
       </c>
       <c r="D13">
-        <v>0.009347681035933461</v>
+        <v>0.002923316813462504</v>
       </c>
       <c r="E13">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="F13">
-        <v>1.800802153070645</v>
+        <v>0.5631680404534897</v>
       </c>
       <c r="G13">
-        <v>13.53229708972335</v>
+        <v>4.231979188751553</v>
       </c>
       <c r="H13">
-        <v>1.077062600887449</v>
+        <v>0.336831691006829</v>
       </c>
       <c r="I13">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="J13">
-        <v>1.33467433128939</v>
+        <v>0.4173950628136165</v>
       </c>
       <c r="K13">
-        <v>6.721911316992835</v>
+        <v>2.102155207909997</v>
       </c>
       <c r="L13">
-        <v>1.275558168532158</v>
+        <v>0.3989075607399705</v>
       </c>
       <c r="M13">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="N13">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O13">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P13">
-        <v>141.2776870637912</v>
+        <v>44.1820207999248</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.786694251085717</v>
+        <v>0.5587560513284138</v>
       </c>
       <c r="C14">
-        <v>51.83419559788761</v>
+        <v>16.21019961219477</v>
       </c>
       <c r="D14">
-        <v>0.005193156131074145</v>
+        <v>0.001624064896368057</v>
       </c>
       <c r="E14">
-        <v>1.878371481827158</v>
+        <v>0.5874264337481715</v>
       </c>
       <c r="F14">
-        <v>1.527953341999335</v>
+        <v>0.4778395494756881</v>
       </c>
       <c r="G14">
-        <v>11.48194904582587</v>
+        <v>3.590770220758894</v>
       </c>
       <c r="H14">
-        <v>0.8114855212165715</v>
+        <v>0.2537773014435014</v>
       </c>
       <c r="I14">
-        <v>22.87082892059329</v>
+        <v>7.152434755142275</v>
       </c>
       <c r="J14">
-        <v>1.19894473827691</v>
+        <v>0.3749481072732488</v>
       </c>
       <c r="K14">
-        <v>6.03832711526475</v>
+        <v>1.888376712190336</v>
       </c>
       <c r="L14">
-        <v>0.675295500987613</v>
+        <v>0.2111863556858667</v>
       </c>
       <c r="M14">
-        <v>4.113091302082044</v>
+        <v>1.286294313259279</v>
       </c>
       <c r="N14">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O14">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P14">
-        <v>104.6977194675885</v>
+        <v>32.7423028742891</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1.255683721916884</v>
+        <v>0.392692189919619</v>
       </c>
       <c r="C15">
-        <v>36.42892767543853</v>
+        <v>11.39248294423479</v>
       </c>
       <c r="D15">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E15">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F15">
-        <v>0.7639766709996677</v>
+        <v>0.2389197747378441</v>
       </c>
       <c r="G15">
-        <v>5.740974522912933</v>
+        <v>1.795385110379447</v>
       </c>
       <c r="H15">
-        <v>0.4131199017102546</v>
+        <v>0.1291957170985097</v>
       </c>
       <c r="I15">
-        <v>11.64333108684749</v>
+        <v>3.641239511708794</v>
       </c>
       <c r="J15">
-        <v>0.6560263662269885</v>
+        <v>0.2051602851117776</v>
       </c>
       <c r="K15">
-        <v>3.30399030835241</v>
+        <v>1.033262729311693</v>
       </c>
       <c r="L15">
-        <v>1.425623835418295</v>
+        <v>0.4458378620034963</v>
       </c>
       <c r="M15">
-        <v>8.683192748839868</v>
+        <v>2.715510216880701</v>
       </c>
       <c r="N15">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O15">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P15">
-        <v>73.05051389862373</v>
+        <v>22.84521633665242</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.7481001278584427</v>
+        <v>0.2339546753376836</v>
       </c>
       <c r="C16">
-        <v>21.70330392603861</v>
+        <v>6.787312599861276</v>
       </c>
       <c r="D16">
-        <v>0.007270418583503802</v>
+        <v>0.00227369085491528</v>
       </c>
       <c r="E16">
-        <v>2.62972007455802</v>
+        <v>0.8223970072474399</v>
       </c>
       <c r="F16">
-        <v>0.6548371465711436</v>
+        <v>0.2047883783467235</v>
       </c>
       <c r="G16">
-        <v>4.920835305353942</v>
+        <v>1.538901523182383</v>
       </c>
       <c r="H16">
-        <v>0.1770513864472519</v>
+        <v>0.05536959304221846</v>
       </c>
       <c r="I16">
-        <v>4.989999037220354</v>
+        <v>1.560531219303769</v>
       </c>
       <c r="J16">
-        <v>0.5881615697207484</v>
+        <v>0.1839368073415938</v>
       </c>
       <c r="K16">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="L16">
-        <v>0.9003940013168176</v>
+        <v>0.2815818075811558</v>
       </c>
       <c r="M16">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="N16">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O16">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P16">
-        <v>46.24138243167714</v>
+        <v>14.46114926478902</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.5513138729311694</v>
+        <v>0.1724133619920717</v>
       </c>
       <c r="C17">
-        <v>15.99429287242512</v>
+        <v>5.001923481734925</v>
       </c>
       <c r="D17">
-        <v>0.01142494348836312</v>
+        <v>0.003572942772009727</v>
       </c>
       <c r="E17">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="F17">
-        <v>0.05456976221426198</v>
+        <v>0.0170656981955603</v>
       </c>
       <c r="G17">
-        <v>0.4100696087794953</v>
+        <v>0.1282417935985319</v>
       </c>
       <c r="H17">
-        <v>0.08852569322362597</v>
+        <v>0.02768479652110923</v>
       </c>
       <c r="I17">
-        <v>2.494999518610177</v>
+        <v>0.7802656096518843</v>
       </c>
       <c r="J17">
-        <v>0.9274855522519494</v>
+        <v>0.2900541961925132</v>
       </c>
       <c r="K17">
-        <v>4.671158711808581</v>
+        <v>1.460819720751014</v>
       </c>
       <c r="L17">
-        <v>1.20052533508909</v>
+        <v>0.3754424101082076</v>
       </c>
       <c r="M17">
-        <v>7.312162314812519</v>
+        <v>2.286745445794274</v>
       </c>
       <c r="P17">
-        <v>37.84894544565409</v>
+        <v>11.83656761155808</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.3217299088493512</v>
+        <v>0.1006151630888576</v>
       </c>
       <c r="C18">
-        <v>9.333779976542708</v>
+        <v>2.918969510587519</v>
       </c>
       <c r="D18">
-        <v>0.008309049809718631</v>
+        <v>0.002598503834188892</v>
       </c>
       <c r="E18">
-        <v>3.005394370923451</v>
+        <v>0.9398822939970746</v>
       </c>
       <c r="F18">
-        <v>0.05456976221426198</v>
+        <v>0.0170656981955603</v>
       </c>
       <c r="G18">
-        <v>0.4100696087794953</v>
+        <v>0.1282417935985319</v>
       </c>
       <c r="H18">
-        <v>0.05901712881575067</v>
+        <v>0.01845653101407283</v>
       </c>
       <c r="I18">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="J18">
-        <v>0.7238911627332288</v>
+        <v>0.2263837628819615</v>
       </c>
       <c r="K18">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="L18">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M18">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N18">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O18">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P18">
-        <v>27.44421580927924</v>
+        <v>8.582678120825269</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.2467637164961043</v>
+        <v>0.0771708532429102</v>
       </c>
       <c r="C19">
-        <v>7.158918622785179</v>
+        <v>2.238821275110817</v>
       </c>
       <c r="D19">
-        <v>0.0117711538971014</v>
+        <v>0.003681213765100929</v>
       </c>
       <c r="E19">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="F19">
-        <v>0.4365580977140959</v>
+        <v>0.1365255855644824</v>
       </c>
       <c r="G19">
-        <v>3.280556870235962</v>
+        <v>1.025934348788256</v>
       </c>
       <c r="H19">
-        <v>0.01475428220393767</v>
+        <v>0.004614132753518208</v>
       </c>
       <c r="I19">
-        <v>0.4158332531016961</v>
+        <v>0.1300442682753141</v>
       </c>
       <c r="J19">
-        <v>0.4750535755436814</v>
+        <v>0.1485643443912872</v>
       </c>
       <c r="K19">
-        <v>2.392544706048298</v>
+        <v>0.7482247350188121</v>
       </c>
       <c r="L19">
-        <v>1.500656668861363</v>
+        <v>0.4693030126352593</v>
       </c>
       <c r="M19">
-        <v>9.140202893515649</v>
+        <v>2.858431807242844</v>
       </c>
       <c r="P19">
-        <v>29.33125586587796</v>
+        <v>9.172815493284457</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.3061119521090915</v>
+        <v>0.09573093187095195</v>
       </c>
       <c r="C20">
-        <v>8.880683861176552</v>
+        <v>2.777271961529875</v>
       </c>
       <c r="D20">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E20">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F20">
-        <v>0.3274185732855718</v>
+        <v>0.1023941891733618</v>
       </c>
       <c r="G20">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="H20">
-        <v>0.132788539835439</v>
+        <v>0.04152719478166385</v>
       </c>
       <c r="I20">
-        <v>3.742499277915265</v>
+        <v>1.170398414477827</v>
       </c>
       <c r="J20">
-        <v>0.5881615697207484</v>
+        <v>0.1839368073415938</v>
       </c>
       <c r="K20">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="L20">
-        <v>1.275558168532158</v>
+        <v>0.3989075607399705</v>
       </c>
       <c r="M20">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="N20">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O20">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P20">
-        <v>30.94298257498361</v>
+        <v>9.676853635934307</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.4513589497935071</v>
+        <v>0.141154282197475</v>
       </c>
       <c r="C21">
-        <v>13.09447773408175</v>
+        <v>4.095059167765986</v>
       </c>
       <c r="D21">
-        <v>0.001731052043691381</v>
+        <v>0.000541354965456019</v>
       </c>
       <c r="E21">
-        <v>0.626123827275719</v>
+        <v>0.1958088112493905</v>
       </c>
       <c r="F21">
-        <v>0.7094069087854058</v>
+        <v>0.2218540765422838</v>
       </c>
       <c r="G21">
-        <v>5.330904914133439</v>
+        <v>1.667143316780914</v>
       </c>
       <c r="H21">
-        <v>0.07377141101968832</v>
+        <v>0.02307066376759103</v>
       </c>
       <c r="I21">
-        <v>2.079166265508481</v>
+        <v>0.6502213413765704</v>
       </c>
       <c r="J21">
-        <v>1.085836744099843</v>
+        <v>0.3395756443229422</v>
       </c>
       <c r="K21">
-        <v>5.46867361382468</v>
+        <v>1.710227965757285</v>
       </c>
       <c r="L21">
-        <v>2.175952169848975</v>
+        <v>0.6804893683211259</v>
       </c>
       <c r="M21">
-        <v>13.25329419559769</v>
+        <v>4.144726120502122</v>
       </c>
       <c r="N21">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O21">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P21">
-        <v>44.58839253321814</v>
+        <v>13.94420681199529</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1.196335486303898</v>
+        <v>0.3741321112915775</v>
       </c>
       <c r="C22">
-        <v>34.70716243704715</v>
+        <v>10.85403225781573</v>
       </c>
       <c r="D22">
-        <v>0.003462104087382763</v>
+        <v>0.001082709930912038</v>
       </c>
       <c r="E22">
-        <v>1.252247654551438</v>
+        <v>0.3916176224987811</v>
       </c>
       <c r="F22">
-        <v>1.418813817570812</v>
+        <v>0.4437081530845675</v>
       </c>
       <c r="G22">
-        <v>10.66180982826688</v>
+        <v>3.334286633561828</v>
       </c>
       <c r="H22">
-        <v>0.5311541593417558</v>
+        <v>0.1661087791266554</v>
       </c>
       <c r="I22">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="J22">
-        <v>2.33002468004758</v>
+        <v>0.7286727367763135</v>
       </c>
       <c r="K22">
-        <v>11.73486212966546</v>
+        <v>3.669864176520842</v>
       </c>
       <c r="L22">
-        <v>3.376477504938066</v>
+        <v>1.055931778429333</v>
       </c>
       <c r="M22">
-        <v>20.56545651041021</v>
+        <v>6.431471566296396</v>
       </c>
       <c r="N22">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O22">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P22">
-        <v>103.2231929183022</v>
+        <v>32.28117158013654</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.963177162250652</v>
+        <v>0.6139478640907479</v>
       </c>
       <c r="C23">
-        <v>56.95418170152513</v>
+        <v>17.81138191654617</v>
       </c>
       <c r="D23">
-        <v>0.007616628992242076</v>
+        <v>0.002381961848006485</v>
       </c>
       <c r="E23">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="F23">
-        <v>2.837627635141623</v>
+        <v>0.887416306169135</v>
       </c>
       <c r="G23">
-        <v>21.32361965653375</v>
+        <v>6.668573267123657</v>
       </c>
       <c r="H23">
-        <v>1.298376833946514</v>
+        <v>0.4060436823096021</v>
       </c>
       <c r="I23">
-        <v>36.59332627294925</v>
+        <v>11.44389560822764</v>
       </c>
       <c r="J23">
-        <v>4.117130988045239</v>
+        <v>1.287557651391156</v>
       </c>
       <c r="K23">
-        <v>20.73538745241857</v>
+        <v>6.484614370163039</v>
       </c>
       <c r="L23">
-        <v>4.501970006584088</v>
+        <v>1.407909037905778</v>
       </c>
       <c r="M23">
-        <v>27.42060868054695</v>
+        <v>8.575295421728528</v>
       </c>
       <c r="N23">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O23">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P23">
-        <v>183.5979995726157</v>
+        <v>57.41692693680069</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>3.300074259216889</v>
+        <v>1.032038056343476</v>
       </c>
       <c r="C24">
-        <v>95.73920917686769</v>
+        <v>29.94069211588074</v>
       </c>
       <c r="D24">
-        <v>0.007616628992242076</v>
+        <v>0.002381961848006485</v>
       </c>
       <c r="E24">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="F24">
-        <v>4.638429788212266</v>
+        <v>1.450584346622625</v>
       </c>
       <c r="G24">
-        <v>34.85591674625709</v>
+        <v>10.90055245587521</v>
       </c>
       <c r="H24">
-        <v>1.63772532463708</v>
+        <v>0.512168735640521</v>
       </c>
       <c r="I24">
-        <v>46.15749109428828</v>
+        <v>14.43491377855987</v>
       </c>
       <c r="J24">
-        <v>5.180346133309667</v>
+        <v>1.620058803124037</v>
       </c>
       <c r="K24">
-        <v>26.09013036595524</v>
+        <v>8.159212586633716</v>
       </c>
       <c r="L24">
-        <v>8.553743012509772</v>
+        <v>2.675027172020979</v>
       </c>
       <c r="M24">
-        <v>52.0991564930392</v>
+        <v>16.2930613012842</v>
       </c>
       <c r="N24">
-        <v>0.367771013569641</v>
+        <v>0.1150136791509508</v>
       </c>
       <c r="O24">
-        <v>5.812292413767326</v>
+        <v>1.817688480448867</v>
       </c>
       <c r="P24">
-        <v>287.1948472906356</v>
+        <v>89.81495224293052</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>3.795163487883125</v>
+        <v>1.186868185951088</v>
       </c>
       <c r="C25">
-        <v>110.1023560339746</v>
+        <v>34.43250442100813</v>
       </c>
       <c r="D25">
-        <v>0.006924208174765525</v>
+        <v>0.002165419861824076</v>
       </c>
       <c r="E25">
-        <v>2.504495309102876</v>
+        <v>0.7832352449975621</v>
       </c>
       <c r="F25">
-        <v>4.256441452712433</v>
+        <v>1.331124459253704</v>
       </c>
       <c r="G25">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="H25">
-        <v>0.9147654966441349</v>
+        <v>0.2860762307181289</v>
       </c>
       <c r="I25">
-        <v>25.78166169230516</v>
+        <v>8.062744633069473</v>
       </c>
       <c r="J25">
-        <v>4.298103778728545</v>
+        <v>1.344153592111647</v>
       </c>
       <c r="K25">
-        <v>21.64683305472269</v>
+        <v>6.769652364455921</v>
       </c>
       <c r="L25">
-        <v>4.952167007242497</v>
+        <v>1.548699941696355</v>
       </c>
       <c r="M25">
-        <v>30.16266954860166</v>
+        <v>9.43282496390138</v>
       </c>
       <c r="N25">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O25">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P25">
-        <v>243.7347370157669</v>
+        <v>76.22359513595676</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>3.068928499461042</v>
+        <v>0.9597514343184721</v>
       </c>
       <c r="C26">
-        <v>89.03338666944863</v>
+        <v>27.84356838982755</v>
       </c>
       <c r="D26">
-        <v>0.009693891444671737</v>
+        <v>0.003031587806553708</v>
       </c>
       <c r="E26">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="F26">
-        <v>4.965848361497838</v>
+        <v>1.552978535795986</v>
       </c>
       <c r="G26">
-        <v>37.31633439893407</v>
+        <v>11.67000321746641</v>
       </c>
       <c r="H26">
-        <v>0.7819769568086961</v>
+        <v>0.2445490359364649</v>
       </c>
       <c r="I26">
-        <v>22.03916241438989</v>
+        <v>6.892346218591646</v>
       </c>
       <c r="J26">
-        <v>5.813750900701244</v>
+        <v>1.818144595645753</v>
       </c>
       <c r="K26">
-        <v>29.28018997401964</v>
+        <v>9.156845566658799</v>
       </c>
       <c r="L26">
-        <v>12.2303518512201</v>
+        <v>3.824819552977363</v>
       </c>
       <c r="M26">
-        <v>74.49265358215258</v>
+        <v>23.29621922902917</v>
       </c>
       <c r="N26">
-        <v>0.2121755847517159</v>
+        <v>0.06635404566401006</v>
       </c>
       <c r="O26">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="P26">
-        <v>286.1039921409015</v>
+        <v>89.47380718374295</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.639434689103899</v>
+        <v>0.8254350758260647</v>
       </c>
       <c r="C27">
-        <v>76.57324349687943</v>
+        <v>23.94688579074228</v>
       </c>
       <c r="D27">
-        <v>0.0190415724806052</v>
+        <v>0.005954904620016212</v>
       </c>
       <c r="E27">
-        <v>6.887362100032909</v>
+        <v>2.153896923743296</v>
       </c>
       <c r="F27">
-        <v>4.474720501569483</v>
+        <v>1.399387252035944</v>
       </c>
       <c r="G27">
-        <v>33.62570791991861</v>
+        <v>10.51582707507962</v>
       </c>
       <c r="H27">
-        <v>0.6049255703614443</v>
+        <v>0.1891794428942465</v>
       </c>
       <c r="I27">
-        <v>17.04916337716954</v>
+        <v>5.33181499928788</v>
       </c>
       <c r="J27">
-        <v>6.809101249459433</v>
+        <v>2.129422269608451</v>
       </c>
       <c r="K27">
-        <v>34.29314078669226</v>
+        <v>10.72455453526964</v>
       </c>
       <c r="L27">
-        <v>11.02982651613102</v>
+        <v>3.449377142869156</v>
       </c>
       <c r="M27">
-        <v>67.18049126734003</v>
+        <v>21.0094737832349</v>
       </c>
       <c r="N27">
-        <v>0.3111908576358501</v>
+        <v>0.09731926697388138</v>
       </c>
       <c r="O27">
-        <v>4.918093580880046</v>
+        <v>1.538044098841349</v>
       </c>
       <c r="P27">
-        <v>266.4154434856545</v>
+        <v>83.31657256102672</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.779996299766236</v>
+        <v>0.8693931567872166</v>
       </c>
       <c r="C28">
-        <v>80.65110853517483</v>
+        <v>25.22216373226111</v>
       </c>
       <c r="D28">
-        <v>0.01765673084565209</v>
+        <v>0.005521820647651395</v>
       </c>
       <c r="E28">
-        <v>6.386463038212333</v>
+        <v>1.997249874743783</v>
       </c>
       <c r="F28">
-        <v>4.256441452712433</v>
+        <v>1.331124459253704</v>
       </c>
       <c r="G28">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="H28">
-        <v>0.8557483678283846</v>
+        <v>0.267619699704056</v>
       </c>
       <c r="I28">
-        <v>24.11832867989837</v>
+        <v>7.542567559968218</v>
       </c>
       <c r="J28">
-        <v>5.610156511182523</v>
+        <v>1.754474162335201</v>
       </c>
       <c r="K28">
-        <v>28.2548136714275</v>
+        <v>8.836177823079309</v>
       </c>
       <c r="L28">
-        <v>12.83061451876465</v>
+        <v>4.012540758031468</v>
       </c>
       <c r="M28">
-        <v>78.14873473955878</v>
+        <v>24.4395919519263</v>
       </c>
       <c r="N28">
-        <v>0.3253358966192977</v>
+        <v>0.1017428700181487</v>
       </c>
       <c r="O28">
-        <v>5.141643289101865</v>
+        <v>1.607955194243229</v>
       </c>
       <c r="P28">
-        <v>281.3624712158935</v>
+        <v>87.99098296368489</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.77062552572208</v>
+        <v>0.8664626180564736</v>
       </c>
       <c r="C29">
-        <v>80.37925086595513</v>
+        <v>25.1371452028265</v>
       </c>
       <c r="D29">
-        <v>0.01627188921069899</v>
+        <v>0.00508873667528658</v>
       </c>
       <c r="E29">
-        <v>5.885563976391759</v>
+        <v>1.840602825744271</v>
       </c>
       <c r="F29">
-        <v>3.60160430614129</v>
+        <v>1.126336080906979</v>
       </c>
       <c r="G29">
-        <v>27.06459417944669</v>
+        <v>8.463958377503106</v>
       </c>
       <c r="H29">
-        <v>0.5754170059535689</v>
+        <v>0.1799511773872101</v>
       </c>
       <c r="I29">
-        <v>16.21749687096614</v>
+        <v>5.07172646273725</v>
       </c>
       <c r="J29">
-        <v>5.135102935638843</v>
+        <v>1.605909817943915</v>
       </c>
       <c r="K29">
-        <v>25.86226896537922</v>
+        <v>8.087953088060495</v>
       </c>
       <c r="L29">
-        <v>9.604202680712717</v>
+        <v>3.00353928086566</v>
       </c>
       <c r="M29">
-        <v>58.49729851850015</v>
+        <v>18.29396356635419</v>
       </c>
       <c r="N29">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O29">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P29">
-        <v>238.937424180892</v>
+        <v>74.72332301330739</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.931490480146757</v>
+        <v>0.9167701996009022</v>
       </c>
       <c r="C30">
-        <v>85.04614085422645</v>
+        <v>26.59662995812027</v>
       </c>
       <c r="D30">
-        <v>0.01696431002817554</v>
+        <v>0.005305278661468988</v>
       </c>
       <c r="E30">
-        <v>6.136013507302046</v>
+        <v>1.918926350244027</v>
       </c>
       <c r="F30">
-        <v>3.492464781712767</v>
+        <v>1.092204684515859</v>
       </c>
       <c r="G30">
-        <v>26.2444549618877</v>
+        <v>8.207474790306044</v>
       </c>
       <c r="H30">
-        <v>0.6786969813811325</v>
+        <v>0.2122501066618375</v>
       </c>
       <c r="I30">
-        <v>19.12832964267803</v>
+        <v>5.982036340664449</v>
       </c>
       <c r="J30">
-        <v>6.401912470421993</v>
+        <v>2.002081402987347</v>
       </c>
       <c r="K30">
-        <v>32.24238818150801</v>
+        <v>10.08321904811066</v>
       </c>
       <c r="L30">
-        <v>7.953480344965226</v>
+        <v>2.487305966966874</v>
       </c>
       <c r="M30">
-        <v>48.44307533563295</v>
+        <v>15.14968857838706</v>
       </c>
       <c r="N30">
-        <v>0.2970458186524022</v>
+        <v>0.09289566392961407</v>
       </c>
       <c r="O30">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="P30">
-        <v>243.7070015432018</v>
+        <v>76.2149213725959</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.826850169987017</v>
+        <v>0.8840458504409336</v>
       </c>
       <c r="C31">
-        <v>82.01039688127325</v>
+        <v>25.64725637943402</v>
       </c>
       <c r="D31">
-        <v>0.01350220594079277</v>
+        <v>0.004222568730556949</v>
       </c>
       <c r="E31">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="F31">
-        <v>4.965848361497838</v>
+        <v>1.552978535795986</v>
       </c>
       <c r="G31">
-        <v>37.31633439893407</v>
+        <v>11.67000321746641</v>
       </c>
       <c r="H31">
-        <v>0.6196798525653817</v>
+        <v>0.1937935756477647</v>
       </c>
       <c r="I31">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="J31">
-        <v>6.062588487890791</v>
+        <v>1.895964014136428</v>
       </c>
       <c r="K31">
-        <v>30.5334276771878</v>
+        <v>9.54877280881151</v>
       </c>
       <c r="L31">
-        <v>7.578316177749884</v>
+        <v>2.36998021380806</v>
       </c>
       <c r="M31">
-        <v>46.15802461225403</v>
+        <v>14.43508062657635</v>
       </c>
       <c r="N31">
-        <v>0.3394809356027456</v>
+        <v>0.1061664730624161</v>
       </c>
       <c r="O31">
-        <v>5.365192997323686</v>
+        <v>1.677866289645108</v>
       </c>
       <c r="P31">
-        <v>246.1384052412291</v>
+        <v>76.97529854886398</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2.993962307107798</v>
+        <v>0.9363071244725248</v>
       </c>
       <c r="C32">
-        <v>86.85852531569107</v>
+        <v>27.16342015435085</v>
       </c>
       <c r="D32">
-        <v>0.01557946839322243</v>
+        <v>0.004872194689104172</v>
       </c>
       <c r="E32">
-        <v>5.63511444548147</v>
+        <v>1.762279301244514</v>
       </c>
       <c r="F32">
-        <v>4.911278599283576</v>
+        <v>1.535912837600426</v>
       </c>
       <c r="G32">
-        <v>36.90626479015456</v>
+        <v>11.54176142386787</v>
       </c>
       <c r="H32">
-        <v>0.6491884169732571</v>
+        <v>0.203021841154801</v>
       </c>
       <c r="I32">
-        <v>18.29666313647462</v>
+        <v>5.721947804113821</v>
       </c>
       <c r="J32">
-        <v>5.904237296042898</v>
+        <v>1.846442566005999</v>
       </c>
       <c r="K32">
-        <v>29.73591277517169</v>
+        <v>9.299364563805238</v>
       </c>
       <c r="L32">
-        <v>7.503283344306816</v>
+        <v>2.346515063176298</v>
       </c>
       <c r="M32">
-        <v>45.70101446757823</v>
+        <v>14.29215903621421</v>
       </c>
       <c r="N32">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O32">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P32">
-        <v>248.438750823533</v>
+        <v>77.69468968894172</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>3.479680761729876</v>
+        <v>1.088206715349392</v>
       </c>
       <c r="C33">
-        <v>100.9498145035784</v>
+        <v>31.57021393004365</v>
       </c>
       <c r="D33">
-        <v>0.01419462675826933</v>
+        <v>0.004439110716739357</v>
       </c>
       <c r="E33">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="F33">
-        <v>6.1663831302116</v>
+        <v>1.928423896098313</v>
       </c>
       <c r="G33">
-        <v>46.33786579208296</v>
+        <v>14.4913226766341</v>
       </c>
       <c r="H33">
-        <v>0.6196798525653817</v>
+        <v>0.1937935756477647</v>
       </c>
       <c r="I33">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="J33">
-        <v>5.881615697207485</v>
+        <v>1.839368073415937</v>
       </c>
       <c r="K33">
-        <v>29.62198207488368</v>
+        <v>9.263734814518628</v>
       </c>
       <c r="L33">
-        <v>5.852561008559318</v>
+        <v>1.830281749277512</v>
       </c>
       <c r="M33">
-        <v>35.64679128471104</v>
+        <v>11.14788404824709</v>
       </c>
       <c r="N33">
-        <v>0.2546107017020591</v>
+        <v>0.07962485479681204</v>
       </c>
       <c r="O33">
-        <v>4.023894747992765</v>
+        <v>1.258399717233831</v>
       </c>
       <c r="P33">
-        <v>261.4482861959149</v>
+        <v>81.76318468178796</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3.940410485567535</v>
+        <v>1.232291536277611</v>
       </c>
       <c r="C34">
-        <v>114.3161499068798</v>
+        <v>35.75029162724424</v>
       </c>
       <c r="D34">
-        <v>0.01350220594079277</v>
+        <v>0.004222568730556949</v>
       </c>
       <c r="E34">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="F34">
-        <v>4.256441452712433</v>
+        <v>1.331124459253704</v>
       </c>
       <c r="G34">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="H34">
-        <v>1.047554036479574</v>
+        <v>0.3276034254997926</v>
       </c>
       <c r="I34">
-        <v>29.52416097022043</v>
+        <v>9.233143047547303</v>
       </c>
       <c r="J34">
-        <v>3.981401395032758</v>
+        <v>1.245110695850788</v>
       </c>
       <c r="K34">
-        <v>20.05180325069049</v>
+        <v>6.270835874443378</v>
       </c>
       <c r="L34">
-        <v>3.226411838051929</v>
+        <v>1.009001477165807</v>
       </c>
       <c r="M34">
-        <v>19.65143622105864</v>
+        <v>6.14562838557211</v>
       </c>
       <c r="N34">
-        <v>0.4102061305199842</v>
+        <v>0.1282844882837527</v>
       </c>
       <c r="O34">
-        <v>6.482941538432788</v>
+        <v>2.027421766654506</v>
       </c>
       <c r="P34">
-        <v>243.7716147691384</v>
+        <v>76.23512798095429</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3.971646399048057</v>
+        <v>1.242059998713422</v>
       </c>
       <c r="C35">
-        <v>115.2223421376122</v>
+        <v>36.03368672535953</v>
       </c>
       <c r="D35">
-        <v>0.0131559955320545</v>
+        <v>0.004114297737465746</v>
       </c>
       <c r="E35">
-        <v>4.758541087295464</v>
+        <v>1.488146965495368</v>
       </c>
       <c r="F35">
-        <v>3.765313592784076</v>
+        <v>1.17753317549366</v>
       </c>
       <c r="G35">
-        <v>28.29480300578518</v>
+        <v>8.848683758298701</v>
       </c>
       <c r="H35">
-        <v>1.047554036479574</v>
+        <v>0.3276034254997926</v>
       </c>
       <c r="I35">
-        <v>29.52416097022043</v>
+        <v>9.233143047547303</v>
       </c>
       <c r="J35">
-        <v>3.234888633464115</v>
+        <v>1.011652440378766</v>
       </c>
       <c r="K35">
-        <v>16.29209014118603</v>
+        <v>5.095054147985246</v>
       </c>
       <c r="L35">
-        <v>0.675295500987613</v>
+        <v>0.2111863556858667</v>
       </c>
       <c r="M35">
-        <v>4.113091302082044</v>
+        <v>1.286294313259279</v>
       </c>
       <c r="N35">
-        <v>0.1697404678013728</v>
+        <v>0.05308323653120803</v>
       </c>
       <c r="O35">
-        <v>2.682596498661843</v>
+        <v>0.838933144822554</v>
       </c>
       <c r="P35">
-        <v>213.7652197689401</v>
+        <v>66.85117503280816</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.98459153306364</v>
+        <v>0.9333765857417811</v>
       </c>
       <c r="C36">
-        <v>86.5866676464714</v>
+        <v>27.07840162491626</v>
       </c>
       <c r="D36">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E36">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F36">
-        <v>2.673918348498836</v>
+        <v>0.8362192115824545</v>
       </c>
       <c r="G36">
-        <v>20.09341083019527</v>
+        <v>6.283847886328063</v>
       </c>
       <c r="H36">
-        <v>0.9590283432559482</v>
+        <v>0.2999186289786834</v>
       </c>
       <c r="I36">
-        <v>27.02916145161024</v>
+        <v>8.452877437895413</v>
       </c>
       <c r="J36">
-        <v>2.194295087035099</v>
+        <v>0.6862257812359458</v>
       </c>
       <c r="K36">
-        <v>11.05127792793737</v>
+        <v>3.456085680801181</v>
       </c>
       <c r="L36">
-        <v>1.350591001975226</v>
+        <v>0.4223727113717335</v>
       </c>
       <c r="M36">
-        <v>8.226182604164087</v>
+        <v>2.572588626518558</v>
       </c>
       <c r="N36">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O36">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P36">
-        <v>166.1224865813728</v>
+        <v>51.95177886908196</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2.442648434176627</v>
+        <v>0.7638937624804528</v>
       </c>
       <c r="C37">
-        <v>70.86423244326599</v>
+        <v>22.16149667261593</v>
       </c>
       <c r="D37">
-        <v>0.009347681035933461</v>
+        <v>0.002923316813462504</v>
       </c>
       <c r="E37">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="F37">
-        <v>1.800802153070645</v>
+        <v>0.5631680404534897</v>
       </c>
       <c r="G37">
-        <v>13.53229708972335</v>
+        <v>4.231979188751553</v>
       </c>
       <c r="H37">
-        <v>1.077062600887449</v>
+        <v>0.336831691006829</v>
       </c>
       <c r="I37">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="J37">
-        <v>1.33467433128939</v>
+        <v>0.4173950628136165</v>
       </c>
       <c r="K37">
-        <v>6.721911316992835</v>
+        <v>2.102155207909997</v>
       </c>
       <c r="L37">
-        <v>1.275558168532158</v>
+        <v>0.3989075607399705</v>
       </c>
       <c r="M37">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="N37">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O37">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P37">
-        <v>141.2776870637912</v>
+        <v>44.1820207999248</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.786694251085717</v>
+        <v>0.5587560513284138</v>
       </c>
       <c r="C38">
-        <v>51.83419559788761</v>
+        <v>16.21019961219477</v>
       </c>
       <c r="D38">
-        <v>0.005193156131074145</v>
+        <v>0.001624064896368057</v>
       </c>
       <c r="E38">
-        <v>1.878371481827158</v>
+        <v>0.5874264337481715</v>
       </c>
       <c r="F38">
-        <v>1.527953341999335</v>
+        <v>0.4778395494756881</v>
       </c>
       <c r="G38">
-        <v>11.48194904582587</v>
+        <v>3.590770220758894</v>
       </c>
       <c r="H38">
-        <v>0.8114855212165715</v>
+        <v>0.2537773014435014</v>
       </c>
       <c r="I38">
-        <v>22.87082892059329</v>
+        <v>7.152434755142275</v>
       </c>
       <c r="J38">
-        <v>1.19894473827691</v>
+        <v>0.3749481072732488</v>
       </c>
       <c r="K38">
-        <v>6.03832711526475</v>
+        <v>1.888376712190336</v>
       </c>
       <c r="L38">
-        <v>0.675295500987613</v>
+        <v>0.2111863556858667</v>
       </c>
       <c r="M38">
-        <v>4.113091302082044</v>
+        <v>1.286294313259279</v>
       </c>
       <c r="N38">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O38">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P38">
-        <v>104.6977194675885</v>
+        <v>32.7423028742891</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1.255683721916884</v>
+        <v>0.392692189919619</v>
       </c>
       <c r="C39">
-        <v>36.42892767543853</v>
+        <v>11.39248294423479</v>
       </c>
       <c r="D39">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E39">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F39">
-        <v>0.7639766709996677</v>
+        <v>0.2389197747378441</v>
       </c>
       <c r="G39">
-        <v>5.740974522912933</v>
+        <v>1.795385110379447</v>
       </c>
       <c r="H39">
-        <v>0.4131199017102546</v>
+        <v>0.1291957170985097</v>
       </c>
       <c r="I39">
-        <v>11.64333108684749</v>
+        <v>3.641239511708794</v>
       </c>
       <c r="J39">
-        <v>0.6560263662269885</v>
+        <v>0.2051602851117776</v>
       </c>
       <c r="K39">
-        <v>3.30399030835241</v>
+        <v>1.033262729311693</v>
       </c>
       <c r="L39">
-        <v>1.425623835418295</v>
+        <v>0.4458378620034963</v>
       </c>
       <c r="M39">
-        <v>8.683192748839868</v>
+        <v>2.715510216880701</v>
       </c>
       <c r="N39">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O39">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P39">
-        <v>73.05051389862373</v>
+        <v>22.84521633665242</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.7481001278584427</v>
+        <v>0.2339546753376836</v>
       </c>
       <c r="C40">
-        <v>21.70330392603861</v>
+        <v>6.787312599861276</v>
       </c>
       <c r="D40">
-        <v>0.007270418583503802</v>
+        <v>0.00227369085491528</v>
       </c>
       <c r="E40">
-        <v>2.62972007455802</v>
+        <v>0.8223970072474399</v>
       </c>
       <c r="F40">
-        <v>0.6548371465711436</v>
+        <v>0.2047883783467235</v>
       </c>
       <c r="G40">
-        <v>4.920835305353942</v>
+        <v>1.538901523182383</v>
       </c>
       <c r="H40">
-        <v>0.1770513864472519</v>
+        <v>0.05536959304221846</v>
       </c>
       <c r="I40">
-        <v>4.989999037220354</v>
+        <v>1.560531219303769</v>
       </c>
       <c r="J40">
-        <v>0.5881615697207484</v>
+        <v>0.1839368073415938</v>
       </c>
       <c r="K40">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="L40">
-        <v>0.9003940013168176</v>
+        <v>0.2815818075811558</v>
       </c>
       <c r="M40">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="N40">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O40">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P40">
-        <v>46.24138243167714</v>
+        <v>14.46114926478902</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,43 +2418,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.5513138729311694</v>
+        <v>0.1724133619920717</v>
       </c>
       <c r="C41">
-        <v>15.99429287242512</v>
+        <v>5.001923481734925</v>
       </c>
       <c r="D41">
-        <v>0.01142494348836312</v>
+        <v>0.003572942772009727</v>
       </c>
       <c r="E41">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="F41">
-        <v>0.05456976221426198</v>
+        <v>0.0170656981955603</v>
       </c>
       <c r="G41">
-        <v>0.4100696087794953</v>
+        <v>0.1282417935985319</v>
       </c>
       <c r="H41">
-        <v>0.08852569322362597</v>
+        <v>0.02768479652110923</v>
       </c>
       <c r="I41">
-        <v>2.494999518610177</v>
+        <v>0.7802656096518843</v>
       </c>
       <c r="J41">
-        <v>0.9274855522519494</v>
+        <v>0.2900541961925132</v>
       </c>
       <c r="K41">
-        <v>4.671158711808581</v>
+        <v>1.460819720751014</v>
       </c>
       <c r="L41">
-        <v>1.20052533508909</v>
+        <v>0.3754424101082076</v>
       </c>
       <c r="M41">
-        <v>7.312162314812519</v>
+        <v>2.286745445794274</v>
       </c>
       <c r="P41">
-        <v>37.84894544565409</v>
+        <v>11.83656761155808</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.3217299088493512</v>
+        <v>0.1006151630888576</v>
       </c>
       <c r="C42">
-        <v>9.333779976542708</v>
+        <v>2.918969510587519</v>
       </c>
       <c r="D42">
-        <v>0.008309049809718631</v>
+        <v>0.002598503834188892</v>
       </c>
       <c r="E42">
-        <v>3.005394370923451</v>
+        <v>0.9398822939970746</v>
       </c>
       <c r="F42">
-        <v>0.05456976221426198</v>
+        <v>0.0170656981955603</v>
       </c>
       <c r="G42">
-        <v>0.4100696087794953</v>
+        <v>0.1282417935985319</v>
       </c>
       <c r="H42">
-        <v>0.05901712881575067</v>
+        <v>0.01845653101407283</v>
       </c>
       <c r="I42">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="J42">
-        <v>0.7238911627332288</v>
+        <v>0.2263837628819615</v>
       </c>
       <c r="K42">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="L42">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M42">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N42">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O42">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P42">
-        <v>27.44421580927924</v>
+        <v>8.582678120825269</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2512,43 +2512,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.2467637164961043</v>
+        <v>0.0771708532429102</v>
       </c>
       <c r="C43">
-        <v>7.158918622785179</v>
+        <v>2.238821275110817</v>
       </c>
       <c r="D43">
-        <v>0.0117711538971014</v>
+        <v>0.003681213765100929</v>
       </c>
       <c r="E43">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="F43">
-        <v>0.4365580977140959</v>
+        <v>0.1365255855644824</v>
       </c>
       <c r="G43">
-        <v>3.280556870235962</v>
+        <v>1.025934348788256</v>
       </c>
       <c r="H43">
-        <v>0.01475428220393767</v>
+        <v>0.004614132753518208</v>
       </c>
       <c r="I43">
-        <v>0.4158332531016961</v>
+        <v>0.1300442682753141</v>
       </c>
       <c r="J43">
-        <v>0.4750535755436814</v>
+        <v>0.1485643443912872</v>
       </c>
       <c r="K43">
-        <v>2.392544706048298</v>
+        <v>0.7482247350188121</v>
       </c>
       <c r="L43">
-        <v>1.500656668861363</v>
+        <v>0.4693030126352593</v>
       </c>
       <c r="M43">
-        <v>9.140202893515649</v>
+        <v>2.858431807242844</v>
       </c>
       <c r="P43">
-        <v>29.33125586587796</v>
+        <v>9.172815493284457</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2556,49 +2556,49 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.3061119521090915</v>
+        <v>0.09573093187095195</v>
       </c>
       <c r="C44">
-        <v>8.880683861176552</v>
+        <v>2.777271961529875</v>
       </c>
       <c r="D44">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E44">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F44">
-        <v>0.3274185732855718</v>
+        <v>0.1023941891733618</v>
       </c>
       <c r="G44">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="H44">
-        <v>0.132788539835439</v>
+        <v>0.04152719478166385</v>
       </c>
       <c r="I44">
-        <v>3.742499277915265</v>
+        <v>1.170398414477827</v>
       </c>
       <c r="J44">
-        <v>0.5881615697207484</v>
+        <v>0.1839368073415938</v>
       </c>
       <c r="K44">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="L44">
-        <v>1.275558168532158</v>
+        <v>0.3989075607399705</v>
       </c>
       <c r="M44">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="N44">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O44">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P44">
-        <v>30.94298257498361</v>
+        <v>9.676853635934307</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2606,49 +2606,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.4513589497935071</v>
+        <v>0.141154282197475</v>
       </c>
       <c r="C45">
-        <v>13.09447773408175</v>
+        <v>4.095059167765986</v>
       </c>
       <c r="D45">
-        <v>0.001731052043691381</v>
+        <v>0.000541354965456019</v>
       </c>
       <c r="E45">
-        <v>0.626123827275719</v>
+        <v>0.1958088112493905</v>
       </c>
       <c r="F45">
-        <v>0.7094069087854058</v>
+        <v>0.2218540765422838</v>
       </c>
       <c r="G45">
-        <v>5.330904914133439</v>
+        <v>1.667143316780914</v>
       </c>
       <c r="H45">
-        <v>0.07377141101968832</v>
+        <v>0.02307066376759103</v>
       </c>
       <c r="I45">
-        <v>2.079166265508481</v>
+        <v>0.6502213413765704</v>
       </c>
       <c r="J45">
-        <v>1.085836744099843</v>
+        <v>0.3395756443229422</v>
       </c>
       <c r="K45">
-        <v>5.46867361382468</v>
+        <v>1.710227965757285</v>
       </c>
       <c r="L45">
-        <v>2.175952169848975</v>
+        <v>0.6804893683211259</v>
       </c>
       <c r="M45">
-        <v>13.25329419559769</v>
+        <v>4.144726120502122</v>
       </c>
       <c r="N45">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O45">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P45">
-        <v>44.58839253321814</v>
+        <v>13.94420681199529</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2656,49 +2656,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1.196335486303898</v>
+        <v>0.3741321112915775</v>
       </c>
       <c r="C46">
-        <v>34.70716243704715</v>
+        <v>10.85403225781573</v>
       </c>
       <c r="D46">
-        <v>0.003462104087382763</v>
+        <v>0.001082709930912038</v>
       </c>
       <c r="E46">
-        <v>1.252247654551438</v>
+        <v>0.3916176224987811</v>
       </c>
       <c r="F46">
-        <v>1.418813817570812</v>
+        <v>0.4437081530845675</v>
       </c>
       <c r="G46">
-        <v>10.66180982826688</v>
+        <v>3.334286633561828</v>
       </c>
       <c r="H46">
-        <v>0.5311541593417558</v>
+        <v>0.1661087791266554</v>
       </c>
       <c r="I46">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="J46">
-        <v>2.33002468004758</v>
+        <v>0.7286727367763135</v>
       </c>
       <c r="K46">
-        <v>11.73486212966546</v>
+        <v>3.669864176520842</v>
       </c>
       <c r="L46">
-        <v>3.376477504938066</v>
+        <v>1.055931778429333</v>
       </c>
       <c r="M46">
-        <v>20.56545651041021</v>
+        <v>6.431471566296396</v>
       </c>
       <c r="N46">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O46">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P46">
-        <v>103.2231929183022</v>
+        <v>32.28117158013654</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2706,49 +2706,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.963177162250652</v>
+        <v>0.6139478640907479</v>
       </c>
       <c r="C47">
-        <v>56.95418170152513</v>
+        <v>17.81138191654617</v>
       </c>
       <c r="D47">
-        <v>0.007616628992242076</v>
+        <v>0.002381961848006485</v>
       </c>
       <c r="E47">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="F47">
-        <v>2.837627635141623</v>
+        <v>0.887416306169135</v>
       </c>
       <c r="G47">
-        <v>21.32361965653375</v>
+        <v>6.668573267123657</v>
       </c>
       <c r="H47">
-        <v>1.298376833946514</v>
+        <v>0.4060436823096021</v>
       </c>
       <c r="I47">
-        <v>36.59332627294925</v>
+        <v>11.44389560822764</v>
       </c>
       <c r="J47">
-        <v>4.117130988045239</v>
+        <v>1.287557651391156</v>
       </c>
       <c r="K47">
-        <v>20.73538745241857</v>
+        <v>6.484614370163039</v>
       </c>
       <c r="L47">
-        <v>4.501970006584088</v>
+        <v>1.407909037905778</v>
       </c>
       <c r="M47">
-        <v>27.42060868054695</v>
+        <v>8.575295421728528</v>
       </c>
       <c r="N47">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O47">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P47">
-        <v>183.5979995726157</v>
+        <v>57.41692693680069</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2756,49 +2756,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>3.300074259216889</v>
+        <v>1.032038056343476</v>
       </c>
       <c r="C48">
-        <v>95.73920917686769</v>
+        <v>29.94069211588074</v>
       </c>
       <c r="D48">
-        <v>0.007616628992242076</v>
+        <v>0.002381961848006485</v>
       </c>
       <c r="E48">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="F48">
-        <v>4.638429788212266</v>
+        <v>1.450584346622625</v>
       </c>
       <c r="G48">
-        <v>34.85591674625709</v>
+        <v>10.90055245587521</v>
       </c>
       <c r="H48">
-        <v>1.63772532463708</v>
+        <v>0.512168735640521</v>
       </c>
       <c r="I48">
-        <v>46.15749109428828</v>
+        <v>14.43491377855987</v>
       </c>
       <c r="J48">
-        <v>5.180346133309667</v>
+        <v>1.620058803124037</v>
       </c>
       <c r="K48">
-        <v>26.09013036595524</v>
+        <v>8.159212586633716</v>
       </c>
       <c r="L48">
-        <v>8.553743012509772</v>
+        <v>2.675027172020979</v>
       </c>
       <c r="M48">
-        <v>52.0991564930392</v>
+        <v>16.2930613012842</v>
       </c>
       <c r="N48">
-        <v>0.367771013569641</v>
+        <v>0.1150136791509508</v>
       </c>
       <c r="O48">
-        <v>5.812292413767326</v>
+        <v>1.817688480448867</v>
       </c>
       <c r="P48">
-        <v>287.1948472906356</v>
+        <v>89.81495224293052</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2806,49 +2806,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>3.795163487883125</v>
+        <v>1.186868185951088</v>
       </c>
       <c r="C49">
-        <v>110.1023560339746</v>
+        <v>34.43250442100813</v>
       </c>
       <c r="D49">
-        <v>0.006924208174765525</v>
+        <v>0.002165419861824076</v>
       </c>
       <c r="E49">
-        <v>2.504495309102876</v>
+        <v>0.7832352449975621</v>
       </c>
       <c r="F49">
-        <v>4.256441452712433</v>
+        <v>1.331124459253704</v>
       </c>
       <c r="G49">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="H49">
-        <v>0.9147654966441349</v>
+        <v>0.2860762307181289</v>
       </c>
       <c r="I49">
-        <v>25.78166169230516</v>
+        <v>8.062744633069473</v>
       </c>
       <c r="J49">
-        <v>4.298103778728545</v>
+        <v>1.344153592111647</v>
       </c>
       <c r="K49">
-        <v>21.64683305472269</v>
+        <v>6.769652364455921</v>
       </c>
       <c r="L49">
-        <v>4.952167007242497</v>
+        <v>1.548699941696355</v>
       </c>
       <c r="M49">
-        <v>30.16266954860166</v>
+        <v>9.43282496390138</v>
       </c>
       <c r="N49">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O49">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P49">
-        <v>243.7347370157669</v>
+        <v>76.22359513595676</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.9597514343184721</v>
+        <v>3.068928499461042</v>
       </c>
       <c r="C2">
-        <v>27.84356838982755</v>
+        <v>89.03338666944863</v>
       </c>
       <c r="D2">
-        <v>0.003031587806553708</v>
+        <v>0.009693891444671737</v>
       </c>
       <c r="E2">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="F2">
-        <v>1.552978535795986</v>
+        <v>4.965848361497838</v>
       </c>
       <c r="G2">
-        <v>11.67000321746641</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="H2">
-        <v>0.2445490359364649</v>
+        <v>0.7819769568086961</v>
       </c>
       <c r="I2">
-        <v>6.892346218591646</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="J2">
-        <v>1.818144595645753</v>
+        <v>5.813750900701244</v>
       </c>
       <c r="K2">
-        <v>9.156845566658799</v>
+        <v>29.28018997401964</v>
       </c>
       <c r="L2">
-        <v>3.824819552977363</v>
+        <v>12.2303518512201</v>
       </c>
       <c r="M2">
-        <v>23.29621922902917</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="N2">
-        <v>0.06635404566401006</v>
+        <v>0.2121755847517159</v>
       </c>
       <c r="O2">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="P2">
-        <v>89.47380718374295</v>
+        <v>286.1039921409015</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.8356919613836671</v>
+        <v>2.672232398258443</v>
       </c>
       <c r="C3">
-        <v>24.24445064376332</v>
+        <v>77.52474533914838</v>
       </c>
       <c r="D3">
-        <v>0.006929343557837044</v>
+        <v>0.02215746615924968</v>
       </c>
       <c r="E3">
-        <v>2.506352783992198</v>
+        <v>8.014384989129203</v>
       </c>
       <c r="F3">
-        <v>0.7679564188002129</v>
+        <v>2.455639299641788</v>
       </c>
       <c r="G3">
-        <v>5.770880711933936</v>
+        <v>18.45313239507728</v>
       </c>
       <c r="H3">
-        <v>0.1753370446336918</v>
+        <v>0.5606627237496311</v>
       </c>
       <c r="I3">
-        <v>4.941682194461935</v>
+        <v>15.80166361786445</v>
       </c>
       <c r="J3">
-        <v>2.171869225148818</v>
+        <v>6.944830842471912</v>
       </c>
       <c r="K3">
-        <v>10.93833303098931</v>
+        <v>34.97672498842035</v>
       </c>
       <c r="L3">
-        <v>3.073934732760951</v>
+        <v>9.829301181041929</v>
       </c>
       <c r="M3">
-        <v>18.72272833744061</v>
+        <v>59.86832895252751</v>
       </c>
       <c r="N3">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O3">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P3">
-        <v>75.12249750866638</v>
+        <v>240.2138359071586</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.892349043511373</v>
+        <v>2.853400696445458</v>
       </c>
       <c r="C4">
-        <v>25.88814221283204</v>
+        <v>82.78066027739574</v>
       </c>
       <c r="D4">
-        <v>0.006712801571654639</v>
+        <v>0.02146504534177313</v>
       </c>
       <c r="E4">
-        <v>2.428029259492442</v>
+        <v>7.763935458218915</v>
       </c>
       <c r="F4">
-        <v>1.348190157449263</v>
+        <v>4.311011214926696</v>
       </c>
       <c r="G4">
-        <v>10.13110169428402</v>
+        <v>32.39549909358013</v>
       </c>
       <c r="H4">
-        <v>0.1891794428942465</v>
+        <v>0.6049255703614443</v>
       </c>
       <c r="I4">
-        <v>5.33181499928788</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="J4">
-        <v>1.803995610465631</v>
+        <v>5.768507703030417</v>
       </c>
       <c r="K4">
-        <v>9.085586068085579</v>
+        <v>29.05232857344361</v>
       </c>
       <c r="L4">
-        <v>3.308586239078579</v>
+        <v>10.5796295154726</v>
       </c>
       <c r="M4">
-        <v>20.15194424106204</v>
+        <v>64.43843039928535</v>
       </c>
       <c r="N4">
-        <v>0.07077764870827737</v>
+        <v>0.2263206237351636</v>
       </c>
       <c r="O4">
-        <v>1.118577526430072</v>
+        <v>3.576795331549124</v>
       </c>
       <c r="P4">
-        <v>81.75498694515309</v>
+        <v>261.422072879956</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.8229929602171117</v>
+        <v>2.63162571073377</v>
       </c>
       <c r="C5">
-        <v>23.87603701621345</v>
+        <v>76.34669543919638</v>
       </c>
       <c r="D5">
-        <v>0.004655652702921764</v>
+        <v>0.01488704757574588</v>
       </c>
       <c r="E5">
-        <v>1.683955776744758</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="F5">
-        <v>1.058073288124739</v>
+        <v>3.383325257284242</v>
       </c>
       <c r="G5">
-        <v>7.950991203108977</v>
+        <v>25.4243157443287</v>
       </c>
       <c r="H5">
-        <v>0.1937935756477647</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I5">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J5">
-        <v>1.521015906863179</v>
+        <v>4.86364374961388</v>
       </c>
       <c r="K5">
-        <v>7.660396096621175</v>
+        <v>24.49510056192304</v>
       </c>
       <c r="L5">
-        <v>3.144330184656237</v>
+        <v>10.05439968137113</v>
       </c>
       <c r="M5">
-        <v>19.15149310852703</v>
+        <v>61.23935938655483</v>
       </c>
       <c r="N5">
-        <v>0.07962485479681204</v>
+        <v>0.2546107017020591</v>
       </c>
       <c r="O5">
-        <v>1.258399717233831</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="P5">
-        <v>73.86761860902118</v>
+        <v>236.2011994256843</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.8508330781591746</v>
+        <v>2.720648064153251</v>
       </c>
       <c r="C6">
-        <v>24.68371304584204</v>
+        <v>78.92934329678346</v>
       </c>
       <c r="D6">
-        <v>0.005305278661468988</v>
+        <v>0.01696431002817554</v>
       </c>
       <c r="E6">
-        <v>1.918926350244027</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="F6">
-        <v>1.621241328578228</v>
+        <v>5.184127410354884</v>
       </c>
       <c r="G6">
-        <v>12.18297039186053</v>
+        <v>38.95661283405206</v>
       </c>
       <c r="H6">
-        <v>0.1937935756477647</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I6">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J6">
-        <v>1.846442566005999</v>
+        <v>5.904237296042898</v>
       </c>
       <c r="K6">
-        <v>9.299364563805238</v>
+        <v>29.73591277517169</v>
       </c>
       <c r="L6">
-        <v>2.76888777454803</v>
+        <v>8.853874346282044</v>
       </c>
       <c r="M6">
-        <v>16.86474766273276</v>
+        <v>53.92719707174231</v>
       </c>
       <c r="N6">
-        <v>0.07520125175254472</v>
+        <v>0.2404656627186113</v>
       </c>
       <c r="O6">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="P6">
-        <v>78.96177475723294</v>
+        <v>252.490418097239</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.8767195036140755</v>
+        <v>2.803423234876629</v>
       </c>
       <c r="C7">
-        <v>25.43471005584757</v>
+        <v>81.33075270822404</v>
       </c>
       <c r="D7">
-        <v>0.004980465682195376</v>
+        <v>0.01592567880196071</v>
       </c>
       <c r="E7">
-        <v>1.801441063494393</v>
+        <v>5.760339210936616</v>
       </c>
       <c r="F7">
-        <v>1.604175630382668</v>
+        <v>5.129557648140625</v>
       </c>
       <c r="G7">
-        <v>12.054728598262</v>
+        <v>38.54654322527257</v>
       </c>
       <c r="H7">
-        <v>0.1614946463731372</v>
+        <v>0.5163998771378182</v>
       </c>
       <c r="I7">
-        <v>4.551549389635993</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="J7">
-        <v>1.91011299931655</v>
+        <v>6.107831685561619</v>
       </c>
       <c r="K7">
-        <v>9.620032307384729</v>
+        <v>30.76128907776382</v>
       </c>
       <c r="L7">
-        <v>3.214725636551528</v>
+        <v>10.27949818170034</v>
       </c>
       <c r="M7">
-        <v>19.58025787961347</v>
+        <v>62.61038982058221</v>
       </c>
       <c r="N7">
-        <v>0.09289566392961407</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O7">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P7">
-        <v>82.3759568435274</v>
+        <v>263.4077038988682</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.9299576238892474</v>
+        <v>2.973658963345459</v>
       </c>
       <c r="C8">
-        <v>26.97921334057592</v>
+        <v>86.26950036571512</v>
       </c>
       <c r="D8">
-        <v>0.005197007668377784</v>
+        <v>0.01661809961943726</v>
       </c>
       <c r="E8">
-        <v>1.879764587994149</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="F8">
-        <v>1.638307026773788</v>
+        <v>5.238697172569148</v>
       </c>
       <c r="G8">
-        <v>12.31121218545906</v>
+        <v>39.36668244283154</v>
       </c>
       <c r="H8">
-        <v>0.1384239826055462</v>
+        <v>0.4426284661181299</v>
       </c>
       <c r="I8">
-        <v>3.901328048259423</v>
+        <v>12.47499759305088</v>
       </c>
       <c r="J8">
-        <v>1.931336477086734</v>
+        <v>6.175696482067859</v>
       </c>
       <c r="K8">
-        <v>9.72692155524456</v>
+        <v>31.10308117862786</v>
       </c>
       <c r="L8">
-        <v>1.830281749277512</v>
+        <v>5.852561008559318</v>
       </c>
       <c r="M8">
-        <v>11.14788404824709</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="N8">
-        <v>0.1017428700181487</v>
+        <v>0.3253358966192977</v>
       </c>
       <c r="O8">
-        <v>1.607955194243229</v>
+        <v>5.141643289101865</v>
       </c>
       <c r="P8">
-        <v>74.1295256973428</v>
+        <v>237.0386809847839</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.088206715349392</v>
+        <v>3.479680761729876</v>
       </c>
       <c r="C9">
-        <v>31.57021393004365</v>
+        <v>100.9498145035784</v>
       </c>
       <c r="D9">
-        <v>0.004439110716739357</v>
+        <v>0.01419462675826933</v>
       </c>
       <c r="E9">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="F9">
-        <v>1.928423896098313</v>
+        <v>6.1663831302116</v>
       </c>
       <c r="G9">
-        <v>14.4913226766341</v>
+        <v>46.33786579208296</v>
       </c>
       <c r="H9">
-        <v>0.1937935756477647</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I9">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J9">
-        <v>1.839368073415937</v>
+        <v>5.881615697207485</v>
       </c>
       <c r="K9">
-        <v>9.263734814518628</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="L9">
-        <v>1.830281749277512</v>
+        <v>5.852561008559318</v>
       </c>
       <c r="M9">
-        <v>11.14788404824709</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="N9">
-        <v>0.07962485479681204</v>
+        <v>0.2546107017020591</v>
       </c>
       <c r="O9">
-        <v>1.258399717233831</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="P9">
-        <v>81.76318468178796</v>
+        <v>261.4482861959149</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.232291536277611</v>
+        <v>3.940410485567535</v>
       </c>
       <c r="C10">
-        <v>35.75029162724424</v>
+        <v>114.3161499068798</v>
       </c>
       <c r="D10">
-        <v>0.004222568730556949</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E10">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F10">
-        <v>1.331124459253704</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G10">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H10">
-        <v>0.3276034254997926</v>
+        <v>1.047554036479574</v>
       </c>
       <c r="I10">
-        <v>9.233143047547303</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="J10">
-        <v>1.245110695850788</v>
+        <v>3.981401395032758</v>
       </c>
       <c r="K10">
-        <v>6.270835874443378</v>
+        <v>20.05180325069049</v>
       </c>
       <c r="L10">
-        <v>1.009001477165807</v>
+        <v>3.226411838051929</v>
       </c>
       <c r="M10">
-        <v>6.14562838557211</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="N10">
-        <v>0.1282844882837527</v>
+        <v>0.4102061305199842</v>
       </c>
       <c r="O10">
-        <v>2.027421766654506</v>
+        <v>6.482941538432788</v>
       </c>
       <c r="P10">
-        <v>76.23512798095429</v>
+        <v>243.7716147691384</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.242059998713422</v>
+        <v>3.971646399048057</v>
       </c>
       <c r="C11">
-        <v>36.03368672535953</v>
+        <v>115.2223421376122</v>
       </c>
       <c r="D11">
-        <v>0.004114297737465746</v>
+        <v>0.0131559955320545</v>
       </c>
       <c r="E11">
-        <v>1.488146965495368</v>
+        <v>4.758541087295464</v>
       </c>
       <c r="F11">
-        <v>1.17753317549366</v>
+        <v>3.765313592784076</v>
       </c>
       <c r="G11">
-        <v>8.848683758298701</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="H11">
-        <v>0.3276034254997926</v>
+        <v>1.047554036479574</v>
       </c>
       <c r="I11">
-        <v>9.233143047547303</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="J11">
-        <v>1.011652440378766</v>
+        <v>3.234888633464115</v>
       </c>
       <c r="K11">
-        <v>5.095054147985246</v>
+        <v>16.29209014118603</v>
       </c>
       <c r="L11">
-        <v>0.2111863556858667</v>
+        <v>0.675295500987613</v>
       </c>
       <c r="M11">
-        <v>1.286294313259279</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="N11">
-        <v>0.05308323653120803</v>
+        <v>0.1697404678013728</v>
       </c>
       <c r="O11">
-        <v>0.838933144822554</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="P11">
-        <v>66.85117503280816</v>
+        <v>213.7652197689401</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.9333765857417811</v>
+        <v>2.98459153306364</v>
       </c>
       <c r="C12">
-        <v>27.07840162491626</v>
+        <v>86.5866676464714</v>
       </c>
       <c r="D12">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E12">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F12">
-        <v>0.8362192115824545</v>
+        <v>2.673918348498836</v>
       </c>
       <c r="G12">
-        <v>6.283847886328063</v>
+        <v>20.09341083019527</v>
       </c>
       <c r="H12">
-        <v>0.2999186289786834</v>
+        <v>0.9590283432559482</v>
       </c>
       <c r="I12">
-        <v>8.452877437895413</v>
+        <v>27.02916145161024</v>
       </c>
       <c r="J12">
-        <v>0.6862257812359458</v>
+        <v>2.194295087035099</v>
       </c>
       <c r="K12">
-        <v>3.456085680801181</v>
+        <v>11.05127792793737</v>
       </c>
       <c r="L12">
-        <v>0.4223727113717335</v>
+        <v>1.350591001975226</v>
       </c>
       <c r="M12">
-        <v>2.572588626518558</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="N12">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O12">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P12">
-        <v>51.95177886908196</v>
+        <v>166.1224865813728</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.7638937624804528</v>
+        <v>2.442648434176627</v>
       </c>
       <c r="C13">
-        <v>22.16149667261593</v>
+        <v>70.86423244326599</v>
       </c>
       <c r="D13">
-        <v>0.002923316813462504</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E13">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F13">
-        <v>0.5631680404534897</v>
+        <v>1.800802153070645</v>
       </c>
       <c r="G13">
-        <v>4.231979188751553</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="H13">
-        <v>0.336831691006829</v>
+        <v>1.077062600887449</v>
       </c>
       <c r="I13">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="J13">
-        <v>0.4173950628136165</v>
+        <v>1.33467433128939</v>
       </c>
       <c r="K13">
-        <v>2.102155207909997</v>
+        <v>6.721911316992835</v>
       </c>
       <c r="L13">
-        <v>0.3989075607399705</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M13">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N13">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O13">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P13">
-        <v>44.1820207999248</v>
+        <v>141.2776870637912</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5587560513284138</v>
+        <v>1.786694251085717</v>
       </c>
       <c r="C14">
-        <v>16.21019961219477</v>
+        <v>51.83419559788761</v>
       </c>
       <c r="D14">
-        <v>0.001624064896368057</v>
+        <v>0.005193156131074145</v>
       </c>
       <c r="E14">
-        <v>0.5874264337481715</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="F14">
-        <v>0.4778395494756881</v>
+        <v>1.527953341999335</v>
       </c>
       <c r="G14">
-        <v>3.590770220758894</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="H14">
-        <v>0.2537773014435014</v>
+        <v>0.8114855212165715</v>
       </c>
       <c r="I14">
-        <v>7.152434755142275</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="J14">
-        <v>0.3749481072732488</v>
+        <v>1.19894473827691</v>
       </c>
       <c r="K14">
-        <v>1.888376712190336</v>
+        <v>6.03832711526475</v>
       </c>
       <c r="L14">
-        <v>0.2111863556858667</v>
+        <v>0.675295500987613</v>
       </c>
       <c r="M14">
-        <v>1.286294313259279</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="N14">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O14">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P14">
-        <v>32.7423028742891</v>
+        <v>104.6977194675885</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.392692189919619</v>
+        <v>1.255683721916884</v>
       </c>
       <c r="C15">
-        <v>11.39248294423479</v>
+        <v>36.42892767543853</v>
       </c>
       <c r="D15">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E15">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F15">
-        <v>0.2389197747378441</v>
+        <v>0.7639766709996677</v>
       </c>
       <c r="G15">
-        <v>1.795385110379447</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="H15">
-        <v>0.1291957170985097</v>
+        <v>0.4131199017102546</v>
       </c>
       <c r="I15">
-        <v>3.641239511708794</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="J15">
-        <v>0.2051602851117776</v>
+        <v>0.6560263662269885</v>
       </c>
       <c r="K15">
-        <v>1.033262729311693</v>
+        <v>3.30399030835241</v>
       </c>
       <c r="L15">
-        <v>0.4458378620034963</v>
+        <v>1.425623835418295</v>
       </c>
       <c r="M15">
-        <v>2.715510216880701</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="N15">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O15">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P15">
-        <v>22.84521633665242</v>
+        <v>73.05051389862373</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.2339546753376836</v>
+        <v>0.7481001278584427</v>
       </c>
       <c r="C16">
-        <v>6.787312599861276</v>
+        <v>21.70330392603861</v>
       </c>
       <c r="D16">
-        <v>0.00227369085491528</v>
+        <v>0.007270418583503802</v>
       </c>
       <c r="E16">
-        <v>0.8223970072474399</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="F16">
-        <v>0.2047883783467235</v>
+        <v>0.6548371465711436</v>
       </c>
       <c r="G16">
-        <v>1.538901523182383</v>
+        <v>4.920835305353942</v>
       </c>
       <c r="H16">
-        <v>0.05536959304221846</v>
+        <v>0.1770513864472519</v>
       </c>
       <c r="I16">
-        <v>1.560531219303769</v>
+        <v>4.989999037220354</v>
       </c>
       <c r="J16">
-        <v>0.1839368073415938</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K16">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L16">
-        <v>0.2815818075811558</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M16">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="N16">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O16">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P16">
-        <v>14.46114926478902</v>
+        <v>46.24138243167714</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1724133619920717</v>
+        <v>0.5513138729311694</v>
       </c>
       <c r="C17">
-        <v>5.001923481734925</v>
+        <v>15.99429287242512</v>
       </c>
       <c r="D17">
-        <v>0.003572942772009727</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E17">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F17">
-        <v>0.0170656981955603</v>
+        <v>0.05456976221426198</v>
       </c>
       <c r="G17">
-        <v>0.1282417935985319</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="H17">
-        <v>0.02768479652110923</v>
+        <v>0.08852569322362597</v>
       </c>
       <c r="I17">
-        <v>0.7802656096518843</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="J17">
-        <v>0.2900541961925132</v>
+        <v>0.9274855522519494</v>
       </c>
       <c r="K17">
-        <v>1.460819720751014</v>
+        <v>4.671158711808581</v>
       </c>
       <c r="L17">
-        <v>0.3754424101082076</v>
+        <v>1.20052533508909</v>
       </c>
       <c r="M17">
-        <v>2.286745445794274</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="P17">
-        <v>11.83656761155808</v>
+        <v>37.84894544565409</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1006151630888576</v>
+        <v>0.3217299088493512</v>
       </c>
       <c r="C18">
-        <v>2.918969510587519</v>
+        <v>9.333779976542708</v>
       </c>
       <c r="D18">
-        <v>0.002598503834188892</v>
+        <v>0.008309049809718631</v>
       </c>
       <c r="E18">
-        <v>0.9398822939970746</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="F18">
-        <v>0.0170656981955603</v>
+        <v>0.05456976221426198</v>
       </c>
       <c r="G18">
-        <v>0.1282417935985319</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="H18">
-        <v>0.01845653101407283</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I18">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J18">
-        <v>0.2263837628819615</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K18">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L18">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M18">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N18">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O18">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P18">
-        <v>8.582678120825269</v>
+        <v>27.44421580927924</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,43 +1324,43 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.0771708532429102</v>
+        <v>0.2467637164961043</v>
       </c>
       <c r="C19">
-        <v>2.238821275110817</v>
+        <v>7.158918622785179</v>
       </c>
       <c r="D19">
-        <v>0.003681213765100929</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E19">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F19">
-        <v>0.1365255855644824</v>
+        <v>0.4365580977140959</v>
       </c>
       <c r="G19">
-        <v>1.025934348788256</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="H19">
-        <v>0.004614132753518208</v>
+        <v>0.01475428220393767</v>
       </c>
       <c r="I19">
-        <v>0.1300442682753141</v>
+        <v>0.4158332531016961</v>
       </c>
       <c r="J19">
-        <v>0.1485643443912872</v>
+        <v>0.4750535755436814</v>
       </c>
       <c r="K19">
-        <v>0.7482247350188121</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="L19">
-        <v>0.4693030126352593</v>
+        <v>1.500656668861363</v>
       </c>
       <c r="M19">
-        <v>2.858431807242844</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="P19">
-        <v>9.172815493284457</v>
+        <v>29.33125586587796</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.09573093187095195</v>
+        <v>0.3061119521090915</v>
       </c>
       <c r="C20">
-        <v>2.777271961529875</v>
+        <v>8.880683861176552</v>
       </c>
       <c r="D20">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E20">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F20">
-        <v>0.1023941891733618</v>
+        <v>0.3274185732855718</v>
       </c>
       <c r="G20">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H20">
-        <v>0.04152719478166385</v>
+        <v>0.132788539835439</v>
       </c>
       <c r="I20">
-        <v>1.170398414477827</v>
+        <v>3.742499277915265</v>
       </c>
       <c r="J20">
-        <v>0.1839368073415938</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K20">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L20">
-        <v>0.3989075607399705</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M20">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N20">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O20">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P20">
-        <v>9.676853635934307</v>
+        <v>30.94298257498361</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.141154282197475</v>
+        <v>0.4513589497935071</v>
       </c>
       <c r="C21">
-        <v>4.095059167765986</v>
+        <v>13.09447773408175</v>
       </c>
       <c r="D21">
-        <v>0.000541354965456019</v>
+        <v>0.001731052043691381</v>
       </c>
       <c r="E21">
-        <v>0.1958088112493905</v>
+        <v>0.626123827275719</v>
       </c>
       <c r="F21">
-        <v>0.2218540765422838</v>
+        <v>0.7094069087854058</v>
       </c>
       <c r="G21">
-        <v>1.667143316780914</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="H21">
-        <v>0.02307066376759103</v>
+        <v>0.07377141101968832</v>
       </c>
       <c r="I21">
-        <v>0.6502213413765704</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="J21">
-        <v>0.3395756443229422</v>
+        <v>1.085836744099843</v>
       </c>
       <c r="K21">
-        <v>1.710227965757285</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="L21">
-        <v>0.6804893683211259</v>
+        <v>2.175952169848975</v>
       </c>
       <c r="M21">
-        <v>4.144726120502122</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="N21">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O21">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P21">
-        <v>13.94420681199529</v>
+        <v>44.58839253321814</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.3741321112915775</v>
+        <v>1.196335486303898</v>
       </c>
       <c r="C22">
-        <v>10.85403225781573</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="D22">
-        <v>0.001082709930912038</v>
+        <v>0.003462104087382763</v>
       </c>
       <c r="E22">
-        <v>0.3916176224987811</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="F22">
-        <v>0.4437081530845675</v>
+        <v>1.418813817570812</v>
       </c>
       <c r="G22">
-        <v>3.334286633561828</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="H22">
-        <v>0.1661087791266554</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I22">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J22">
-        <v>0.7286727367763135</v>
+        <v>2.33002468004758</v>
       </c>
       <c r="K22">
-        <v>3.669864176520842</v>
+        <v>11.73486212966546</v>
       </c>
       <c r="L22">
-        <v>1.055931778429333</v>
+        <v>3.376477504938066</v>
       </c>
       <c r="M22">
-        <v>6.431471566296396</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="N22">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O22">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P22">
-        <v>32.28117158013654</v>
+        <v>103.2231929183022</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.6139478640907479</v>
+        <v>1.963177162250652</v>
       </c>
       <c r="C23">
-        <v>17.81138191654617</v>
+        <v>56.95418170152513</v>
       </c>
       <c r="D23">
-        <v>0.002381961848006485</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E23">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F23">
-        <v>0.887416306169135</v>
+        <v>2.837627635141623</v>
       </c>
       <c r="G23">
-        <v>6.668573267123657</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="H23">
-        <v>0.4060436823096021</v>
+        <v>1.298376833946514</v>
       </c>
       <c r="I23">
-        <v>11.44389560822764</v>
+        <v>36.59332627294925</v>
       </c>
       <c r="J23">
-        <v>1.287557651391156</v>
+        <v>4.117130988045239</v>
       </c>
       <c r="K23">
-        <v>6.484614370163039</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="L23">
-        <v>1.407909037905778</v>
+        <v>4.501970006584088</v>
       </c>
       <c r="M23">
-        <v>8.575295421728528</v>
+        <v>27.42060868054695</v>
       </c>
       <c r="N23">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O23">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P23">
-        <v>57.41692693680069</v>
+        <v>183.5979995726157</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.032038056343476</v>
+        <v>3.300074259216889</v>
       </c>
       <c r="C24">
-        <v>29.94069211588074</v>
+        <v>95.73920917686769</v>
       </c>
       <c r="D24">
-        <v>0.002381961848006485</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E24">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F24">
-        <v>1.450584346622625</v>
+        <v>4.638429788212266</v>
       </c>
       <c r="G24">
-        <v>10.90055245587521</v>
+        <v>34.85591674625709</v>
       </c>
       <c r="H24">
-        <v>0.512168735640521</v>
+        <v>1.63772532463708</v>
       </c>
       <c r="I24">
-        <v>14.43491377855987</v>
+        <v>46.15749109428828</v>
       </c>
       <c r="J24">
-        <v>1.620058803124037</v>
+        <v>5.180346133309667</v>
       </c>
       <c r="K24">
-        <v>8.159212586633716</v>
+        <v>26.09013036595524</v>
       </c>
       <c r="L24">
-        <v>2.675027172020979</v>
+        <v>8.553743012509772</v>
       </c>
       <c r="M24">
-        <v>16.2930613012842</v>
+        <v>52.0991564930392</v>
       </c>
       <c r="N24">
-        <v>0.1150136791509508</v>
+        <v>0.367771013569641</v>
       </c>
       <c r="O24">
-        <v>1.817688480448867</v>
+        <v>5.812292413767326</v>
       </c>
       <c r="P24">
-        <v>89.81495224293052</v>
+        <v>287.1948472906356</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.186868185951088</v>
+        <v>3.795163487883125</v>
       </c>
       <c r="C25">
-        <v>34.43250442100813</v>
+        <v>110.1023560339746</v>
       </c>
       <c r="D25">
-        <v>0.002165419861824076</v>
+        <v>0.006924208174765525</v>
       </c>
       <c r="E25">
-        <v>0.7832352449975621</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="F25">
-        <v>1.331124459253704</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G25">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H25">
-        <v>0.2860762307181289</v>
+        <v>0.9147654966441349</v>
       </c>
       <c r="I25">
-        <v>8.062744633069473</v>
+        <v>25.78166169230516</v>
       </c>
       <c r="J25">
-        <v>1.344153592111647</v>
+        <v>4.298103778728545</v>
       </c>
       <c r="K25">
-        <v>6.769652364455921</v>
+        <v>21.64683305472269</v>
       </c>
       <c r="L25">
-        <v>1.548699941696355</v>
+        <v>4.952167007242497</v>
       </c>
       <c r="M25">
-        <v>9.43282496390138</v>
+        <v>30.16266954860166</v>
       </c>
       <c r="N25">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O25">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P25">
-        <v>76.22359513595676</v>
+        <v>243.7347370157669</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.9597514343184721</v>
+        <v>3.068928499461042</v>
       </c>
       <c r="C26">
-        <v>27.84356838982755</v>
+        <v>89.03338666944863</v>
       </c>
       <c r="D26">
-        <v>0.003031587806553708</v>
+        <v>0.009693891444671737</v>
       </c>
       <c r="E26">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="F26">
-        <v>1.552978535795986</v>
+        <v>4.965848361497838</v>
       </c>
       <c r="G26">
-        <v>11.67000321746641</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="H26">
-        <v>0.2445490359364649</v>
+        <v>0.7819769568086961</v>
       </c>
       <c r="I26">
-        <v>6.892346218591646</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="J26">
-        <v>1.818144595645753</v>
+        <v>5.813750900701244</v>
       </c>
       <c r="K26">
-        <v>9.156845566658799</v>
+        <v>29.28018997401964</v>
       </c>
       <c r="L26">
-        <v>3.824819552977363</v>
+        <v>12.2303518512201</v>
       </c>
       <c r="M26">
-        <v>23.29621922902917</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="N26">
-        <v>0.06635404566401006</v>
+        <v>0.2121755847517159</v>
       </c>
       <c r="O26">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="P26">
-        <v>89.47380718374295</v>
+        <v>286.1039921409015</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.8254350758260647</v>
+        <v>2.639434689103899</v>
       </c>
       <c r="C27">
-        <v>23.94688579074228</v>
+        <v>76.57324349687943</v>
       </c>
       <c r="D27">
-        <v>0.005954904620016212</v>
+        <v>0.0190415724806052</v>
       </c>
       <c r="E27">
-        <v>2.153896923743296</v>
+        <v>6.887362100032909</v>
       </c>
       <c r="F27">
-        <v>1.399387252035944</v>
+        <v>4.474720501569483</v>
       </c>
       <c r="G27">
-        <v>10.51582707507962</v>
+        <v>33.62570791991861</v>
       </c>
       <c r="H27">
-        <v>0.1891794428942465</v>
+        <v>0.6049255703614443</v>
       </c>
       <c r="I27">
-        <v>5.33181499928788</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="J27">
-        <v>2.129422269608451</v>
+        <v>6.809101249459433</v>
       </c>
       <c r="K27">
-        <v>10.72455453526964</v>
+        <v>34.29314078669226</v>
       </c>
       <c r="L27">
-        <v>3.449377142869156</v>
+        <v>11.02982651613102</v>
       </c>
       <c r="M27">
-        <v>21.0094737832349</v>
+        <v>67.18049126734003</v>
       </c>
       <c r="N27">
-        <v>0.09731926697388138</v>
+        <v>0.3111908576358501</v>
       </c>
       <c r="O27">
-        <v>1.538044098841349</v>
+        <v>4.918093580880046</v>
       </c>
       <c r="P27">
-        <v>83.31657256102672</v>
+        <v>266.4154434856545</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.8693931567872166</v>
+        <v>2.779996299766236</v>
       </c>
       <c r="C28">
-        <v>25.22216373226111</v>
+        <v>80.65110853517483</v>
       </c>
       <c r="D28">
-        <v>0.005521820647651395</v>
+        <v>0.01765673084565209</v>
       </c>
       <c r="E28">
-        <v>1.997249874743783</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="F28">
-        <v>1.331124459253704</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G28">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H28">
-        <v>0.267619699704056</v>
+        <v>0.8557483678283846</v>
       </c>
       <c r="I28">
-        <v>7.542567559968218</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="J28">
-        <v>1.754474162335201</v>
+        <v>5.610156511182523</v>
       </c>
       <c r="K28">
-        <v>8.836177823079309</v>
+        <v>28.2548136714275</v>
       </c>
       <c r="L28">
-        <v>4.012540758031468</v>
+        <v>12.83061451876465</v>
       </c>
       <c r="M28">
-        <v>24.4395919519263</v>
+        <v>78.14873473955878</v>
       </c>
       <c r="N28">
-        <v>0.1017428700181487</v>
+        <v>0.3253358966192977</v>
       </c>
       <c r="O28">
-        <v>1.607955194243229</v>
+        <v>5.141643289101865</v>
       </c>
       <c r="P28">
-        <v>87.99098296368489</v>
+        <v>281.3624712158935</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.8664626180564736</v>
+        <v>2.77062552572208</v>
       </c>
       <c r="C29">
-        <v>25.1371452028265</v>
+        <v>80.37925086595513</v>
       </c>
       <c r="D29">
-        <v>0.00508873667528658</v>
+        <v>0.01627188921069899</v>
       </c>
       <c r="E29">
-        <v>1.840602825744271</v>
+        <v>5.885563976391759</v>
       </c>
       <c r="F29">
-        <v>1.126336080906979</v>
+        <v>3.60160430614129</v>
       </c>
       <c r="G29">
-        <v>8.463958377503106</v>
+        <v>27.06459417944669</v>
       </c>
       <c r="H29">
-        <v>0.1799511773872101</v>
+        <v>0.5754170059535689</v>
       </c>
       <c r="I29">
-        <v>5.07172646273725</v>
+        <v>16.21749687096614</v>
       </c>
       <c r="J29">
-        <v>1.605909817943915</v>
+        <v>5.135102935638843</v>
       </c>
       <c r="K29">
-        <v>8.087953088060495</v>
+        <v>25.86226896537922</v>
       </c>
       <c r="L29">
-        <v>3.00353928086566</v>
+        <v>9.604202680712717</v>
       </c>
       <c r="M29">
-        <v>18.29396356635419</v>
+        <v>58.49729851850015</v>
       </c>
       <c r="N29">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O29">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P29">
-        <v>74.72332301330739</v>
+        <v>238.937424180892</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.9167701996009022</v>
+        <v>2.931490480146757</v>
       </c>
       <c r="C30">
-        <v>26.59662995812027</v>
+        <v>85.04614085422645</v>
       </c>
       <c r="D30">
-        <v>0.005305278661468988</v>
+        <v>0.01696431002817554</v>
       </c>
       <c r="E30">
-        <v>1.918926350244027</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="F30">
-        <v>1.092204684515859</v>
+        <v>3.492464781712767</v>
       </c>
       <c r="G30">
-        <v>8.207474790306044</v>
+        <v>26.2444549618877</v>
       </c>
       <c r="H30">
-        <v>0.2122501066618375</v>
+        <v>0.6786969813811325</v>
       </c>
       <c r="I30">
-        <v>5.982036340664449</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="J30">
-        <v>2.002081402987347</v>
+        <v>6.401912470421993</v>
       </c>
       <c r="K30">
-        <v>10.08321904811066</v>
+        <v>32.24238818150801</v>
       </c>
       <c r="L30">
-        <v>2.487305966966874</v>
+        <v>7.953480344965226</v>
       </c>
       <c r="M30">
-        <v>15.14968857838706</v>
+        <v>48.44307533563295</v>
       </c>
       <c r="N30">
-        <v>0.09289566392961407</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O30">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P30">
-        <v>76.2149213725959</v>
+        <v>243.7070015432018</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.8840458504409336</v>
+        <v>2.826850169987017</v>
       </c>
       <c r="C31">
-        <v>25.64725637943402</v>
+        <v>82.01039688127325</v>
       </c>
       <c r="D31">
-        <v>0.004222568730556949</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E31">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F31">
-        <v>1.552978535795986</v>
+        <v>4.965848361497838</v>
       </c>
       <c r="G31">
-        <v>11.67000321746641</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="H31">
-        <v>0.1937935756477647</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I31">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J31">
-        <v>1.895964014136428</v>
+        <v>6.062588487890791</v>
       </c>
       <c r="K31">
-        <v>9.54877280881151</v>
+        <v>30.5334276771878</v>
       </c>
       <c r="L31">
-        <v>2.36998021380806</v>
+        <v>7.578316177749884</v>
       </c>
       <c r="M31">
-        <v>14.43508062657635</v>
+        <v>46.15802461225403</v>
       </c>
       <c r="N31">
-        <v>0.1061664730624161</v>
+        <v>0.3394809356027456</v>
       </c>
       <c r="O31">
-        <v>1.677866289645108</v>
+        <v>5.365192997323686</v>
       </c>
       <c r="P31">
-        <v>76.97529854886398</v>
+        <v>246.1384052412291</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.9363071244725248</v>
+        <v>2.993962307107798</v>
       </c>
       <c r="C32">
-        <v>27.16342015435085</v>
+        <v>86.85852531569107</v>
       </c>
       <c r="D32">
-        <v>0.004872194689104172</v>
+        <v>0.01557946839322243</v>
       </c>
       <c r="E32">
-        <v>1.762279301244514</v>
+        <v>5.63511444548147</v>
       </c>
       <c r="F32">
-        <v>1.535912837600426</v>
+        <v>4.911278599283576</v>
       </c>
       <c r="G32">
-        <v>11.54176142386787</v>
+        <v>36.90626479015456</v>
       </c>
       <c r="H32">
-        <v>0.203021841154801</v>
+        <v>0.6491884169732571</v>
       </c>
       <c r="I32">
-        <v>5.721947804113821</v>
+        <v>18.29666313647462</v>
       </c>
       <c r="J32">
-        <v>1.846442566005999</v>
+        <v>5.904237296042898</v>
       </c>
       <c r="K32">
-        <v>9.299364563805238</v>
+        <v>29.73591277517169</v>
       </c>
       <c r="L32">
-        <v>2.346515063176298</v>
+        <v>7.503283344306816</v>
       </c>
       <c r="M32">
-        <v>14.29215903621421</v>
+        <v>45.70101446757823</v>
       </c>
       <c r="N32">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O32">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P32">
-        <v>77.69468968894172</v>
+        <v>248.438750823533</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.088206715349392</v>
+        <v>3.479680761729876</v>
       </c>
       <c r="C33">
-        <v>31.57021393004365</v>
+        <v>100.9498145035784</v>
       </c>
       <c r="D33">
-        <v>0.004439110716739357</v>
+        <v>0.01419462675826933</v>
       </c>
       <c r="E33">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="F33">
-        <v>1.928423896098313</v>
+        <v>6.1663831302116</v>
       </c>
       <c r="G33">
-        <v>14.4913226766341</v>
+        <v>46.33786579208296</v>
       </c>
       <c r="H33">
-        <v>0.1937935756477647</v>
+        <v>0.6196798525653817</v>
       </c>
       <c r="I33">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="J33">
-        <v>1.839368073415937</v>
+        <v>5.881615697207485</v>
       </c>
       <c r="K33">
-        <v>9.263734814518628</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="L33">
-        <v>1.830281749277512</v>
+        <v>5.852561008559318</v>
       </c>
       <c r="M33">
-        <v>11.14788404824709</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="N33">
-        <v>0.07962485479681204</v>
+        <v>0.2546107017020591</v>
       </c>
       <c r="O33">
-        <v>1.258399717233831</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="P33">
-        <v>81.76318468178796</v>
+        <v>261.4482861959149</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.232291536277611</v>
+        <v>3.940410485567535</v>
       </c>
       <c r="C34">
-        <v>35.75029162724424</v>
+        <v>114.3161499068798</v>
       </c>
       <c r="D34">
-        <v>0.004222568730556949</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E34">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F34">
-        <v>1.331124459253704</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G34">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H34">
-        <v>0.3276034254997926</v>
+        <v>1.047554036479574</v>
       </c>
       <c r="I34">
-        <v>9.233143047547303</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="J34">
-        <v>1.245110695850788</v>
+        <v>3.981401395032758</v>
       </c>
       <c r="K34">
-        <v>6.270835874443378</v>
+        <v>20.05180325069049</v>
       </c>
       <c r="L34">
-        <v>1.009001477165807</v>
+        <v>3.226411838051929</v>
       </c>
       <c r="M34">
-        <v>6.14562838557211</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="N34">
-        <v>0.1282844882837527</v>
+        <v>0.4102061305199842</v>
       </c>
       <c r="O34">
-        <v>2.027421766654506</v>
+        <v>6.482941538432788</v>
       </c>
       <c r="P34">
-        <v>76.23512798095429</v>
+        <v>243.7716147691384</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.242059998713422</v>
+        <v>3.971646399048057</v>
       </c>
       <c r="C35">
-        <v>36.03368672535953</v>
+        <v>115.2223421376122</v>
       </c>
       <c r="D35">
-        <v>0.004114297737465746</v>
+        <v>0.0131559955320545</v>
       </c>
       <c r="E35">
-        <v>1.488146965495368</v>
+        <v>4.758541087295464</v>
       </c>
       <c r="F35">
-        <v>1.17753317549366</v>
+        <v>3.765313592784076</v>
       </c>
       <c r="G35">
-        <v>8.848683758298701</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="H35">
-        <v>0.3276034254997926</v>
+        <v>1.047554036479574</v>
       </c>
       <c r="I35">
-        <v>9.233143047547303</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="J35">
-        <v>1.011652440378766</v>
+        <v>3.234888633464115</v>
       </c>
       <c r="K35">
-        <v>5.095054147985246</v>
+        <v>16.29209014118603</v>
       </c>
       <c r="L35">
-        <v>0.2111863556858667</v>
+        <v>0.675295500987613</v>
       </c>
       <c r="M35">
-        <v>1.286294313259279</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="N35">
-        <v>0.05308323653120803</v>
+        <v>0.1697404678013728</v>
       </c>
       <c r="O35">
-        <v>0.838933144822554</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="P35">
-        <v>66.85117503280816</v>
+        <v>213.7652197689401</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.9333765857417811</v>
+        <v>2.98459153306364</v>
       </c>
       <c r="C36">
-        <v>27.07840162491626</v>
+        <v>86.5866676464714</v>
       </c>
       <c r="D36">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E36">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F36">
-        <v>0.8362192115824545</v>
+        <v>2.673918348498836</v>
       </c>
       <c r="G36">
-        <v>6.283847886328063</v>
+        <v>20.09341083019527</v>
       </c>
       <c r="H36">
-        <v>0.2999186289786834</v>
+        <v>0.9590283432559482</v>
       </c>
       <c r="I36">
-        <v>8.452877437895413</v>
+        <v>27.02916145161024</v>
       </c>
       <c r="J36">
-        <v>0.6862257812359458</v>
+        <v>2.194295087035099</v>
       </c>
       <c r="K36">
-        <v>3.456085680801181</v>
+        <v>11.05127792793737</v>
       </c>
       <c r="L36">
-        <v>0.4223727113717335</v>
+        <v>1.350591001975226</v>
       </c>
       <c r="M36">
-        <v>2.572588626518558</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="N36">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O36">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P36">
-        <v>51.95177886908196</v>
+        <v>166.1224865813728</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.7638937624804528</v>
+        <v>2.442648434176627</v>
       </c>
       <c r="C37">
-        <v>22.16149667261593</v>
+        <v>70.86423244326599</v>
       </c>
       <c r="D37">
-        <v>0.002923316813462504</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E37">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F37">
-        <v>0.5631680404534897</v>
+        <v>1.800802153070645</v>
       </c>
       <c r="G37">
-        <v>4.231979188751553</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="H37">
-        <v>0.336831691006829</v>
+        <v>1.077062600887449</v>
       </c>
       <c r="I37">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="J37">
-        <v>0.4173950628136165</v>
+        <v>1.33467433128939</v>
       </c>
       <c r="K37">
-        <v>2.102155207909997</v>
+        <v>6.721911316992835</v>
       </c>
       <c r="L37">
-        <v>0.3989075607399705</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M37">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N37">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O37">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P37">
-        <v>44.1820207999248</v>
+        <v>141.2776870637912</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.5587560513284138</v>
+        <v>1.786694251085717</v>
       </c>
       <c r="C38">
-        <v>16.21019961219477</v>
+        <v>51.83419559788761</v>
       </c>
       <c r="D38">
-        <v>0.001624064896368057</v>
+        <v>0.005193156131074145</v>
       </c>
       <c r="E38">
-        <v>0.5874264337481715</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="F38">
-        <v>0.4778395494756881</v>
+        <v>1.527953341999335</v>
       </c>
       <c r="G38">
-        <v>3.590770220758894</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="H38">
-        <v>0.2537773014435014</v>
+        <v>0.8114855212165715</v>
       </c>
       <c r="I38">
-        <v>7.152434755142275</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="J38">
-        <v>0.3749481072732488</v>
+        <v>1.19894473827691</v>
       </c>
       <c r="K38">
-        <v>1.888376712190336</v>
+        <v>6.03832711526475</v>
       </c>
       <c r="L38">
-        <v>0.2111863556858667</v>
+        <v>0.675295500987613</v>
       </c>
       <c r="M38">
-        <v>1.286294313259279</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="N38">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O38">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P38">
-        <v>32.7423028742891</v>
+        <v>104.6977194675885</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.392692189919619</v>
+        <v>1.255683721916884</v>
       </c>
       <c r="C39">
-        <v>11.39248294423479</v>
+        <v>36.42892767543853</v>
       </c>
       <c r="D39">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E39">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F39">
-        <v>0.2389197747378441</v>
+        <v>0.7639766709996677</v>
       </c>
       <c r="G39">
-        <v>1.795385110379447</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="H39">
-        <v>0.1291957170985097</v>
+        <v>0.4131199017102546</v>
       </c>
       <c r="I39">
-        <v>3.641239511708794</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="J39">
-        <v>0.2051602851117776</v>
+        <v>0.6560263662269885</v>
       </c>
       <c r="K39">
-        <v>1.033262729311693</v>
+        <v>3.30399030835241</v>
       </c>
       <c r="L39">
-        <v>0.4458378620034963</v>
+        <v>1.425623835418295</v>
       </c>
       <c r="M39">
-        <v>2.715510216880701</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="N39">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O39">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P39">
-        <v>22.84521633665242</v>
+        <v>73.05051389862373</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2339546753376836</v>
+        <v>0.7481001278584427</v>
       </c>
       <c r="C40">
-        <v>6.787312599861276</v>
+        <v>21.70330392603861</v>
       </c>
       <c r="D40">
-        <v>0.00227369085491528</v>
+        <v>0.007270418583503802</v>
       </c>
       <c r="E40">
-        <v>0.8223970072474399</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="F40">
-        <v>0.2047883783467235</v>
+        <v>0.6548371465711436</v>
       </c>
       <c r="G40">
-        <v>1.538901523182383</v>
+        <v>4.920835305353942</v>
       </c>
       <c r="H40">
-        <v>0.05536959304221846</v>
+        <v>0.1770513864472519</v>
       </c>
       <c r="I40">
-        <v>1.560531219303769</v>
+        <v>4.989999037220354</v>
       </c>
       <c r="J40">
-        <v>0.1839368073415938</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K40">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L40">
-        <v>0.2815818075811558</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M40">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="N40">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O40">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P40">
-        <v>14.46114926478902</v>
+        <v>46.24138243167714</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,43 +2418,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1724133619920717</v>
+        <v>0.5513138729311694</v>
       </c>
       <c r="C41">
-        <v>5.001923481734925</v>
+        <v>15.99429287242512</v>
       </c>
       <c r="D41">
-        <v>0.003572942772009727</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E41">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F41">
-        <v>0.0170656981955603</v>
+        <v>0.05456976221426198</v>
       </c>
       <c r="G41">
-        <v>0.1282417935985319</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="H41">
-        <v>0.02768479652110923</v>
+        <v>0.08852569322362597</v>
       </c>
       <c r="I41">
-        <v>0.7802656096518843</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="J41">
-        <v>0.2900541961925132</v>
+        <v>0.9274855522519494</v>
       </c>
       <c r="K41">
-        <v>1.460819720751014</v>
+        <v>4.671158711808581</v>
       </c>
       <c r="L41">
-        <v>0.3754424101082076</v>
+        <v>1.20052533508909</v>
       </c>
       <c r="M41">
-        <v>2.286745445794274</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="P41">
-        <v>11.83656761155808</v>
+        <v>37.84894544565409</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2462,49 +2462,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1006151630888576</v>
+        <v>0.3217299088493512</v>
       </c>
       <c r="C42">
-        <v>2.918969510587519</v>
+        <v>9.333779976542708</v>
       </c>
       <c r="D42">
-        <v>0.002598503834188892</v>
+        <v>0.008309049809718631</v>
       </c>
       <c r="E42">
-        <v>0.9398822939970746</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="F42">
-        <v>0.0170656981955603</v>
+        <v>0.05456976221426198</v>
       </c>
       <c r="G42">
-        <v>0.1282417935985319</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="H42">
-        <v>0.01845653101407283</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I42">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J42">
-        <v>0.2263837628819615</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K42">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L42">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M42">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N42">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O42">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P42">
-        <v>8.582678120825269</v>
+        <v>27.44421580927924</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2512,43 +2512,43 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.0771708532429102</v>
+        <v>0.2467637164961043</v>
       </c>
       <c r="C43">
-        <v>2.238821275110817</v>
+        <v>7.158918622785179</v>
       </c>
       <c r="D43">
-        <v>0.003681213765100929</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E43">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F43">
-        <v>0.1365255855644824</v>
+        <v>0.4365580977140959</v>
       </c>
       <c r="G43">
-        <v>1.025934348788256</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="H43">
-        <v>0.004614132753518208</v>
+        <v>0.01475428220393767</v>
       </c>
       <c r="I43">
-        <v>0.1300442682753141</v>
+        <v>0.4158332531016961</v>
       </c>
       <c r="J43">
-        <v>0.1485643443912872</v>
+        <v>0.4750535755436814</v>
       </c>
       <c r="K43">
-        <v>0.7482247350188121</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="L43">
-        <v>0.4693030126352593</v>
+        <v>1.500656668861363</v>
       </c>
       <c r="M43">
-        <v>2.858431807242844</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="P43">
-        <v>9.172815493284457</v>
+        <v>29.33125586587796</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2556,49 +2556,49 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.09573093187095195</v>
+        <v>0.3061119521090915</v>
       </c>
       <c r="C44">
-        <v>2.777271961529875</v>
+        <v>8.880683861176552</v>
       </c>
       <c r="D44">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E44">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F44">
-        <v>0.1023941891733618</v>
+        <v>0.3274185732855718</v>
       </c>
       <c r="G44">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H44">
-        <v>0.04152719478166385</v>
+        <v>0.132788539835439</v>
       </c>
       <c r="I44">
-        <v>1.170398414477827</v>
+        <v>3.742499277915265</v>
       </c>
       <c r="J44">
-        <v>0.1839368073415938</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K44">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L44">
-        <v>0.3989075607399705</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M44">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N44">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O44">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P44">
-        <v>9.676853635934307</v>
+        <v>30.94298257498361</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2606,49 +2606,49 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.141154282197475</v>
+        <v>0.4513589497935071</v>
       </c>
       <c r="C45">
-        <v>4.095059167765986</v>
+        <v>13.09447773408175</v>
       </c>
       <c r="D45">
-        <v>0.000541354965456019</v>
+        <v>0.001731052043691381</v>
       </c>
       <c r="E45">
-        <v>0.1958088112493905</v>
+        <v>0.626123827275719</v>
       </c>
       <c r="F45">
-        <v>0.2218540765422838</v>
+        <v>0.7094069087854058</v>
       </c>
       <c r="G45">
-        <v>1.667143316780914</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="H45">
-        <v>0.02307066376759103</v>
+        <v>0.07377141101968832</v>
       </c>
       <c r="I45">
-        <v>0.6502213413765704</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="J45">
-        <v>0.3395756443229422</v>
+        <v>1.085836744099843</v>
       </c>
       <c r="K45">
-        <v>1.710227965757285</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="L45">
-        <v>0.6804893683211259</v>
+        <v>2.175952169848975</v>
       </c>
       <c r="M45">
-        <v>4.144726120502122</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="N45">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O45">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P45">
-        <v>13.94420681199529</v>
+        <v>44.58839253321814</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2656,49 +2656,49 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.3741321112915775</v>
+        <v>1.196335486303898</v>
       </c>
       <c r="C46">
-        <v>10.85403225781573</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="D46">
-        <v>0.001082709930912038</v>
+        <v>0.003462104087382763</v>
       </c>
       <c r="E46">
-        <v>0.3916176224987811</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="F46">
-        <v>0.4437081530845675</v>
+        <v>1.418813817570812</v>
       </c>
       <c r="G46">
-        <v>3.334286633561828</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="H46">
-        <v>0.1661087791266554</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I46">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J46">
-        <v>0.7286727367763135</v>
+        <v>2.33002468004758</v>
       </c>
       <c r="K46">
-        <v>3.669864176520842</v>
+        <v>11.73486212966546</v>
       </c>
       <c r="L46">
-        <v>1.055931778429333</v>
+        <v>3.376477504938066</v>
       </c>
       <c r="M46">
-        <v>6.431471566296396</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="N46">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O46">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P46">
-        <v>32.28117158013654</v>
+        <v>103.2231929183022</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2706,49 +2706,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.6139478640907479</v>
+        <v>1.963177162250652</v>
       </c>
       <c r="C47">
-        <v>17.81138191654617</v>
+        <v>56.95418170152513</v>
       </c>
       <c r="D47">
-        <v>0.002381961848006485</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E47">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F47">
-        <v>0.887416306169135</v>
+        <v>2.837627635141623</v>
       </c>
       <c r="G47">
-        <v>6.668573267123657</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="H47">
-        <v>0.4060436823096021</v>
+        <v>1.298376833946514</v>
       </c>
       <c r="I47">
-        <v>11.44389560822764</v>
+        <v>36.59332627294925</v>
       </c>
       <c r="J47">
-        <v>1.287557651391156</v>
+        <v>4.117130988045239</v>
       </c>
       <c r="K47">
-        <v>6.484614370163039</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="L47">
-        <v>1.407909037905778</v>
+        <v>4.501970006584088</v>
       </c>
       <c r="M47">
-        <v>8.575295421728528</v>
+        <v>27.42060868054695</v>
       </c>
       <c r="N47">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O47">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P47">
-        <v>57.41692693680069</v>
+        <v>183.5979995726157</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2756,49 +2756,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.032038056343476</v>
+        <v>3.300074259216889</v>
       </c>
       <c r="C48">
-        <v>29.94069211588074</v>
+        <v>95.73920917686769</v>
       </c>
       <c r="D48">
-        <v>0.002381961848006485</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E48">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F48">
-        <v>1.450584346622625</v>
+        <v>4.638429788212266</v>
       </c>
       <c r="G48">
-        <v>10.90055245587521</v>
+        <v>34.85591674625709</v>
       </c>
       <c r="H48">
-        <v>0.512168735640521</v>
+        <v>1.63772532463708</v>
       </c>
       <c r="I48">
-        <v>14.43491377855987</v>
+        <v>46.15749109428828</v>
       </c>
       <c r="J48">
-        <v>1.620058803124037</v>
+        <v>5.180346133309667</v>
       </c>
       <c r="K48">
-        <v>8.159212586633716</v>
+        <v>26.09013036595524</v>
       </c>
       <c r="L48">
-        <v>2.675027172020979</v>
+        <v>8.553743012509772</v>
       </c>
       <c r="M48">
-        <v>16.2930613012842</v>
+        <v>52.0991564930392</v>
       </c>
       <c r="N48">
-        <v>0.1150136791509508</v>
+        <v>0.367771013569641</v>
       </c>
       <c r="O48">
-        <v>1.817688480448867</v>
+        <v>5.812292413767326</v>
       </c>
       <c r="P48">
-        <v>89.81495224293052</v>
+        <v>287.1948472906356</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2806,49 +2806,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.186868185951088</v>
+        <v>3.795163487883125</v>
       </c>
       <c r="C49">
-        <v>34.43250442100813</v>
+        <v>110.1023560339746</v>
       </c>
       <c r="D49">
-        <v>0.002165419861824076</v>
+        <v>0.006924208174765525</v>
       </c>
       <c r="E49">
-        <v>0.7832352449975621</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="F49">
-        <v>1.331124459253704</v>
+        <v>4.256441452712433</v>
       </c>
       <c r="G49">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="H49">
-        <v>0.2860762307181289</v>
+        <v>0.9147654966441349</v>
       </c>
       <c r="I49">
-        <v>8.062744633069473</v>
+        <v>25.78166169230516</v>
       </c>
       <c r="J49">
-        <v>1.344153592111647</v>
+        <v>4.298103778728545</v>
       </c>
       <c r="K49">
-        <v>6.769652364455921</v>
+        <v>21.64683305472269</v>
       </c>
       <c r="L49">
-        <v>1.548699941696355</v>
+        <v>4.952167007242497</v>
       </c>
       <c r="M49">
-        <v>9.43282496390138</v>
+        <v>30.16266954860166</v>
       </c>
       <c r="N49">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O49">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P49">
-        <v>76.22359513595676</v>
+        <v>243.7347370157669</v>
       </c>
     </row>
   </sheetData>
